--- a/BAfc_claude_code/figures/figure_4/figure_4_data.xlsx
+++ b/BAfc_claude_code/figures/figure_4/figure_4_data.xlsx
@@ -17,9 +17,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="419" uniqueCount="101">
-  <si>
-    <t>PANELS B &amp; D: Delta Peak FR Bar Charts (Monosynaptic 12-25ms window)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="438" uniqueCount="101">
+  <si>
+    <t>PANELS B &amp; D: ΔFR Bar Charts (Monosynaptic 12-25ms window)</t>
+  </si>
+  <si>
+    <t>ΔFR calculated as: (nSpikes/trial) / window_duration</t>
   </si>
   <si>
     <t>=== LA ===</t>
@@ -67,25 +70,25 @@
     <t xml:space="preserve">  (Post-hoc not performed - Friedman test n.s.)</t>
   </si>
   <si>
-    <t>(n = 19 neurons)</t>
+    <t>(n = 22 neurons)</t>
   </si>
   <si>
     <t>Mean (Hz)</t>
   </si>
   <si>
-    <t>(n = 38 neurons)</t>
-  </si>
-  <si>
-    <t>(n = 34 neurons)</t>
-  </si>
-  <si>
-    <t>(n = 7 neurons)</t>
-  </si>
-  <si>
-    <t>(n = 18 neurons)</t>
-  </si>
-  <si>
-    <t>(n = 23 neurons)</t>
+    <t>(n = 45 neurons)</t>
+  </si>
+  <si>
+    <t>(n = 36 neurons)</t>
+  </si>
+  <si>
+    <t>(n = 9 neurons)</t>
+  </si>
+  <si>
+    <t>(n = 17 neurons)</t>
+  </si>
+  <si>
+    <t>(n = 27 neurons)</t>
   </si>
   <si>
     <t>SEM (Hz)</t>
@@ -94,12 +97,12 @@
     <t>***</t>
   </si>
   <si>
+    <t>n.s.</t>
+  </si>
+  <si>
     <t>**</t>
   </si>
   <si>
-    <t>n.s.</t>
-  </si>
-  <si>
     <t>*</t>
   </si>
   <si>
@@ -193,16 +196,13 @@
     <t>Range (ms)</t>
   </si>
   <si>
-    <t>[12.00, 24.00]</t>
-  </si>
-  <si>
-    <t>[12.00, 22.00]</t>
+    <t>[10.00, 24.00]</t>
   </si>
   <si>
     <t>[13.00, 24.00]</t>
   </si>
   <si>
-    <t>RAW DATA: Individual Neuron Delta Peak FR and Onset Latency Values</t>
+    <t>RAW DATA: Individual Neuron ΔFR and Onset Latency Values</t>
   </si>
   <si>
     <t>These are the individual data points used to calculate means and SEMs in Panels B, D &amp; G</t>
@@ -211,7 +211,7 @@
     <t>========== LA ==========</t>
   </si>
   <si>
-    <t>CS-sel (n = 19 neurons)</t>
+    <t>CS-sel (n = 22 neurons)</t>
   </si>
   <si>
     <t>Local #</t>
@@ -223,22 +223,22 @@
     <t>SEM:</t>
   </si>
   <si>
-    <t>US-sel (n = 38 neurons)</t>
-  </si>
-  <si>
-    <t>Multi (n = 34 neurons)</t>
+    <t>US-sel (n = 45 neurons)</t>
+  </si>
+  <si>
+    <t>Multi (n = 36 neurons)</t>
   </si>
   <si>
     <t>========== AStria ==========</t>
   </si>
   <si>
-    <t>CS-sel (n = 7 neurons)</t>
-  </si>
-  <si>
-    <t>US-sel (n = 18 neurons)</t>
-  </si>
-  <si>
-    <t>Multi (n = 23 neurons)</t>
+    <t>CS-sel (n = 9 neurons)</t>
+  </si>
+  <si>
+    <t>US-sel (n = 17 neurons)</t>
+  </si>
+  <si>
+    <t>Multi (n = 27 neurons)</t>
   </si>
   <si>
     <t>Global Index</t>
@@ -250,6 +250,9 @@
     <t>MD295_001</t>
   </si>
   <si>
+    <t>MD297_001</t>
+  </si>
+  <si>
     <t>MD300_001</t>
   </si>
   <si>
@@ -277,9 +280,6 @@
     <t>MD296_001</t>
   </si>
   <si>
-    <t>MD297_001</t>
-  </si>
-  <si>
     <t>MD312_001</t>
   </si>
   <si>
@@ -289,6 +289,9 @@
     <t>MD299_001</t>
   </si>
   <si>
+    <t>MD310_001</t>
+  </si>
+  <si>
     <t>MD318_001</t>
   </si>
   <si>
@@ -298,19 +301,16 @@
     <t>MD305_001</t>
   </si>
   <si>
-    <t>MD310_001</t>
-  </si>
-  <si>
     <t>MD317_001</t>
   </si>
   <si>
-    <t>ΔPeak FR CS (Hz)</t>
-  </si>
-  <si>
-    <t>ΔPeak FR US (Hz)</t>
-  </si>
-  <si>
-    <t>ΔPeak FR CS+US (Hz)</t>
+    <t>ΔFR CS (Hz)</t>
+  </si>
+  <si>
+    <t>ΔFR US (Hz)</t>
+  </si>
+  <si>
+    <t>ΔFR CS+US (Hz)</t>
   </si>
   <si>
     <t>Onset Lat CS (ms)</t>
@@ -365,13 +365,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E73"/>
+  <dimension ref="A1:E74"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="64.85546875" customWidth="true"/>
+    <col min="1" max="1" width="56.140625" customWidth="true"/>
     <col min="2" max="2" width="15.7109375" customWidth="true"/>
     <col min="3" max="3" width="11.7109375" customWidth="true"/>
     <col min="4" max="4" width="11.85546875" customWidth="true"/>
@@ -388,16 +388,16 @@
       <c r="E1" s="0"/>
     </row>
     <row r="2">
-      <c r="A2" s="0"/>
+      <c r="A2" s="0" t="s">
+        <v>1</v>
+      </c>
       <c r="B2" s="0"/>
       <c r="C2" s="0"/>
       <c r="D2" s="0"/>
       <c r="E2" s="0"/>
     </row>
     <row r="3">
-      <c r="A3" s="0" t="s">
-        <v>1</v>
-      </c>
+      <c r="A3" s="0"/>
       <c r="B3" s="0"/>
       <c r="C3" s="0"/>
       <c r="D3" s="0"/>
@@ -407,9 +407,7 @@
       <c r="A4" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="0" t="s">
-        <v>16</v>
-      </c>
+      <c r="B4" s="0"/>
       <c r="C4" s="0"/>
       <c r="D4" s="0"/>
       <c r="E4" s="0"/>
@@ -421,31 +419,25 @@
       <c r="B5" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="E5" s="0" t="s">
-        <v>29</v>
-      </c>
+      <c r="C5" s="0"/>
+      <c r="D5" s="0"/>
+      <c r="E5" s="0"/>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="0">
-        <v>167.98156390977442</v>
-      </c>
-      <c r="C6" s="0">
-        <v>44.106758207715103</v>
-      </c>
-      <c r="D6" s="0">
-        <v>91.571999999999989</v>
-      </c>
-      <c r="E6" s="0">
-        <v>192.25690175461332</v>
+      <c r="B6" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="7">
@@ -453,16 +445,16 @@
         <v>5</v>
       </c>
       <c r="B7" s="0">
-        <v>22.628180451127818</v>
+        <v>21.88636363636363</v>
       </c>
       <c r="C7" s="0">
-        <v>5.1146173779712925</v>
+        <v>4.7495808321624926</v>
       </c>
       <c r="D7" s="0">
-        <v>18.128571428571423</v>
+        <v>14.999999999999998</v>
       </c>
       <c r="E7" s="0">
-        <v>22.29410028545384</v>
+        <v>22.277508787730234</v>
       </c>
     </row>
     <row r="8">
@@ -470,35 +462,39 @@
         <v>6</v>
       </c>
       <c r="B8" s="0">
-        <v>31.169533834586471</v>
+        <v>4.0984848484848477</v>
       </c>
       <c r="C8" s="0">
-        <v>13.263540712639729</v>
+        <v>1.2165391169827795</v>
       </c>
       <c r="D8" s="0">
-        <v>16.629599999999996</v>
+        <v>2.583333333333333</v>
       </c>
       <c r="E8" s="0">
-        <v>57.814433599934034</v>
+        <v>5.7060742467377077</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="0"/>
-      <c r="B9" s="0"/>
-      <c r="C9" s="0"/>
-      <c r="D9" s="0"/>
-      <c r="E9" s="0"/>
+      <c r="A9" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="0">
+        <v>3.185606060606061</v>
+      </c>
+      <c r="C9" s="0">
+        <v>0.67147284096966042</v>
+      </c>
+      <c r="D9" s="0">
+        <v>2.4999999999999996</v>
+      </c>
+      <c r="E9" s="0">
+        <v>3.149486795577507</v>
+      </c>
     </row>
     <row r="10">
-      <c r="A10" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="0">
-        <v>2.3214157221492459e-06</v>
-      </c>
-      <c r="C10" s="0" t="s">
-        <v>24</v>
-      </c>
+      <c r="A10" s="0"/>
+      <c r="B10" s="0"/>
+      <c r="C10" s="0"/>
       <c r="D10" s="0"/>
       <c r="E10" s="0"/>
     </row>
@@ -506,8 +502,12 @@
       <c r="A11" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="0"/>
-      <c r="C11" s="0"/>
+      <c r="B11" s="0">
+        <v>2.1422511481895651e-08</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>25</v>
+      </c>
       <c r="D11" s="0"/>
       <c r="E11" s="0"/>
     </row>
@@ -515,12 +515,8 @@
       <c r="A12" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="0">
-        <v>0.00013183388898283362</v>
-      </c>
-      <c r="C12" s="0" t="s">
-        <v>24</v>
-      </c>
+      <c r="B12" s="0"/>
+      <c r="C12" s="0"/>
       <c r="D12" s="0"/>
       <c r="E12" s="0"/>
     </row>
@@ -529,7 +525,7 @@
         <v>10</v>
       </c>
       <c r="B13" s="0">
-        <v>0.0010378139715892416</v>
+        <v>3.9958991949717583e-05</v>
       </c>
       <c r="C13" s="0" t="s">
         <v>25</v>
@@ -542,64 +538,60 @@
         <v>11</v>
       </c>
       <c r="B14" s="0">
-        <v>0.8616584578289358</v>
+        <v>4.0052719907497888e-05</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D14" s="0"/>
       <c r="E14" s="0"/>
     </row>
     <row r="15">
-      <c r="A15" s="0"/>
-      <c r="B15" s="0"/>
-      <c r="C15" s="0"/>
+      <c r="A15" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="0">
+        <v>0.53107982669902698</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>26</v>
+      </c>
       <c r="D15" s="0"/>
       <c r="E15" s="0"/>
     </row>
     <row r="16">
-      <c r="A16" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="B16" s="0" t="s">
-        <v>18</v>
-      </c>
+      <c r="A16" s="0"/>
+      <c r="B16" s="0"/>
       <c r="C16" s="0"/>
       <c r="D16" s="0"/>
       <c r="E16" s="0"/>
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="C17" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="D17" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="E17" s="0" t="s">
-        <v>29</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="C17" s="0"/>
+      <c r="D17" s="0"/>
+      <c r="E17" s="0"/>
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="B18" s="0">
-        <v>18.935383458646612</v>
-      </c>
-      <c r="C18" s="0">
-        <v>3.3374536841004976</v>
-      </c>
-      <c r="D18" s="0">
-        <v>13.469714285714293</v>
-      </c>
-      <c r="E18" s="0">
-        <v>20.573446224529505</v>
+      <c r="B18" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="E18" s="0" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="19">
@@ -607,16 +599,16 @@
         <v>5</v>
       </c>
       <c r="B19" s="0">
-        <v>120.83012030075183</v>
+        <v>4.9648148148148143</v>
       </c>
       <c r="C19" s="0">
-        <v>16.157978478524516</v>
+        <v>0.83837903802392966</v>
       </c>
       <c r="D19" s="0">
-        <v>92.928628571428575</v>
+        <v>2.6666666666666665</v>
       </c>
       <c r="E19" s="0">
-        <v>99.604468792687882</v>
+        <v>5.6240175597971636</v>
       </c>
     </row>
     <row r="20">
@@ -624,35 +616,39 @@
         <v>6</v>
       </c>
       <c r="B20" s="0">
-        <v>108.19854135338346</v>
+        <v>18.520370370370372</v>
       </c>
       <c r="C20" s="0">
-        <v>14.804624750731399</v>
+        <v>2.0363113568135924</v>
       </c>
       <c r="D20" s="0">
-        <v>76.133085714285698</v>
+        <v>15.833333333333332</v>
       </c>
       <c r="E20" s="0">
-        <v>91.261836122109727</v>
+        <v>13.659991851570068</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="0"/>
-      <c r="B21" s="0"/>
-      <c r="C21" s="0"/>
-      <c r="D21" s="0"/>
-      <c r="E21" s="0"/>
+      <c r="A21" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B21" s="0">
+        <v>16.874074074074073</v>
+      </c>
+      <c r="C21" s="0">
+        <v>1.8723590121442788</v>
+      </c>
+      <c r="D21" s="0">
+        <v>13.333333333333332</v>
+      </c>
+      <c r="E21" s="0">
+        <v>12.560166088316885</v>
+      </c>
     </row>
     <row r="22">
-      <c r="A22" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="B22" s="0">
-        <v>1.1550371693508156e-13</v>
-      </c>
-      <c r="C22" s="0" t="s">
-        <v>24</v>
-      </c>
+      <c r="A22" s="0"/>
+      <c r="B22" s="0"/>
+      <c r="C22" s="0"/>
       <c r="D22" s="0"/>
       <c r="E22" s="0"/>
     </row>
@@ -660,8 +656,12 @@
       <c r="A23" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B23" s="0"/>
-      <c r="C23" s="0"/>
+      <c r="B23" s="0">
+        <v>3.3986521827682423e-13</v>
+      </c>
+      <c r="C23" s="0" t="s">
+        <v>25</v>
+      </c>
       <c r="D23" s="0"/>
       <c r="E23" s="0"/>
     </row>
@@ -669,12 +669,8 @@
       <c r="A24" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="B24" s="0">
-        <v>7.7215540515608086e-08</v>
-      </c>
-      <c r="C24" s="0" t="s">
-        <v>24</v>
-      </c>
+      <c r="B24" s="0"/>
+      <c r="C24" s="0"/>
       <c r="D24" s="0"/>
       <c r="E24" s="0"/>
     </row>
@@ -683,10 +679,10 @@
         <v>10</v>
       </c>
       <c r="B25" s="0">
-        <v>7.7306386203922628e-08</v>
+        <v>2.4141976974792387e-08</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D25" s="0"/>
       <c r="E25" s="0"/>
@@ -696,64 +692,60 @@
         <v>11</v>
       </c>
       <c r="B26" s="0">
-        <v>0.059366500886017103</v>
+        <v>3.1853185078974834e-08</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D26" s="0"/>
       <c r="E26" s="0"/>
     </row>
     <row r="27">
-      <c r="A27" s="0"/>
-      <c r="B27" s="0"/>
-      <c r="C27" s="0"/>
+      <c r="A27" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B27" s="0">
+        <v>0.09144792353856801</v>
+      </c>
+      <c r="C27" s="0" t="s">
+        <v>26</v>
+      </c>
       <c r="D27" s="0"/>
       <c r="E27" s="0"/>
     </row>
     <row r="28">
-      <c r="A28" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="B28" s="0" t="s">
-        <v>19</v>
-      </c>
+      <c r="A28" s="0"/>
+      <c r="B28" s="0"/>
       <c r="C28" s="0"/>
       <c r="D28" s="0"/>
       <c r="E28" s="0"/>
     </row>
     <row r="29">
       <c r="A29" s="0" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="C29" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="D29" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="E29" s="0" t="s">
-        <v>29</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="C29" s="0"/>
+      <c r="D29" s="0"/>
+      <c r="E29" s="0"/>
     </row>
     <row r="30">
       <c r="A30" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="B30" s="0">
-        <v>166.33674957983186</v>
-      </c>
-      <c r="C30" s="0">
-        <v>29.26994758535788</v>
-      </c>
-      <c r="D30" s="0">
-        <v>101.04314285714284</v>
-      </c>
-      <c r="E30" s="0">
-        <v>170.67165633486516</v>
+      <c r="B30" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C30" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="D30" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="E30" s="0" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="31">
@@ -761,16 +753,16 @@
         <v>5</v>
       </c>
       <c r="B31" s="0">
-        <v>253.93338823529405</v>
+        <v>40.587962962962969</v>
       </c>
       <c r="C31" s="0">
-        <v>35.478067368921806</v>
+        <v>6.2318793260422121</v>
       </c>
       <c r="D31" s="0">
-        <v>204.42822857142855</v>
+        <v>28</v>
       </c>
       <c r="E31" s="0">
-        <v>206.87090415026384</v>
+        <v>37.391275956253274</v>
       </c>
     </row>
     <row r="32">
@@ -778,35 +770,39 @@
         <v>6</v>
       </c>
       <c r="B32" s="0">
-        <v>249.78212773109237</v>
+        <v>54.201388888888893</v>
       </c>
       <c r="C32" s="0">
-        <v>36.298839150030155</v>
+        <v>7.527190845009561</v>
       </c>
       <c r="D32" s="0">
-        <v>182.72154285714282</v>
+        <v>51.124999999999993</v>
       </c>
       <c r="E32" s="0">
-        <v>211.65678492255313</v>
+        <v>45.163145070057368</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="0"/>
-      <c r="B33" s="0"/>
-      <c r="C33" s="0"/>
-      <c r="D33" s="0"/>
-      <c r="E33" s="0"/>
+      <c r="A33" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B33" s="0">
+        <v>55.597222222222214</v>
+      </c>
+      <c r="C33" s="0">
+        <v>7.6645280402230282</v>
+      </c>
+      <c r="D33" s="0">
+        <v>51.916666666666657</v>
+      </c>
+      <c r="E33" s="0">
+        <v>45.987168241338168</v>
+      </c>
     </row>
     <row r="34">
-      <c r="A34" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="B34" s="0">
-        <v>0.0016911391207231812</v>
-      </c>
-      <c r="C34" s="0" t="s">
-        <v>25</v>
-      </c>
+      <c r="A34" s="0"/>
+      <c r="B34" s="0"/>
+      <c r="C34" s="0"/>
       <c r="D34" s="0"/>
       <c r="E34" s="0"/>
     </row>
@@ -814,8 +810,12 @@
       <c r="A35" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B35" s="0"/>
-      <c r="C35" s="0"/>
+      <c r="B35" s="0">
+        <v>0.00093774924696295593</v>
+      </c>
+      <c r="C35" s="0" t="s">
+        <v>25</v>
+      </c>
       <c r="D35" s="0"/>
       <c r="E35" s="0"/>
     </row>
@@ -823,12 +823,8 @@
       <c r="A36" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="B36" s="0">
-        <v>0.0006083786377462289</v>
-      </c>
-      <c r="C36" s="0" t="s">
-        <v>24</v>
-      </c>
+      <c r="B36" s="0"/>
+      <c r="C36" s="0"/>
       <c r="D36" s="0"/>
       <c r="E36" s="0"/>
     </row>
@@ -837,10 +833,10 @@
         <v>10</v>
       </c>
       <c r="B37" s="0">
-        <v>0.001608161983312545</v>
+        <v>0.0041374242004953328</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D37" s="0"/>
       <c r="E37" s="0"/>
@@ -850,18 +846,24 @@
         <v>11</v>
       </c>
       <c r="B38" s="0">
-        <v>0.9931788126476887</v>
+        <v>0.0018649674517761388</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D38" s="0"/>
       <c r="E38" s="0"/>
     </row>
     <row r="39">
-      <c r="A39" s="0"/>
-      <c r="B39" s="0"/>
-      <c r="C39" s="0"/>
+      <c r="A39" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B39" s="0">
+        <v>0.14467524407007637</v>
+      </c>
+      <c r="C39" s="0" t="s">
+        <v>26</v>
+      </c>
       <c r="D39" s="0"/>
       <c r="E39" s="0"/>
     </row>
@@ -873,9 +875,7 @@
       <c r="E40" s="0"/>
     </row>
     <row r="41">
-      <c r="A41" s="0" t="s">
-        <v>14</v>
-      </c>
+      <c r="A41" s="0"/>
       <c r="B41" s="0"/>
       <c r="C41" s="0"/>
       <c r="D41" s="0"/>
@@ -883,11 +883,9 @@
     </row>
     <row r="42">
       <c r="A42" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="B42" s="0" t="s">
-        <v>20</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="B42" s="0"/>
       <c r="C42" s="0"/>
       <c r="D42" s="0"/>
       <c r="E42" s="0"/>
@@ -897,33 +895,27 @@
         <v>3</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="C43" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="D43" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="E43" s="0" t="s">
-        <v>29</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="C43" s="0"/>
+      <c r="D43" s="0"/>
+      <c r="E43" s="0"/>
     </row>
     <row r="44">
       <c r="A44" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="B44" s="0">
-        <v>112.17412244897959</v>
-      </c>
-      <c r="C44" s="0">
-        <v>17.951055033946798</v>
-      </c>
-      <c r="D44" s="0">
-        <v>106.75142857142856</v>
-      </c>
-      <c r="E44" s="0">
-        <v>47.494027391057358</v>
+      <c r="B44" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C44" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="D44" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="E44" s="0" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="45">
@@ -931,16 +923,16 @@
         <v>5</v>
       </c>
       <c r="B45" s="0">
-        <v>37.643510204081622</v>
+        <v>23.12037037037037</v>
       </c>
       <c r="C45" s="0">
-        <v>12.216736800305824</v>
+        <v>5.7627862250343638</v>
       </c>
       <c r="D45" s="0">
-        <v>22.735428571428567</v>
+        <v>20.416666666666668</v>
       </c>
       <c r="E45" s="0">
-        <v>32.322447406340167</v>
+        <v>17.28835867510309</v>
       </c>
     </row>
     <row r="46">
@@ -948,35 +940,39 @@
         <v>6</v>
       </c>
       <c r="B46" s="0">
-        <v>29.398612244897951</v>
+        <v>7.2592592592592586</v>
       </c>
       <c r="C46" s="0">
-        <v>12.124584566002582</v>
+        <v>2.2211561872043362</v>
       </c>
       <c r="D46" s="0">
-        <v>13.037142857142848</v>
+        <v>5.333333333333333</v>
       </c>
       <c r="E46" s="0">
-        <v>32.078635511614834</v>
+        <v>6.6634685616130085</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="0"/>
-      <c r="B47" s="0"/>
-      <c r="C47" s="0"/>
-      <c r="D47" s="0"/>
-      <c r="E47" s="0"/>
+      <c r="A47" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B47" s="0">
+        <v>6.8518518518518512</v>
+      </c>
+      <c r="C47" s="0">
+        <v>1.8924994994137265</v>
+      </c>
+      <c r="D47" s="0">
+        <v>4.1666666666666661</v>
+      </c>
+      <c r="E47" s="0">
+        <v>5.6774984982411798</v>
+      </c>
     </row>
     <row r="48">
-      <c r="A48" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="B48" s="0">
-        <v>0.013123728736940956</v>
-      </c>
-      <c r="C48" s="0" t="s">
-        <v>27</v>
-      </c>
+      <c r="A48" s="0"/>
+      <c r="B48" s="0"/>
+      <c r="C48" s="0"/>
       <c r="D48" s="0"/>
       <c r="E48" s="0"/>
     </row>
@@ -984,8 +980,12 @@
       <c r="A49" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B49" s="0"/>
-      <c r="C49" s="0"/>
+      <c r="B49" s="0">
+        <v>0.014995576820477729</v>
+      </c>
+      <c r="C49" s="0" t="s">
+        <v>28</v>
+      </c>
       <c r="D49" s="0"/>
       <c r="E49" s="0"/>
     </row>
@@ -993,12 +993,8 @@
       <c r="A50" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="B50" s="0">
-        <v>0.015625</v>
-      </c>
-      <c r="C50" s="0" t="s">
-        <v>27</v>
-      </c>
+      <c r="B50" s="0"/>
+      <c r="C50" s="0"/>
       <c r="D50" s="0"/>
       <c r="E50" s="0"/>
     </row>
@@ -1007,7 +1003,7 @@
         <v>10</v>
       </c>
       <c r="B51" s="0">
-        <v>0.03125</v>
+        <v>0.00390625</v>
       </c>
       <c r="C51" s="0" t="s">
         <v>27</v>
@@ -1020,7 +1016,7 @@
         <v>11</v>
       </c>
       <c r="B52" s="0">
-        <v>0.28125</v>
+        <v>0.0546875</v>
       </c>
       <c r="C52" s="0" t="s">
         <v>26</v>
@@ -1029,55 +1025,51 @@
       <c r="E52" s="0"/>
     </row>
     <row r="53">
-      <c r="A53" s="0"/>
-      <c r="B53" s="0"/>
-      <c r="C53" s="0"/>
+      <c r="A53" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B53" s="0">
+        <v>0.6640625</v>
+      </c>
+      <c r="C53" s="0" t="s">
+        <v>26</v>
+      </c>
       <c r="D53" s="0"/>
       <c r="E53" s="0"/>
     </row>
     <row r="54">
-      <c r="A54" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="B54" s="0" t="s">
-        <v>21</v>
-      </c>
+      <c r="A54" s="0"/>
+      <c r="B54" s="0"/>
       <c r="C54" s="0"/>
       <c r="D54" s="0"/>
       <c r="E54" s="0"/>
     </row>
     <row r="55">
       <c r="A55" s="0" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="C55" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="D55" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="E55" s="0" t="s">
-        <v>29</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="C55" s="0"/>
+      <c r="D55" s="0"/>
+      <c r="E55" s="0"/>
     </row>
     <row r="56">
       <c r="A56" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="B56" s="0">
-        <v>34.81893333333332</v>
-      </c>
-      <c r="C56" s="0">
-        <v>5.7660376757672447</v>
-      </c>
-      <c r="D56" s="0">
-        <v>32.983199999999997</v>
-      </c>
-      <c r="E56" s="0">
-        <v>24.463226046672826</v>
+      <c r="B56" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C56" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="D56" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="E56" s="0" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="57">
@@ -1085,16 +1077,16 @@
         <v>5</v>
       </c>
       <c r="B57" s="0">
-        <v>163.86655238095233</v>
+        <v>8.7647058823529402</v>
       </c>
       <c r="C57" s="0">
-        <v>25.867376396022223</v>
+        <v>2.1398251993774653</v>
       </c>
       <c r="D57" s="0">
-        <v>140.16902857142853</v>
+        <v>5.8333333333333321</v>
       </c>
       <c r="E57" s="0">
-        <v>109.74598356679289</v>
+        <v>8.8227253173916598</v>
       </c>
     </row>
     <row r="58">
@@ -1102,35 +1094,39 @@
         <v>6</v>
       </c>
       <c r="B58" s="0">
-        <v>141.80306031746031</v>
+        <v>34.024509803921568</v>
       </c>
       <c r="C58" s="0">
-        <v>19.321131473203423</v>
+        <v>8.7571771589125547</v>
       </c>
       <c r="D58" s="0">
-        <v>129.32914285714281</v>
+        <v>22.083333333333332</v>
       </c>
       <c r="E58" s="0">
-        <v>81.972618509393811</v>
+        <v>36.106766408442837</v>
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="0"/>
-      <c r="B59" s="0"/>
-      <c r="C59" s="0"/>
-      <c r="D59" s="0"/>
-      <c r="E59" s="0"/>
+      <c r="A59" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B59" s="0">
+        <v>28.544117647058815</v>
+      </c>
+      <c r="C59" s="0">
+        <v>6.3888782585622739</v>
+      </c>
+      <c r="D59" s="0">
+        <v>19.166666666666664</v>
+      </c>
+      <c r="E59" s="0">
+        <v>26.342019889264474</v>
+      </c>
     </row>
     <row r="60">
-      <c r="A60" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="B60" s="0">
-        <v>5.2009634709394964e-06</v>
-      </c>
-      <c r="C60" s="0" t="s">
-        <v>24</v>
-      </c>
+      <c r="A60" s="0"/>
+      <c r="B60" s="0"/>
+      <c r="C60" s="0"/>
       <c r="D60" s="0"/>
       <c r="E60" s="0"/>
     </row>
@@ -1138,8 +1134,12 @@
       <c r="A61" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B61" s="0"/>
-      <c r="C61" s="0"/>
+      <c r="B61" s="0">
+        <v>2.5694572651747654e-05</v>
+      </c>
+      <c r="C61" s="0" t="s">
+        <v>25</v>
+      </c>
       <c r="D61" s="0"/>
       <c r="E61" s="0"/>
     </row>
@@ -1147,12 +1147,8 @@
       <c r="A62" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="B62" s="0">
-        <v>0.0001964367262123118</v>
-      </c>
-      <c r="C62" s="0" t="s">
-        <v>24</v>
-      </c>
+      <c r="B62" s="0"/>
+      <c r="C62" s="0"/>
       <c r="D62" s="0"/>
       <c r="E62" s="0"/>
     </row>
@@ -1161,10 +1157,10 @@
         <v>10</v>
       </c>
       <c r="B63" s="0">
-        <v>0.0003861775700434047</v>
+        <v>0.00038325611908638209</v>
       </c>
       <c r="C63" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D63" s="0"/>
       <c r="E63" s="0"/>
@@ -1174,64 +1170,60 @@
         <v>11</v>
       </c>
       <c r="B64" s="0">
-        <v>0.2310592299534529</v>
+        <v>0.0013462033496218757</v>
       </c>
       <c r="C64" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D64" s="0"/>
       <c r="E64" s="0"/>
     </row>
     <row r="65">
-      <c r="A65" s="0"/>
-      <c r="B65" s="0"/>
-      <c r="C65" s="0"/>
+      <c r="A65" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B65" s="0">
+        <v>0.07550048828125</v>
+      </c>
+      <c r="C65" s="0" t="s">
+        <v>26</v>
+      </c>
       <c r="D65" s="0"/>
       <c r="E65" s="0"/>
     </row>
     <row r="66">
-      <c r="A66" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="B66" s="0" t="s">
-        <v>22</v>
-      </c>
+      <c r="A66" s="0"/>
+      <c r="B66" s="0"/>
       <c r="C66" s="0"/>
       <c r="D66" s="0"/>
       <c r="E66" s="0"/>
     </row>
     <row r="67">
       <c r="A67" s="0" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="C67" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="D67" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="E67" s="0" t="s">
-        <v>29</v>
-      </c>
+      <c r="C67" s="0"/>
+      <c r="D67" s="0"/>
+      <c r="E67" s="0"/>
     </row>
     <row r="68">
       <c r="A68" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="B68" s="0">
-        <v>194.35199999999995</v>
-      </c>
-      <c r="C68" s="0">
-        <v>35.397970604399298</v>
-      </c>
-      <c r="D68" s="0">
-        <v>146.44194285714281</v>
-      </c>
-      <c r="E68" s="0">
-        <v>169.76270328587512</v>
+      <c r="B68" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C68" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="D68" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="E68" s="0" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="69">
@@ -1239,16 +1231,16 @@
         <v>5</v>
       </c>
       <c r="B69" s="0">
-        <v>178.72467080745338</v>
+        <v>49.509259259259252</v>
       </c>
       <c r="C69" s="0">
-        <v>38.057627308987954</v>
+        <v>13.025815017264232</v>
       </c>
       <c r="D69" s="0">
-        <v>122.25714285714285</v>
+        <v>29.333333333333332</v>
       </c>
       <c r="E69" s="0">
-        <v>182.51796875093143</v>
+        <v>67.684120259685969</v>
       </c>
     </row>
     <row r="70">
@@ -1256,46 +1248,63 @@
         <v>6</v>
       </c>
       <c r="B70" s="0">
-        <v>171.94206211180125</v>
+        <v>45.753086419753089</v>
       </c>
       <c r="C70" s="0">
-        <v>43.252498205739677</v>
+        <v>12.32342721049141</v>
       </c>
       <c r="D70" s="0">
-        <v>92.197942857142849</v>
+        <v>30.666666666666664</v>
       </c>
       <c r="E70" s="0">
-        <v>207.43169435711317</v>
+        <v>64.034406155843769</v>
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="0"/>
-      <c r="B71" s="0"/>
-      <c r="C71" s="0"/>
-      <c r="D71" s="0"/>
-      <c r="E71" s="0"/>
+      <c r="A71" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B71" s="0">
+        <v>43.703703703703688</v>
+      </c>
+      <c r="C71" s="0">
+        <v>12.717094175861286</v>
+      </c>
+      <c r="D71" s="0">
+        <v>26.666666666666664</v>
+      </c>
+      <c r="E71" s="0">
+        <v>66.079959711690023</v>
+      </c>
     </row>
     <row r="72">
-      <c r="A72" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="B72" s="0">
-        <v>0.43775890886979252</v>
-      </c>
-      <c r="C72" s="0" t="s">
-        <v>26</v>
-      </c>
+      <c r="A72" s="0"/>
+      <c r="B72" s="0"/>
+      <c r="C72" s="0"/>
       <c r="D72" s="0"/>
       <c r="E72" s="0"/>
     </row>
     <row r="73">
       <c r="A73" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="B73" s="0"/>
-      <c r="C73" s="0"/>
+        <v>8</v>
+      </c>
+      <c r="B73" s="0">
+        <v>0.63582609492857856</v>
+      </c>
+      <c r="C73" s="0" t="s">
+        <v>26</v>
+      </c>
       <c r="D73" s="0"/>
       <c r="E73" s="0"/>
+    </row>
+    <row r="74">
+      <c r="A74" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B74" s="0"/>
+      <c r="C74" s="0"/>
+      <c r="D74" s="0"/>
+      <c r="E74" s="0"/>
     </row>
   </sheetData>
 </worksheet>
@@ -1321,7 +1330,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B1"/>
       <c r="C1"/>
@@ -1343,80 +1352,80 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B4">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C4">
-        <v>20.87912087912088</v>
+        <v>21.359223300970875</v>
       </c>
       <c r="D4">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="E4">
-        <v>41.758241758241759</v>
+        <v>43.689320388349515</v>
       </c>
       <c r="F4">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G4">
-        <v>37.362637362637365</v>
+        <v>34.95145631067961</v>
       </c>
       <c r="H4">
-        <v>91</v>
+        <v>103</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B5">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C5">
-        <v>14.583333333333334</v>
+        <v>16.981132075471699</v>
       </c>
       <c r="D5">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E5">
-        <v>37.5</v>
+        <v>32.075471698113205</v>
       </c>
       <c r="F5">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="G5">
-        <v>47.916666666666664</v>
+        <v>50.943396226415096</v>
       </c>
       <c r="H5">
-        <v>48</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6">
@@ -1431,7 +1440,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B7"/>
       <c r="C7"/>
@@ -1443,10 +1452,10 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B8">
-        <v>1.6609153289676724</v>
+        <v>3.7411723590097283</v>
       </c>
       <c r="C8"/>
       <c r="D8"/>
@@ -1457,10 +1466,10 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B9">
-        <v>0.45469999999999999</v>
+        <v>0.15679999999999999</v>
       </c>
       <c r="C9" t="s">
         <v>26</v>
@@ -1473,10 +1482,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B10">
-        <v>0.10931162400976541</v>
+        <v>0.15486082169553475</v>
       </c>
       <c r="C10"/>
       <c r="D10"/>
@@ -1498,7 +1507,7 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="52.42578125" customWidth="true"/>
-    <col min="2" max="2" width="12.7109375" customWidth="true"/>
+    <col min="2" max="2" width="13.7109375" customWidth="true"/>
     <col min="3" max="3" width="11.7109375" customWidth="true"/>
     <col min="4" max="4" width="11.85546875" customWidth="true"/>
     <col min="5" max="5" width="10" customWidth="true"/>
@@ -1506,7 +1515,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B1"/>
       <c r="C1"/>
@@ -1522,7 +1531,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B3"/>
       <c r="C3"/>
@@ -1531,53 +1540,53 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B5">
-        <v>105.12795353218208</v>
+        <v>21.029935275080902</v>
       </c>
       <c r="C5">
-        <v>16.115392793972301</v>
+        <v>2.8635474668622862</v>
       </c>
       <c r="D5">
-        <v>61.640342857142848</v>
+        <v>11.25</v>
       </c>
       <c r="E5">
-        <v>91</v>
+        <v>103</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B6">
-        <v>122.54282619047616</v>
+        <v>31.95911949685534</v>
       </c>
       <c r="C6">
-        <v>20.145812127772796</v>
+        <v>7.1504456841025616</v>
       </c>
       <c r="D6">
-        <v>89.936399999999992</v>
+        <v>17.333333333333332</v>
       </c>
       <c r="E6">
-        <v>48</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7">
@@ -1589,7 +1598,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B8"/>
       <c r="C8"/>
@@ -1598,13 +1607,13 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B9">
-        <v>0.04997337800015722</v>
+        <v>0.042318073793242116</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D9"/>
       <c r="E9"/>
@@ -1618,7 +1627,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B11"/>
       <c r="C11"/>
@@ -1627,53 +1636,53 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B12" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D12" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E12" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B13">
-        <v>150.17443893249603</v>
+        <v>27.911003236245957</v>
       </c>
       <c r="C13">
-        <v>17.449239517138629</v>
+        <v>3.4022406944531887</v>
       </c>
       <c r="D13">
-        <v>90.799771428571432</v>
+        <v>15.833333333333332</v>
       </c>
       <c r="E13">
-        <v>91</v>
+        <v>103</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B14">
-        <v>152.58924285714281</v>
+        <v>35.454402515723267</v>
       </c>
       <c r="C14">
-        <v>21.571857165915148</v>
+        <v>7.0730707572379012</v>
       </c>
       <c r="D14">
-        <v>108.39011428571426</v>
+        <v>22.083333333333332</v>
       </c>
       <c r="E14">
-        <v>48</v>
+        <v>53</v>
       </c>
     </row>
     <row r="15">
@@ -1685,7 +1694,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B16"/>
       <c r="C16"/>
@@ -1694,10 +1703,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B17">
-        <v>0.40370669962294481</v>
+        <v>0.20125115226584361</v>
       </c>
       <c r="C17" t="s">
         <v>26</v>
@@ -1714,7 +1723,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B19"/>
       <c r="C19"/>
@@ -1723,53 +1732,53 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B20" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C20" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D20" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E20" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B21">
-        <v>145.43788508634222</v>
+        <v>27.484627831715208</v>
       </c>
       <c r="C21">
-        <v>17.546226847818243</v>
+        <v>3.4860657622098437</v>
       </c>
       <c r="D21">
-        <v>77.596228571428554</v>
+        <v>14.583333333333332</v>
       </c>
       <c r="E21">
-        <v>91</v>
+        <v>103</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B22">
-        <v>140.4785357142857</v>
+        <v>32.583333333333329</v>
       </c>
       <c r="C22">
-        <v>22.874357153202695</v>
+        <v>6.9850068802801966</v>
       </c>
       <c r="D22">
-        <v>95.493028571428539</v>
+        <v>19.166666666666664</v>
       </c>
       <c r="E22">
-        <v>48</v>
+        <v>53</v>
       </c>
     </row>
     <row r="23">
@@ -1781,7 +1790,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B24"/>
       <c r="C24"/>
@@ -1790,10 +1799,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B25">
-        <v>0.70487432083205792</v>
+        <v>0.32225900471354102</v>
       </c>
       <c r="C25" t="s">
         <v>26</v>
@@ -1814,7 +1823,7 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="58.85546875" customWidth="true"/>
-    <col min="2" max="2" width="15.5703125" customWidth="true"/>
+    <col min="2" max="2" width="15.7109375" customWidth="true"/>
     <col min="3" max="3" width="12.7109375" customWidth="true"/>
     <col min="4" max="4" width="12.28515625" customWidth="true"/>
     <col min="5" max="5" width="11.7109375" customWidth="true"/>
@@ -1824,7 +1833,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B1"/>
       <c r="C1"/>
@@ -1844,7 +1853,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B3"/>
       <c r="C3"/>
@@ -1855,71 +1864,71 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B5">
-        <v>16.830188679245282</v>
+        <v>16.793103448275861</v>
       </c>
       <c r="C5">
-        <v>0.39475502595917855</v>
+        <v>0.39257986166592312</v>
       </c>
       <c r="D5">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="E5">
-        <v>2.8738599683286035</v>
+        <v>2.9897991523791108</v>
       </c>
       <c r="F5" t="s">
+        <v>59</v>
+      </c>
+      <c r="G5">
         <v>58</v>
-      </c>
-      <c r="G5">
-        <v>53</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B6">
-        <v>14.300000000000001</v>
+        <v>14.416666666666666</v>
       </c>
       <c r="C6">
-        <v>0.45775564429623095</v>
+        <v>0.6099375455928332</v>
       </c>
       <c r="D6">
         <v>14</v>
       </c>
       <c r="E6">
-        <v>2.5072309220635671</v>
+        <v>3.659625273556999</v>
       </c>
       <c r="F6" t="s">
         <v>59</v>
       </c>
       <c r="G6">
-        <v>30</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7">
@@ -1933,13 +1942,13 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B8">
-        <v>9.3030796758059617e-05</v>
+        <v>0.00055523271986468795</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8"/>
       <c r="E8"/>
@@ -1957,7 +1966,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B10"/>
       <c r="C10"/>
@@ -1968,71 +1977,71 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B11" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C11" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D11" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F11" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G11" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B12">
-        <v>17.5</v>
+        <v>17.469135802469136</v>
       </c>
       <c r="C12">
-        <v>0.32441110725462552</v>
+        <v>0.30484079013675236</v>
       </c>
       <c r="D12">
         <v>17</v>
       </c>
       <c r="E12">
-        <v>2.7527195259837849</v>
+        <v>2.7435671112307713</v>
       </c>
       <c r="F12" t="s">
         <v>60</v>
       </c>
       <c r="G12">
-        <v>72</v>
+        <v>81</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B13">
-        <v>16.756097560975611</v>
+        <v>16.65909090909091</v>
       </c>
       <c r="C13">
-        <v>0.42308461905864375</v>
+        <v>0.39944885631848509</v>
       </c>
       <c r="D13">
         <v>16</v>
       </c>
       <c r="E13">
-        <v>2.7090633787794456</v>
+        <v>2.6496439586899996</v>
       </c>
       <c r="F13" t="s">
         <v>60</v>
       </c>
       <c r="G13">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="14">
@@ -2046,10 +2055,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B15">
-        <v>0.16097436231062637</v>
+        <v>0.10312328267366366</v>
       </c>
       <c r="C15" t="s">
         <v>26</v>
@@ -2070,7 +2079,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B17"/>
       <c r="C17"/>
@@ -2081,71 +2090,71 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B18" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C18" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D18" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E18" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F18" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G18" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B19">
-        <v>17.058823529411764</v>
+        <v>17</v>
       </c>
       <c r="C19">
-        <v>0.34035200555115552</v>
+        <v>0.31590337430962184</v>
       </c>
       <c r="D19">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="E19">
-        <v>2.8066145375564453</v>
+        <v>2.7720408594239352</v>
       </c>
       <c r="F19" t="s">
         <v>60</v>
       </c>
       <c r="G19">
-        <v>68</v>
+        <v>77</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B20">
-        <v>16.444444444444443</v>
+        <v>16.574999999999999</v>
       </c>
       <c r="C20">
-        <v>0.47215218901785921</v>
+        <v>0.43836453042925538</v>
       </c>
       <c r="D20">
         <v>16</v>
       </c>
       <c r="E20">
-        <v>2.8329131341071552</v>
+        <v>2.7724607231732721</v>
       </c>
       <c r="F20" t="s">
         <v>60</v>
       </c>
       <c r="G20">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="21">
@@ -2159,10 +2168,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B22">
-        <v>0.25178660391113544</v>
+        <v>0.42085588428101045</v>
       </c>
       <c r="C22" t="s">
         <v>26</v>
@@ -2178,7 +2187,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J182"/>
+  <dimension ref="A1:J200"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2187,9 +2196,9 @@
     <col min="1" max="1" width="78.85546875" customWidth="true"/>
     <col min="2" max="2" width="12.28515625" customWidth="true"/>
     <col min="3" max="3" width="11.140625" customWidth="true"/>
-    <col min="4" max="4" width="15.7109375" customWidth="true"/>
-    <col min="5" max="5" width="15.85546875" customWidth="true"/>
-    <col min="6" max="6" width="19" customWidth="true"/>
+    <col min="4" max="4" width="12.7109375" customWidth="true"/>
+    <col min="5" max="5" width="12.7109375" customWidth="true"/>
+    <col min="6" max="6" width="14.28515625" customWidth="true"/>
     <col min="7" max="7" width="9.140625"/>
     <col min="8" max="8" width="16.42578125" customWidth="true"/>
     <col min="9" max="9" width="16.5703125" customWidth="true"/>
@@ -2212,7 +2221,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>62</v>
+        <v>1</v>
       </c>
       <c r="B2"/>
       <c r="C2"/>
@@ -2225,7 +2234,9 @@
       <c r="J2"/>
     </row>
     <row r="3">
-      <c r="A3"/>
+      <c r="A3" t="s">
+        <v>62</v>
+      </c>
       <c r="B3"/>
       <c r="C3"/>
       <c r="D3"/>
@@ -2237,9 +2248,7 @@
       <c r="J3"/>
     </row>
     <row r="4">
-      <c r="A4" t="s">
-        <v>63</v>
-      </c>
+      <c r="A4"/>
       <c r="B4"/>
       <c r="C4"/>
       <c r="D4"/>
@@ -2251,7 +2260,9 @@
       <c r="J4"/>
     </row>
     <row r="5">
-      <c r="A5"/>
+      <c r="A5" t="s">
+        <v>63</v>
+      </c>
       <c r="B5"/>
       <c r="C5"/>
       <c r="D5"/>
@@ -2263,9 +2274,7 @@
       <c r="J5"/>
     </row>
     <row r="6">
-      <c r="A6" t="s">
-        <v>64</v>
-      </c>
+      <c r="A6"/>
       <c r="B6"/>
       <c r="C6"/>
       <c r="D6"/>
@@ -2278,616 +2287,636 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
+        <v>64</v>
+      </c>
+      <c r="B7"/>
+      <c r="C7"/>
+      <c r="D7"/>
+      <c r="E7"/>
+      <c r="F7"/>
+      <c r="G7"/>
+      <c r="H7"/>
+      <c r="I7"/>
+      <c r="J7"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
         <v>65</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B8" t="s">
         <v>74</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C8" t="s">
         <v>75</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D8" t="s">
         <v>95</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E8" t="s">
         <v>96</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F8" t="s">
         <v>97</v>
       </c>
-      <c r="G7"/>
-      <c r="H7" t="s">
+      <c r="G8"/>
+      <c r="H8" t="s">
         <v>98</v>
       </c>
-      <c r="I7" t="s">
+      <c r="I8" t="s">
         <v>99</v>
       </c>
-      <c r="J7" t="s">
+      <c r="J8" t="s">
         <v>100</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8">
-        <v>1</v>
-      </c>
-      <c r="B8">
-        <v>160</v>
-      </c>
-      <c r="C8" t="s">
-        <v>76</v>
-      </c>
-      <c r="D8">
-        <v>91.571999999999989</v>
-      </c>
-      <c r="E8">
-        <v>19.000571428571423</v>
-      </c>
-      <c r="F8">
-        <v>27.00057142857143</v>
-      </c>
-      <c r="G8"/>
-      <c r="H8">
-        <v>20</v>
-      </c>
-      <c r="I8">
-        <v>21</v>
-      </c>
-      <c r="J8">
-        <v>19</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B9">
-        <v>293</v>
+        <v>160</v>
       </c>
       <c r="C9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D9">
-        <v>74.074285714285708</v>
+        <v>27.999999999999996</v>
       </c>
       <c r="E9">
-        <v>26.645714285714295</v>
+        <v>2.6666666666666665</v>
       </c>
       <c r="F9">
-        <v>-3.6399999999999912</v>
+        <v>5.333333333333333</v>
       </c>
       <c r="G9"/>
       <c r="H9">
+        <v>20</v>
+      </c>
+      <c r="I9">
         <v>21</v>
       </c>
-      <c r="I9"/>
-      <c r="J9"/>
+      <c r="J9">
+        <v>19</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B10">
-        <v>373</v>
+        <v>210</v>
       </c>
       <c r="C10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D10">
-        <v>343.91085714285703</v>
+        <v>5.333333333333333</v>
       </c>
       <c r="E10">
-        <v>18.196571428571421</v>
+        <v>0</v>
       </c>
       <c r="F10">
-        <v>-1.2320000000000015</v>
+        <v>2.6666666666666665</v>
       </c>
       <c r="G10"/>
       <c r="H10">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I10"/>
-      <c r="J10"/>
+      <c r="J10">
+        <v>14</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B11">
-        <v>388</v>
+        <v>293</v>
       </c>
       <c r="C11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D11">
-        <v>168.62959999999995</v>
+        <v>23.999999999999996</v>
       </c>
       <c r="E11">
-        <v>90.91531428571426</v>
+        <v>6.6666666666666661</v>
       </c>
       <c r="F11">
-        <v>16.629599999999996</v>
+        <v>0</v>
       </c>
       <c r="G11"/>
       <c r="H11">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="I11"/>
       <c r="J11"/>
     </row>
     <row r="12">
       <c r="A12">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B12">
-        <v>395</v>
+        <v>373</v>
       </c>
       <c r="C12" t="s">
         <v>79</v>
       </c>
       <c r="D12">
-        <v>56.414285714285704</v>
+        <v>35</v>
       </c>
       <c r="E12">
-        <v>18.128571428571423</v>
+        <v>1.6666666666666665</v>
       </c>
       <c r="F12">
-        <v>8.4142857142857093</v>
+        <v>0</v>
       </c>
       <c r="G12"/>
       <c r="H12">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="I12"/>
       <c r="J12"/>
     </row>
     <row r="13">
       <c r="A13">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B13">
-        <v>396</v>
+        <v>388</v>
       </c>
       <c r="C13" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D13">
-        <v>52.115085714285705</v>
+        <v>56.666666666666657</v>
       </c>
       <c r="E13">
-        <v>15.543657142857139</v>
+        <v>27.499999999999996</v>
       </c>
       <c r="F13">
-        <v>12.686514285714285</v>
+        <v>12.499999999999998</v>
       </c>
       <c r="G13"/>
       <c r="H13">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="I13"/>
       <c r="J13"/>
     </row>
     <row r="14">
       <c r="A14">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B14">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="C14" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D14">
-        <v>143.26011428571428</v>
+        <v>8.3333333333333321</v>
       </c>
       <c r="E14">
-        <v>15.260114285714282</v>
+        <v>1.6666666666666665</v>
       </c>
       <c r="F14">
-        <v>-1.3113142857142877</v>
+        <v>0.83333333333333326</v>
       </c>
       <c r="G14"/>
       <c r="H14">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I14"/>
       <c r="J14"/>
     </row>
     <row r="15">
       <c r="A15">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B15">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="C15" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D15">
-        <v>114.4605714285714</v>
+        <v>11.666666666666664</v>
       </c>
       <c r="E15">
-        <v>-2.6822857142857051</v>
+        <v>3.333333333333333</v>
       </c>
       <c r="F15">
-        <v>-2.6822857142857051</v>
+        <v>2.4999999999999996</v>
       </c>
       <c r="G15"/>
       <c r="H15">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I15"/>
       <c r="J15"/>
     </row>
     <row r="16">
       <c r="A16">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B16">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="C16" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D16">
-        <v>66.351428571428571</v>
+        <v>20.833333333333332</v>
       </c>
       <c r="E16">
-        <v>4.6371428571428561</v>
+        <v>2.4999999999999996</v>
       </c>
       <c r="F16">
-        <v>16.637142857142855</v>
+        <v>0</v>
       </c>
       <c r="G16"/>
       <c r="H16">
-        <v>18.000000000000004</v>
+        <v>16</v>
       </c>
       <c r="I16"/>
       <c r="J16"/>
     </row>
     <row r="17">
       <c r="A17">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B17">
-        <v>461</v>
+        <v>400</v>
       </c>
       <c r="C17" t="s">
         <v>80</v>
       </c>
       <c r="D17">
-        <v>109.76342857142856</v>
+        <v>12.499999999999998</v>
       </c>
       <c r="E17">
-        <v>40.620571428571438</v>
+        <v>0</v>
       </c>
       <c r="F17">
-        <v>254.33485714285706</v>
+        <v>0</v>
       </c>
       <c r="G17"/>
       <c r="H17">
         <v>16</v>
       </c>
-      <c r="I17">
-        <v>17</v>
-      </c>
-      <c r="J17">
-        <v>15</v>
-      </c>
+      <c r="I17"/>
+      <c r="J17"/>
     </row>
     <row r="18">
       <c r="A18">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B18">
-        <v>483</v>
+        <v>404</v>
       </c>
       <c r="C18" t="s">
         <v>80</v>
       </c>
       <c r="D18">
-        <v>76.656914285714265</v>
+        <v>14.166666666666664</v>
       </c>
       <c r="E18">
-        <v>6.942628571428564</v>
+        <v>0.83333333333333326</v>
       </c>
       <c r="F18">
-        <v>49.799771428571411</v>
+        <v>4.1666666666666661</v>
       </c>
       <c r="G18"/>
       <c r="H18">
-        <v>17</v>
+        <v>18.000000000000004</v>
       </c>
       <c r="I18"/>
       <c r="J18"/>
     </row>
     <row r="19">
       <c r="A19">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B19">
-        <v>487</v>
+        <v>455</v>
       </c>
       <c r="C19" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D19">
-        <v>271.91519999999997</v>
+        <v>4.1666666666666661</v>
       </c>
       <c r="E19">
-        <v>50.200914285714276</v>
+        <v>2.9166666666666661</v>
       </c>
       <c r="F19">
-        <v>69.629485714285693</v>
+        <v>2.083333333333333</v>
       </c>
       <c r="G19"/>
       <c r="H19">
-        <v>19</v>
-      </c>
-      <c r="I19"/>
-      <c r="J19"/>
+        <v>13.000000000000002</v>
+      </c>
+      <c r="I19">
+        <v>15</v>
+      </c>
+      <c r="J19">
+        <v>14</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B20">
-        <v>495</v>
+        <v>483</v>
       </c>
       <c r="C20" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D20">
-        <v>90.754285714285686</v>
+        <v>8.75</v>
       </c>
       <c r="E20">
-        <v>16.468571428571426</v>
+        <v>2.083333333333333</v>
       </c>
       <c r="F20">
-        <v>2.7542857142857109</v>
+        <v>4.583333333333333</v>
       </c>
       <c r="G20"/>
       <c r="H20">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I20"/>
       <c r="J20"/>
     </row>
     <row r="21">
       <c r="A21">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B21">
-        <v>559</v>
+        <v>487</v>
       </c>
       <c r="C21" t="s">
         <v>81</v>
       </c>
       <c r="D21">
-        <v>147.41131428571421</v>
+        <v>26.249999999999996</v>
       </c>
       <c r="E21">
-        <v>28.554171428571408</v>
+        <v>7.0833333333333321</v>
       </c>
       <c r="F21">
-        <v>46.26845714285713</v>
+        <v>6.2499999999999991</v>
       </c>
       <c r="G21"/>
       <c r="H21">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="I21"/>
       <c r="J21"/>
     </row>
     <row r="22">
       <c r="A22">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B22">
-        <v>568</v>
+        <v>495</v>
       </c>
       <c r="C22" t="s">
         <v>81</v>
       </c>
       <c r="D22">
-        <v>298.67565714285706</v>
+        <v>9.1666666666666661</v>
       </c>
       <c r="E22">
-        <v>46.10422857142855</v>
+        <v>2.9166666666666661</v>
       </c>
       <c r="F22">
-        <v>20.961371428571422</v>
+        <v>1.2499999999999998</v>
       </c>
       <c r="G22"/>
       <c r="H22">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I22"/>
       <c r="J22"/>
     </row>
     <row r="23">
       <c r="A23">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B23">
-        <v>577</v>
+        <v>559</v>
       </c>
       <c r="C23" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D23">
-        <v>878.27371428571405</v>
+        <v>15.833333333333332</v>
       </c>
       <c r="E23">
-        <v>24.559428571428562</v>
+        <v>4.1666666666666661</v>
       </c>
       <c r="F23">
-        <v>41.130857142857124</v>
+        <v>8.75</v>
       </c>
       <c r="G23"/>
       <c r="H23">
-        <v>13.000000000000002</v>
+        <v>16</v>
       </c>
       <c r="I23"/>
       <c r="J23"/>
     </row>
     <row r="24">
       <c r="A24">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B24">
-        <v>688</v>
+        <v>568</v>
       </c>
       <c r="C24" t="s">
         <v>82</v>
       </c>
       <c r="D24">
-        <v>64.704114285714269</v>
+        <v>45</v>
       </c>
       <c r="E24">
-        <v>11.56125714285715</v>
+        <v>7.0833333333333321</v>
       </c>
       <c r="F24">
-        <v>14.418400000000004</v>
+        <v>3.333333333333333</v>
       </c>
       <c r="G24"/>
       <c r="H24">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="I24"/>
       <c r="J24"/>
     </row>
     <row r="25">
       <c r="A25">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B25">
-        <v>924</v>
+        <v>577</v>
       </c>
       <c r="C25" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D25">
-        <v>81.066514285714277</v>
+        <v>100.83333333333333</v>
       </c>
       <c r="E25">
-        <v>1.6379428571428671</v>
+        <v>6.2499999999999991</v>
       </c>
       <c r="F25">
-        <v>-3.504914285714277</v>
+        <v>4.9999999999999991</v>
       </c>
       <c r="G25"/>
       <c r="H25">
-        <v>16</v>
+        <v>13.000000000000002</v>
       </c>
       <c r="I25"/>
       <c r="J25"/>
     </row>
     <row r="26">
       <c r="A26">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B26">
-        <v>927</v>
+        <v>688</v>
       </c>
       <c r="C26" t="s">
         <v>83</v>
       </c>
       <c r="D26">
-        <v>61.640342857142848</v>
+        <v>15.833333333333332</v>
       </c>
       <c r="E26">
-        <v>-2.3596571428571371</v>
+        <v>5.8333333333333321</v>
       </c>
       <c r="F26">
-        <v>23.926057142857143</v>
+        <v>4.9999999999999991</v>
       </c>
       <c r="G26"/>
       <c r="H26">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="I26"/>
       <c r="J26"/>
     </row>
     <row r="27">
-      <c r="A27"/>
-      <c r="B27"/>
-      <c r="C27"/>
-      <c r="D27"/>
-      <c r="E27"/>
-      <c r="F27"/>
+      <c r="A27">
+        <v>19</v>
+      </c>
+      <c r="B27">
+        <v>918</v>
+      </c>
+      <c r="C27" t="s">
+        <v>84</v>
+      </c>
+      <c r="D27">
+        <v>3.333333333333333</v>
+      </c>
+      <c r="E27">
+        <v>2.4999999999999996</v>
+      </c>
+      <c r="F27">
+        <v>1.6666666666666665</v>
+      </c>
       <c r="G27"/>
-      <c r="H27"/>
-      <c r="I27"/>
-      <c r="J27"/>
+      <c r="H27">
+        <v>17</v>
+      </c>
+      <c r="I27">
+        <v>20</v>
+      </c>
+      <c r="J27">
+        <v>20</v>
+      </c>
     </row>
     <row r="28">
-      <c r="A28" t="s">
-        <v>66</v>
-      </c>
-      <c r="B28"/>
-      <c r="C28"/>
+      <c r="A28">
+        <v>20</v>
+      </c>
+      <c r="B28">
+        <v>924</v>
+      </c>
+      <c r="C28" t="s">
+        <v>84</v>
+      </c>
       <c r="D28">
-        <v>167.98156390977442</v>
+        <v>19.999999999999996</v>
       </c>
       <c r="E28">
-        <v>22.628180451127818</v>
+        <v>1.6666666666666665</v>
       </c>
       <c r="F28">
-        <v>31.169533834586471</v>
+        <v>1.6666666666666665</v>
       </c>
       <c r="G28"/>
       <c r="H28">
-        <v>16.315789473684209</v>
-      </c>
-      <c r="I28">
-        <v>19</v>
-      </c>
-      <c r="J28">
-        <v>17</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="I28"/>
+      <c r="J28"/>
     </row>
     <row r="29">
-      <c r="A29" t="s">
-        <v>67</v>
-      </c>
-      <c r="B29"/>
-      <c r="C29"/>
+      <c r="A29">
+        <v>21</v>
+      </c>
+      <c r="B29">
+        <v>925</v>
+      </c>
+      <c r="C29" t="s">
+        <v>84</v>
+      </c>
       <c r="D29">
-        <v>44.106758207715103</v>
+        <v>3.333333333333333</v>
       </c>
       <c r="E29">
-        <v>5.1146173779712925</v>
+        <v>0</v>
       </c>
       <c r="F29">
-        <v>13.263540712639729</v>
+        <v>0</v>
       </c>
       <c r="G29"/>
       <c r="H29">
-        <v>0.56222527575305481</v>
-      </c>
-      <c r="I29">
-        <v>2</v>
-      </c>
-      <c r="J29">
-        <v>2</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="I29"/>
+      <c r="J29"/>
     </row>
     <row r="30">
-      <c r="A30"/>
-      <c r="B30"/>
-      <c r="C30"/>
-      <c r="D30"/>
-      <c r="E30"/>
-      <c r="F30"/>
+      <c r="A30">
+        <v>22</v>
+      </c>
+      <c r="B30">
+        <v>927</v>
+      </c>
+      <c r="C30" t="s">
+        <v>84</v>
+      </c>
+      <c r="D30">
+        <v>12.499999999999998</v>
+      </c>
+      <c r="E30">
+        <v>0.83333333333333326</v>
+      </c>
+      <c r="F30">
+        <v>2.4999999999999996</v>
+      </c>
       <c r="G30"/>
-      <c r="H30"/>
+      <c r="H30">
+        <v>14</v>
+      </c>
       <c r="I30"/>
       <c r="J30"/>
     </row>
     <row r="31">
-      <c r="A31" t="s">
-        <v>68</v>
-      </c>
+      <c r="A31"/>
       <c r="B31"/>
       <c r="C31"/>
       <c r="D31"/>
@@ -2900,169 +2929,135 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>65</v>
-      </c>
-      <c r="B32" t="s">
-        <v>74</v>
-      </c>
-      <c r="C32" t="s">
-        <v>75</v>
-      </c>
-      <c r="D32" t="s">
-        <v>95</v>
-      </c>
-      <c r="E32" t="s">
-        <v>96</v>
-      </c>
-      <c r="F32" t="s">
-        <v>97</v>
+        <v>66</v>
+      </c>
+      <c r="B32"/>
+      <c r="C32"/>
+      <c r="D32">
+        <v>21.88636363636363</v>
+      </c>
+      <c r="E32">
+        <v>4.0984848484848477</v>
+      </c>
+      <c r="F32">
+        <v>3.185606060606061</v>
       </c>
       <c r="G32"/>
-      <c r="H32" t="s">
-        <v>98</v>
-      </c>
-      <c r="I32" t="s">
-        <v>99</v>
-      </c>
-      <c r="J32" t="s">
-        <v>100</v>
+      <c r="H32">
+        <v>16.318181818181817</v>
+      </c>
+      <c r="I32">
+        <v>18.666666666666668</v>
+      </c>
+      <c r="J32">
+        <v>16.75</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33">
-        <v>1</v>
-      </c>
-      <c r="B33">
-        <v>104</v>
-      </c>
-      <c r="C33" t="s">
-        <v>84</v>
-      </c>
+      <c r="A33" t="s">
+        <v>67</v>
+      </c>
+      <c r="B33"/>
+      <c r="C33"/>
       <c r="D33">
-        <v>7.0626285714285588</v>
+        <v>4.7495808321624926</v>
       </c>
       <c r="E33">
-        <v>228.20548571428563</v>
+        <v>1.2165391169827795</v>
       </c>
       <c r="F33">
-        <v>195.06262857142852</v>
+        <v>0.67147284096966042</v>
       </c>
       <c r="G33"/>
-      <c r="H33"/>
+      <c r="H33">
+        <v>0.61505767735860717</v>
+      </c>
       <c r="I33">
-        <v>19</v>
+        <v>1.8559214542766742</v>
       </c>
       <c r="J33">
-        <v>17</v>
+        <v>1.6007810593582121</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34">
-        <v>2</v>
-      </c>
-      <c r="B34">
-        <v>108</v>
-      </c>
-      <c r="C34" t="s">
-        <v>84</v>
-      </c>
-      <c r="D34">
-        <v>17.735771428571422</v>
-      </c>
-      <c r="E34">
-        <v>113.73577142857141</v>
-      </c>
-      <c r="F34">
-        <v>89.164342857142827</v>
-      </c>
+      <c r="A34"/>
+      <c r="B34"/>
+      <c r="C34"/>
+      <c r="D34"/>
+      <c r="E34"/>
+      <c r="F34"/>
       <c r="G34"/>
       <c r="H34"/>
-      <c r="I34">
-        <v>20</v>
-      </c>
-      <c r="J34">
-        <v>18.000000000000004</v>
-      </c>
+      <c r="I34"/>
+      <c r="J34"/>
     </row>
     <row r="35">
-      <c r="A35">
-        <v>3</v>
-      </c>
-      <c r="B35">
-        <v>129</v>
-      </c>
-      <c r="C35" t="s">
-        <v>84</v>
-      </c>
-      <c r="D35">
-        <v>5.2651428571428562</v>
-      </c>
-      <c r="E35">
-        <v>50.40799999999998</v>
-      </c>
-      <c r="F35">
-        <v>34.979428571428571</v>
-      </c>
+      <c r="A35" t="s">
+        <v>68</v>
+      </c>
+      <c r="B35"/>
+      <c r="C35"/>
+      <c r="D35"/>
+      <c r="E35"/>
+      <c r="F35"/>
       <c r="G35"/>
       <c r="H35"/>
-      <c r="I35">
-        <v>21</v>
-      </c>
-      <c r="J35">
-        <v>21</v>
-      </c>
+      <c r="I35"/>
+      <c r="J35"/>
     </row>
     <row r="36">
-      <c r="A36">
-        <v>4</v>
-      </c>
-      <c r="B36">
-        <v>130</v>
+      <c r="A36" t="s">
+        <v>65</v>
+      </c>
+      <c r="B36" t="s">
+        <v>74</v>
       </c>
       <c r="C36" t="s">
-        <v>84</v>
-      </c>
-      <c r="D36">
-        <v>7.3465142857142762</v>
-      </c>
-      <c r="E36">
-        <v>167.34651428571422</v>
-      </c>
-      <c r="F36">
-        <v>96.489371428571388</v>
+        <v>75</v>
+      </c>
+      <c r="D36" t="s">
+        <v>95</v>
+      </c>
+      <c r="E36" t="s">
+        <v>96</v>
+      </c>
+      <c r="F36" t="s">
+        <v>97</v>
       </c>
       <c r="G36"/>
-      <c r="H36"/>
-      <c r="I36">
-        <v>19</v>
-      </c>
-      <c r="J36">
-        <v>20</v>
+      <c r="H36" t="s">
+        <v>98</v>
+      </c>
+      <c r="I36" t="s">
+        <v>99</v>
+      </c>
+      <c r="J36" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="37">
       <c r="A37">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B37">
-        <v>137</v>
+        <v>103</v>
       </c>
       <c r="C37" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D37">
-        <v>13.321142857142869</v>
+        <v>0</v>
       </c>
       <c r="E37">
-        <v>61.321142857142853</v>
+        <v>5.333333333333333</v>
       </c>
       <c r="F37">
-        <v>55.606857142857152</v>
+        <v>13.333333333333332</v>
       </c>
       <c r="G37"/>
       <c r="H37"/>
       <c r="I37">
-        <v>20</v>
+        <v>18.000000000000004</v>
       </c>
       <c r="J37">
         <v>19</v>
@@ -3070,111 +3065,111 @@
     </row>
     <row r="38">
       <c r="A38">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B38">
-        <v>140</v>
+        <v>104</v>
       </c>
       <c r="C38" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D38">
-        <v>15.1128</v>
+        <v>3.9999999999999996</v>
       </c>
       <c r="E38">
-        <v>60.255657142857132</v>
+        <v>46.666666666666657</v>
       </c>
       <c r="F38">
-        <v>147.68422857142858</v>
+        <v>47.999999999999993</v>
       </c>
       <c r="G38"/>
       <c r="H38"/>
       <c r="I38">
+        <v>19</v>
+      </c>
+      <c r="J38">
         <v>17</v>
-      </c>
-      <c r="J38">
-        <v>16</v>
       </c>
     </row>
     <row r="39">
       <c r="A39">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B39">
-        <v>141</v>
+        <v>108</v>
       </c>
       <c r="C39" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D39">
-        <v>36.368457142857139</v>
+        <v>2.6666666666666665</v>
       </c>
       <c r="E39">
-        <v>142.6541714285714</v>
+        <v>25.333333333333332</v>
       </c>
       <c r="F39">
-        <v>147.22559999999999</v>
+        <v>29.333333333333332</v>
       </c>
       <c r="G39"/>
       <c r="H39"/>
       <c r="I39">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="J39">
-        <v>16</v>
+        <v>18.000000000000004</v>
       </c>
     </row>
     <row r="40">
       <c r="A40">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B40">
-        <v>145</v>
+        <v>129</v>
       </c>
       <c r="C40" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D40">
-        <v>15.621142857142866</v>
+        <v>1.3333333333333333</v>
       </c>
       <c r="E40">
-        <v>79.049714285714259</v>
+        <v>11.999999999999998</v>
       </c>
       <c r="F40">
-        <v>75.049714285714288</v>
+        <v>9.3333333333333339</v>
       </c>
       <c r="G40"/>
       <c r="H40"/>
       <c r="I40">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J40">
-        <v>18.000000000000004</v>
+        <v>21</v>
       </c>
     </row>
     <row r="41">
       <c r="A41">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B41">
-        <v>163</v>
+        <v>130</v>
       </c>
       <c r="C41" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="D41">
-        <v>22.648457142857129</v>
+        <v>5.333333333333333</v>
       </c>
       <c r="E41">
-        <v>80.362742857142834</v>
+        <v>41.333333333333329</v>
       </c>
       <c r="F41">
-        <v>52.362742857142834</v>
+        <v>29.333333333333332</v>
       </c>
       <c r="G41"/>
       <c r="H41"/>
       <c r="I41">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="J41">
         <v>20</v>
@@ -3182,81 +3177,83 @@
     </row>
     <row r="42">
       <c r="A42">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B42">
-        <v>170</v>
+        <v>137</v>
       </c>
       <c r="C42" t="s">
         <v>85</v>
       </c>
       <c r="D42">
-        <v>18.431200000000008</v>
+        <v>2.6666666666666665</v>
       </c>
       <c r="E42">
-        <v>63.574057142857143</v>
+        <v>15.999999999999998</v>
       </c>
       <c r="F42">
-        <v>74.431200000000004</v>
+        <v>13.333333333333332</v>
       </c>
       <c r="G42"/>
       <c r="H42"/>
       <c r="I42">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="J42">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="43">
       <c r="A43">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B43">
-        <v>171</v>
+        <v>140</v>
       </c>
       <c r="C43" t="s">
         <v>85</v>
       </c>
       <c r="D43">
-        <v>11.362285714285722</v>
+        <v>7.9999999999999991</v>
       </c>
       <c r="E43">
-        <v>31.933714285714284</v>
+        <v>22.666666666666668</v>
       </c>
       <c r="F43">
-        <v>17.07657142857143</v>
+        <v>41.333333333333329</v>
       </c>
       <c r="G43"/>
       <c r="H43"/>
       <c r="I43">
-        <v>19</v>
-      </c>
-      <c r="J43"/>
+        <v>17</v>
+      </c>
+      <c r="J43">
+        <v>16</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B44">
-        <v>173</v>
+        <v>141</v>
       </c>
       <c r="C44" t="s">
         <v>85</v>
       </c>
       <c r="D44">
-        <v>-0.059999999999999991</v>
+        <v>21.333333333333332</v>
       </c>
       <c r="E44">
-        <v>171.36857142857139</v>
+        <v>41.333333333333329</v>
       </c>
       <c r="F44">
-        <v>115.36857142857141</v>
+        <v>46.666666666666657</v>
       </c>
       <c r="G44"/>
       <c r="H44"/>
       <c r="I44">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J44">
         <v>16</v>
@@ -3264,1466 +3261,1432 @@
     </row>
     <row r="45">
       <c r="A45">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B45">
-        <v>176</v>
+        <v>145</v>
       </c>
       <c r="C45" t="s">
         <v>85</v>
       </c>
       <c r="D45">
-        <v>13.618285714285715</v>
+        <v>11.999999999999998</v>
       </c>
       <c r="E45">
-        <v>246.76114285714283</v>
+        <v>18.666666666666668</v>
       </c>
       <c r="F45">
-        <v>317.61828571428566</v>
+        <v>15.999999999999998</v>
       </c>
       <c r="G45"/>
-      <c r="H45">
+      <c r="H45"/>
+      <c r="I45">
+        <v>20</v>
+      </c>
+      <c r="J45">
         <v>18.000000000000004</v>
-      </c>
-      <c r="I45">
-        <v>14</v>
-      </c>
-      <c r="J45">
-        <v>14</v>
       </c>
     </row>
     <row r="46">
       <c r="A46">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B46">
-        <v>178</v>
+        <v>163</v>
       </c>
       <c r="C46" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="D46">
-        <v>12.474285714285715</v>
+        <v>10.666666666666666</v>
       </c>
       <c r="E46">
-        <v>55.902857142857137</v>
+        <v>19.999999999999996</v>
       </c>
       <c r="F46">
-        <v>75.331428571428575</v>
+        <v>19.999999999999996</v>
       </c>
       <c r="G46"/>
       <c r="H46"/>
       <c r="I46">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="J46">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="47">
       <c r="A47">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B47">
-        <v>186</v>
+        <v>170</v>
       </c>
       <c r="C47" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D47">
-        <v>-0.21999999999999992</v>
+        <v>14.666666666666666</v>
       </c>
       <c r="E47">
-        <v>21.494285714285713</v>
+        <v>21.333333333333332</v>
       </c>
       <c r="F47">
-        <v>43.780000000000001</v>
+        <v>26.666666666666664</v>
       </c>
       <c r="G47"/>
       <c r="H47"/>
       <c r="I47">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J47">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="48">
       <c r="A48">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B48">
-        <v>187</v>
+        <v>171</v>
       </c>
       <c r="C48" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D48">
-        <v>6.3652571428571525</v>
+        <v>2.6666666666666665</v>
       </c>
       <c r="E48">
-        <v>92.079542857142869</v>
+        <v>6.6666666666666661</v>
       </c>
       <c r="F48">
-        <v>54.365257142857153</v>
+        <v>2.6666666666666665</v>
       </c>
       <c r="G48"/>
       <c r="H48"/>
       <c r="I48">
-        <v>17</v>
-      </c>
-      <c r="J48">
-        <v>17</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="J48"/>
     </row>
     <row r="49">
       <c r="A49">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B49">
-        <v>190</v>
+        <v>173</v>
       </c>
       <c r="C49" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D49">
-        <v>-2.71599999999999</v>
+        <v>0</v>
       </c>
       <c r="E49">
-        <v>48.71257142857143</v>
+        <v>33.333333333333329</v>
       </c>
       <c r="F49">
-        <v>42.998285714285721</v>
+        <v>21.333333333333332</v>
       </c>
       <c r="G49"/>
       <c r="H49"/>
       <c r="I49">
-        <v>18.000000000000004</v>
+        <v>16</v>
       </c>
       <c r="J49">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50">
       <c r="A50">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B50">
-        <v>223</v>
+        <v>178</v>
       </c>
       <c r="C50" t="s">
         <v>86</v>
       </c>
       <c r="D50">
-        <v>28.63485714285714</v>
+        <v>2.6666666666666665</v>
       </c>
       <c r="E50">
-        <v>93.777714285714282</v>
+        <v>14.666666666666666</v>
       </c>
       <c r="F50">
-        <v>80.063428571428574</v>
+        <v>17.333333333333332</v>
       </c>
       <c r="G50"/>
       <c r="H50"/>
       <c r="I50">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="J50">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="51">
       <c r="A51">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B51">
-        <v>232</v>
+        <v>186</v>
       </c>
       <c r="C51" t="s">
         <v>86</v>
       </c>
       <c r="D51">
-        <v>15.679428571428568</v>
+        <v>0</v>
       </c>
       <c r="E51">
-        <v>129.39371428571428</v>
+        <v>6.6666666666666661</v>
       </c>
       <c r="F51">
-        <v>123.10799999999998</v>
+        <v>9.3333333333333339</v>
       </c>
       <c r="G51"/>
       <c r="H51"/>
       <c r="I51">
-        <v>18.000000000000004</v>
+        <v>15</v>
       </c>
       <c r="J51">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="52">
       <c r="A52">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B52">
-        <v>233</v>
+        <v>187</v>
       </c>
       <c r="C52" t="s">
         <v>86</v>
       </c>
       <c r="D52">
-        <v>4.9979428571428519</v>
+        <v>2.6666666666666665</v>
       </c>
       <c r="E52">
-        <v>168.99794285714282</v>
+        <v>29.333333333333332</v>
       </c>
       <c r="F52">
-        <v>135.85508571428571</v>
+        <v>13.333333333333332</v>
       </c>
       <c r="G52"/>
       <c r="H52"/>
       <c r="I52">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J52">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="53">
       <c r="A53">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B53">
-        <v>235</v>
+        <v>190</v>
       </c>
       <c r="C53" t="s">
         <v>86</v>
       </c>
       <c r="D53">
-        <v>46.649028571428552</v>
+        <v>0</v>
       </c>
       <c r="E53">
-        <v>119.79188571428566</v>
+        <v>18.666666666666668</v>
       </c>
       <c r="F53">
-        <v>76.934742857142837</v>
+        <v>10.666666666666666</v>
       </c>
       <c r="G53"/>
       <c r="H53"/>
       <c r="I53">
-        <v>15</v>
+        <v>18.000000000000004</v>
       </c>
       <c r="J53">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="54">
       <c r="A54">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B54">
-        <v>239</v>
+        <v>211</v>
       </c>
       <c r="C54" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="D54">
-        <v>12.618285714285713</v>
+        <v>0</v>
       </c>
       <c r="E54">
-        <v>153.76114285714286</v>
+        <v>3.9999999999999996</v>
       </c>
       <c r="F54">
-        <v>182.33257142857136</v>
+        <v>1.3333333333333333</v>
       </c>
       <c r="G54"/>
       <c r="H54"/>
       <c r="I54">
-        <v>20</v>
-      </c>
-      <c r="J54">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="J54"/>
     </row>
     <row r="55">
       <c r="A55">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B55">
-        <v>248</v>
+        <v>223</v>
       </c>
       <c r="C55" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="D55">
-        <v>15.007428571428568</v>
+        <v>9.3333333333333339</v>
       </c>
       <c r="E55">
-        <v>44.150285714285708</v>
+        <v>34.666666666666664</v>
       </c>
       <c r="F55">
-        <v>49.864571428571416</v>
+        <v>29.333333333333332</v>
       </c>
       <c r="G55"/>
       <c r="H55"/>
       <c r="I55">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="J55">
-        <v>24</v>
+        <v>17</v>
       </c>
     </row>
     <row r="56">
       <c r="A56">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B56">
-        <v>250</v>
+        <v>232</v>
       </c>
       <c r="C56" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="D56">
-        <v>5.2629714285714249</v>
+        <v>3.9999999999999996</v>
       </c>
       <c r="E56">
-        <v>58.977257142857127</v>
+        <v>39.999999999999993</v>
       </c>
       <c r="F56">
-        <v>21.834399999999995</v>
+        <v>31.999999999999996</v>
       </c>
       <c r="G56"/>
       <c r="H56"/>
       <c r="I56">
-        <v>17</v>
-      </c>
-      <c r="J56"/>
+        <v>18.000000000000004</v>
+      </c>
+      <c r="J56">
+        <v>19</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B57">
-        <v>359</v>
+        <v>233</v>
       </c>
       <c r="C57" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D57">
-        <v>4.0183999999999891</v>
+        <v>1.3333333333333333</v>
       </c>
       <c r="E57">
-        <v>53.732685714285694</v>
+        <v>39.999999999999993</v>
       </c>
       <c r="F57">
-        <v>55.446971428571402</v>
+        <v>31.999999999999996</v>
       </c>
       <c r="G57"/>
       <c r="H57"/>
       <c r="I57">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="J57">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="58">
       <c r="A58">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B58">
-        <v>376</v>
+        <v>235</v>
       </c>
       <c r="C58" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D58">
-        <v>7.8906285714285698</v>
+        <v>15.999999999999998</v>
       </c>
       <c r="E58">
-        <v>41.033485714285703</v>
+        <v>34.666666666666664</v>
       </c>
       <c r="F58">
-        <v>14.747771428571427</v>
+        <v>22.666666666666668</v>
       </c>
       <c r="G58"/>
       <c r="H58"/>
       <c r="I58">
-        <v>18.000000000000004</v>
-      </c>
-      <c r="J58"/>
+        <v>15</v>
+      </c>
+      <c r="J58">
+        <v>16</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B59">
-        <v>393</v>
+        <v>239</v>
       </c>
       <c r="C59" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D59">
-        <v>-0.32399999999999973</v>
+        <v>2.6666666666666665</v>
       </c>
       <c r="E59">
-        <v>518.53314285714271</v>
+        <v>31.999999999999996</v>
       </c>
       <c r="F59">
-        <v>290.53314285714282</v>
+        <v>37.333333333333336</v>
       </c>
       <c r="G59"/>
       <c r="H59"/>
       <c r="I59">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="J59">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="60">
       <c r="A60">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B60">
-        <v>403</v>
+        <v>248</v>
       </c>
       <c r="C60" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D60">
-        <v>7.3418285714285778</v>
+        <v>5.333333333333333</v>
       </c>
       <c r="E60">
-        <v>55.341828571428572</v>
+        <v>7.9999999999999991</v>
       </c>
       <c r="F60">
-        <v>37.627542857142863</v>
+        <v>14.666666666666666</v>
       </c>
       <c r="G60"/>
       <c r="H60"/>
       <c r="I60">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="J60">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="61">
       <c r="A61">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B61">
-        <v>474</v>
+        <v>250</v>
       </c>
       <c r="C61" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D61">
-        <v>15.709828571428545</v>
+        <v>5.333333333333333</v>
       </c>
       <c r="E61">
-        <v>65.424114285714253</v>
+        <v>14.666666666666666</v>
       </c>
       <c r="F61">
-        <v>159.70982857142855</v>
+        <v>11.999999999999998</v>
       </c>
       <c r="G61"/>
       <c r="H61"/>
       <c r="I61">
-        <v>24</v>
-      </c>
-      <c r="J61">
-        <v>22</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="J61"/>
     </row>
     <row r="62">
       <c r="A62">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B62">
-        <v>485</v>
+        <v>352</v>
       </c>
       <c r="C62" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D62">
-        <v>9.2862857142857127</v>
+        <v>0</v>
       </c>
       <c r="E62">
-        <v>94.429142857142864</v>
+        <v>4.1666666666666661</v>
       </c>
       <c r="F62">
-        <v>48.143428571428572</v>
+        <v>1.6666666666666665</v>
       </c>
       <c r="G62"/>
       <c r="H62"/>
       <c r="I62">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="J62">
-        <v>22</v>
+        <v>14</v>
       </c>
     </row>
     <row r="63">
       <c r="A63">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B63">
-        <v>489</v>
+        <v>359</v>
       </c>
       <c r="C63" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D63">
-        <v>76.903085714285709</v>
+        <v>2.4999999999999996</v>
       </c>
       <c r="E63">
-        <v>202.6173714285714</v>
+        <v>15.833333333333332</v>
       </c>
       <c r="F63">
-        <v>198.61737142857135</v>
+        <v>14.166666666666664</v>
       </c>
       <c r="G63"/>
       <c r="H63"/>
       <c r="I63">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J63">
-        <v>18.000000000000004</v>
+        <v>21</v>
       </c>
     </row>
     <row r="64">
       <c r="A64">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B64">
-        <v>509</v>
+        <v>365</v>
       </c>
       <c r="C64" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D64">
-        <v>-0.0080000000000000002</v>
+        <v>1.6666666666666665</v>
       </c>
       <c r="E64">
-        <v>409.13485714285707</v>
+        <v>3.333333333333333</v>
       </c>
       <c r="F64">
-        <v>451.42057142857135</v>
+        <v>4.1666666666666661</v>
       </c>
       <c r="G64"/>
       <c r="H64"/>
       <c r="I64">
-        <v>14</v>
-      </c>
-      <c r="J64">
-        <v>15</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="J64"/>
     </row>
     <row r="65">
       <c r="A65">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B65">
-        <v>543</v>
+        <v>376</v>
       </c>
       <c r="C65" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D65">
-        <v>57.458628571428548</v>
+        <v>1.6666666666666665</v>
       </c>
       <c r="E65">
-        <v>144.88719999999998</v>
+        <v>6.6666666666666661</v>
       </c>
       <c r="F65">
-        <v>100.3157714285714</v>
+        <v>1.6666666666666665</v>
       </c>
       <c r="G65"/>
       <c r="H65"/>
       <c r="I65">
-        <v>16</v>
-      </c>
-      <c r="J65">
-        <v>15</v>
-      </c>
+        <v>18.000000000000004</v>
+      </c>
+      <c r="J65"/>
     </row>
     <row r="66">
       <c r="A66">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B66">
-        <v>551</v>
+        <v>393</v>
       </c>
       <c r="C66" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D66">
-        <v>17.452228571428549</v>
+        <v>0</v>
       </c>
       <c r="E66">
-        <v>135.16651428571424</v>
+        <v>56.666666666666657</v>
       </c>
       <c r="F66">
-        <v>87.737942857142826</v>
+        <v>37.5</v>
       </c>
       <c r="G66"/>
       <c r="H66"/>
       <c r="I66">
-        <v>18.000000000000004</v>
-      </c>
-      <c r="J66"/>
+        <v>15</v>
+      </c>
+      <c r="J66">
+        <v>14</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B67">
-        <v>552</v>
+        <v>403</v>
       </c>
       <c r="C67" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D67">
-        <v>17.691085714285702</v>
+        <v>0.83333333333333326</v>
       </c>
       <c r="E67">
-        <v>62.262514285714275</v>
+        <v>9.1666666666666661</v>
       </c>
       <c r="F67">
-        <v>50.833942857142844</v>
+        <v>8.3333333333333321</v>
       </c>
       <c r="G67"/>
       <c r="H67"/>
       <c r="I67">
-        <v>18.000000000000004</v>
-      </c>
-      <c r="J67"/>
+        <v>16</v>
+      </c>
+      <c r="J67">
+        <v>16</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B68">
-        <v>558</v>
+        <v>460</v>
       </c>
       <c r="C68" t="s">
         <v>81</v>
       </c>
       <c r="D68">
-        <v>56.959428571428546</v>
+        <v>1.6666666666666665</v>
       </c>
       <c r="E68">
-        <v>80.387999999999963</v>
+        <v>3.75</v>
       </c>
       <c r="F68">
-        <v>62.102285714285699</v>
+        <v>5.4166666666666661</v>
       </c>
       <c r="G68"/>
       <c r="H68"/>
       <c r="I68">
-        <v>17</v>
-      </c>
-      <c r="J68"/>
+        <v>20</v>
+      </c>
+      <c r="J68">
+        <v>19</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B69">
-        <v>566</v>
+        <v>474</v>
       </c>
       <c r="C69" t="s">
         <v>81</v>
       </c>
       <c r="D69">
-        <v>82.702742857142837</v>
+        <v>3.333333333333333</v>
       </c>
       <c r="E69">
-        <v>143.84559999999996</v>
+        <v>7.0833333333333321</v>
       </c>
       <c r="F69">
-        <v>200.41702857142852</v>
+        <v>11.25</v>
       </c>
       <c r="G69"/>
       <c r="H69"/>
       <c r="I69">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="J69">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="70">
       <c r="A70">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B70">
-        <v>913</v>
+        <v>485</v>
       </c>
       <c r="C70" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D70">
-        <v>37.87508571428571</v>
+        <v>0.41666666666666663</v>
       </c>
       <c r="E70">
-        <v>100.73222857142852</v>
+        <v>7.0833333333333321</v>
       </c>
       <c r="F70">
-        <v>49.303657142857126</v>
+        <v>6.6666666666666661</v>
       </c>
       <c r="G70"/>
       <c r="H70"/>
       <c r="I70">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="J70">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="71">
-      <c r="A71"/>
-      <c r="B71"/>
-      <c r="C71"/>
-      <c r="D71"/>
-      <c r="E71"/>
-      <c r="F71"/>
+      <c r="A71">
+        <v>35</v>
+      </c>
+      <c r="B71">
+        <v>489</v>
+      </c>
+      <c r="C71" t="s">
+        <v>81</v>
+      </c>
+      <c r="D71">
+        <v>12.916666666666666</v>
+      </c>
+      <c r="E71">
+        <v>15.833333333333332</v>
+      </c>
+      <c r="F71">
+        <v>17.916666666666664</v>
+      </c>
       <c r="G71"/>
       <c r="H71"/>
-      <c r="I71"/>
-      <c r="J71"/>
+      <c r="I71">
+        <v>20</v>
+      </c>
+      <c r="J71">
+        <v>18.000000000000004</v>
+      </c>
     </row>
     <row r="72">
-      <c r="A72" t="s">
-        <v>66</v>
-      </c>
-      <c r="B72"/>
-      <c r="C72"/>
+      <c r="A72">
+        <v>36</v>
+      </c>
+      <c r="B72">
+        <v>509</v>
+      </c>
+      <c r="C72" t="s">
+        <v>82</v>
+      </c>
       <c r="D72">
-        <v>18.935383458646612</v>
+        <v>0</v>
       </c>
       <c r="E72">
-        <v>120.83012030075183</v>
+        <v>23.333333333333329</v>
       </c>
       <c r="F72">
-        <v>108.19854135338346</v>
+        <v>24.999999999999996</v>
       </c>
       <c r="G72"/>
-      <c r="H72">
-        <v>18.000000000000004</v>
-      </c>
+      <c r="H72"/>
       <c r="I72">
-        <v>18.289473684210527</v>
+        <v>14</v>
       </c>
       <c r="J72">
-        <v>18.03125</v>
+        <v>15</v>
       </c>
     </row>
     <row r="73">
-      <c r="A73" t="s">
-        <v>67</v>
-      </c>
-      <c r="B73"/>
-      <c r="C73"/>
+      <c r="A73">
+        <v>37</v>
+      </c>
+      <c r="B73">
+        <v>511</v>
+      </c>
+      <c r="C73" t="s">
+        <v>82</v>
+      </c>
       <c r="D73">
-        <v>3.3374536841004976</v>
+        <v>0.83333333333333326</v>
       </c>
       <c r="E73">
-        <v>16.157978478524516</v>
+        <v>5.4166666666666661</v>
       </c>
       <c r="F73">
-        <v>14.804624750731399</v>
+        <v>2.9166666666666661</v>
       </c>
       <c r="G73"/>
-      <c r="H73">
-        <v>0</v>
-      </c>
+      <c r="H73"/>
       <c r="I73">
-        <v>0.44130269903082958</v>
+        <v>13.000000000000002</v>
       </c>
       <c r="J73">
-        <v>0.51290675243512662</v>
+        <v>15</v>
       </c>
     </row>
     <row r="74">
-      <c r="A74"/>
-      <c r="B74"/>
-      <c r="C74"/>
-      <c r="D74"/>
-      <c r="E74"/>
-      <c r="F74"/>
+      <c r="A74">
+        <v>38</v>
+      </c>
+      <c r="B74">
+        <v>519</v>
+      </c>
+      <c r="C74" t="s">
+        <v>82</v>
+      </c>
+      <c r="D74">
+        <v>0.41666666666666663</v>
+      </c>
+      <c r="E74">
+        <v>3.75</v>
+      </c>
+      <c r="F74">
+        <v>3.333333333333333</v>
+      </c>
       <c r="G74"/>
       <c r="H74"/>
-      <c r="I74"/>
-      <c r="J74"/>
+      <c r="I74">
+        <v>15</v>
+      </c>
+      <c r="J74">
+        <v>15</v>
+      </c>
     </row>
     <row r="75">
-      <c r="A75" t="s">
-        <v>69</v>
-      </c>
-      <c r="B75"/>
-      <c r="C75"/>
-      <c r="D75"/>
-      <c r="E75"/>
-      <c r="F75"/>
+      <c r="A75">
+        <v>39</v>
+      </c>
+      <c r="B75">
+        <v>543</v>
+      </c>
+      <c r="C75" t="s">
+        <v>82</v>
+      </c>
+      <c r="D75">
+        <v>8.3333333333333321</v>
+      </c>
+      <c r="E75">
+        <v>8.3333333333333321</v>
+      </c>
+      <c r="F75">
+        <v>6.2499999999999991</v>
+      </c>
       <c r="G75"/>
       <c r="H75"/>
-      <c r="I75"/>
-      <c r="J75"/>
+      <c r="I75">
+        <v>16</v>
+      </c>
+      <c r="J75">
+        <v>15</v>
+      </c>
     </row>
     <row r="76">
-      <c r="A76" t="s">
-        <v>65</v>
-      </c>
-      <c r="B76" t="s">
-        <v>74</v>
+      <c r="A76">
+        <v>40</v>
+      </c>
+      <c r="B76">
+        <v>551</v>
       </c>
       <c r="C76" t="s">
-        <v>75</v>
-      </c>
-      <c r="D76" t="s">
-        <v>95</v>
-      </c>
-      <c r="E76" t="s">
-        <v>96</v>
-      </c>
-      <c r="F76" t="s">
-        <v>97</v>
+        <v>82</v>
+      </c>
+      <c r="D76">
+        <v>8.3333333333333321</v>
+      </c>
+      <c r="E76">
+        <v>18.333333333333332</v>
+      </c>
+      <c r="F76">
+        <v>12.916666666666666</v>
       </c>
       <c r="G76"/>
-      <c r="H76" t="s">
-        <v>98</v>
-      </c>
-      <c r="I76" t="s">
-        <v>99</v>
-      </c>
-      <c r="J76" t="s">
-        <v>100</v>
-      </c>
+      <c r="H76"/>
+      <c r="I76">
+        <v>18.000000000000004</v>
+      </c>
+      <c r="J76"/>
     </row>
     <row r="77">
       <c r="A77">
-        <v>1</v>
+        <v>41</v>
       </c>
       <c r="B77">
-        <v>105</v>
+        <v>552</v>
       </c>
       <c r="C77" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D77">
-        <v>62.405257142857131</v>
+        <v>3.75</v>
       </c>
       <c r="E77">
-        <v>204.11954285714285</v>
+        <v>7.0833333333333321</v>
       </c>
       <c r="F77">
-        <v>180.69097142857134</v>
+        <v>7.9166666666666661</v>
       </c>
       <c r="G77"/>
-      <c r="H77">
-        <v>20</v>
-      </c>
+      <c r="H77"/>
       <c r="I77">
         <v>18.000000000000004</v>
       </c>
-      <c r="J77">
-        <v>17</v>
-      </c>
+      <c r="J77"/>
     </row>
     <row r="78">
       <c r="A78">
-        <v>2</v>
+        <v>42</v>
       </c>
       <c r="B78">
-        <v>147</v>
+        <v>558</v>
       </c>
       <c r="C78" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="D78">
-        <v>326.20159999999987</v>
+        <v>6.6666666666666661</v>
       </c>
       <c r="E78">
-        <v>425.63017142857132</v>
+        <v>11.25</v>
       </c>
       <c r="F78">
-        <v>434.77302857142848</v>
+        <v>7.0833333333333321</v>
       </c>
       <c r="G78"/>
-      <c r="H78">
-        <v>14</v>
-      </c>
+      <c r="H78"/>
       <c r="I78">
-        <v>14</v>
-      </c>
-      <c r="J78">
-        <v>13.000000000000002</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="J78"/>
     </row>
     <row r="79">
       <c r="A79">
-        <v>3</v>
+        <v>43</v>
       </c>
       <c r="B79">
-        <v>153</v>
+        <v>566</v>
       </c>
       <c r="C79" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="D79">
-        <v>27.232114285714282</v>
+        <v>21.249999999999996</v>
       </c>
       <c r="E79">
-        <v>60.374971428571421</v>
+        <v>15.833333333333332</v>
       </c>
       <c r="F79">
-        <v>43.803542857142851</v>
+        <v>18.333333333333332</v>
       </c>
       <c r="G79"/>
-      <c r="H79">
-        <v>22</v>
-      </c>
+      <c r="H79"/>
       <c r="I79">
+        <v>21</v>
+      </c>
+      <c r="J79">
         <v>20</v>
-      </c>
-      <c r="J79">
-        <v>18.000000000000004</v>
       </c>
     </row>
     <row r="80">
       <c r="A80">
-        <v>4</v>
+        <v>44</v>
       </c>
       <c r="B80">
-        <v>155</v>
+        <v>575</v>
       </c>
       <c r="C80" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="D80">
-        <v>169.64708571428571</v>
+        <v>1.6666666666666665</v>
       </c>
       <c r="E80">
-        <v>325.0756571428571</v>
+        <v>5.8333333333333321</v>
       </c>
       <c r="F80">
-        <v>310.21851428571421</v>
+        <v>4.1666666666666661</v>
       </c>
       <c r="G80"/>
-      <c r="H80">
-        <v>17</v>
-      </c>
+      <c r="H80"/>
       <c r="I80">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="J80">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="81">
       <c r="A81">
-        <v>5</v>
+        <v>45</v>
       </c>
       <c r="B81">
-        <v>157</v>
+        <v>913</v>
       </c>
       <c r="C81" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="D81">
-        <v>80.631885714285701</v>
+        <v>12.499999999999998</v>
       </c>
       <c r="E81">
-        <v>121.20331428571426</v>
+        <v>16.666666666666664</v>
       </c>
       <c r="F81">
-        <v>169.7747428571428</v>
+        <v>13.333333333333332</v>
       </c>
       <c r="G81"/>
-      <c r="H81">
-        <v>23</v>
-      </c>
+      <c r="H81"/>
       <c r="I81">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="J81">
-        <v>18.000000000000004</v>
+        <v>24</v>
       </c>
     </row>
     <row r="82">
-      <c r="A82">
-        <v>6</v>
-      </c>
-      <c r="B82">
-        <v>161</v>
-      </c>
-      <c r="C82" t="s">
-        <v>76</v>
-      </c>
-      <c r="D82">
-        <v>108.44251428571425</v>
-      </c>
-      <c r="E82">
-        <v>39.299657142857143</v>
-      </c>
-      <c r="F82">
-        <v>25.013942857142858</v>
-      </c>
+      <c r="A82"/>
+      <c r="B82"/>
+      <c r="C82"/>
+      <c r="D82"/>
+      <c r="E82"/>
+      <c r="F82"/>
       <c r="G82"/>
-      <c r="H82">
-        <v>18.000000000000004</v>
-      </c>
-      <c r="I82">
-        <v>17</v>
-      </c>
-      <c r="J82">
-        <v>20</v>
-      </c>
+      <c r="H82"/>
+      <c r="I82"/>
+      <c r="J82"/>
     </row>
     <row r="83">
-      <c r="A83">
-        <v>7</v>
-      </c>
-      <c r="B83">
-        <v>184</v>
-      </c>
-      <c r="C83" t="s">
-        <v>85</v>
-      </c>
+      <c r="A83" t="s">
+        <v>66</v>
+      </c>
+      <c r="B83"/>
+      <c r="C83"/>
       <c r="D83">
-        <v>37.333714285714279</v>
+        <v>4.9648148148148143</v>
       </c>
       <c r="E83">
-        <v>39.619428571428564</v>
+        <v>18.520370370370372</v>
       </c>
       <c r="F83">
-        <v>57.905142857142856</v>
+        <v>16.874074074074073</v>
       </c>
       <c r="G83"/>
-      <c r="H83">
-        <v>15</v>
-      </c>
+      <c r="H83"/>
       <c r="I83">
-        <v>14</v>
+        <v>18.199999999999999</v>
       </c>
       <c r="J83">
-        <v>16</v>
+        <v>17.945945945945947</v>
       </c>
     </row>
     <row r="84">
-      <c r="A84">
-        <v>8</v>
-      </c>
-      <c r="B84">
-        <v>185</v>
-      </c>
-      <c r="C84" t="s">
-        <v>85</v>
-      </c>
+      <c r="A84" t="s">
+        <v>67</v>
+      </c>
+      <c r="B84"/>
+      <c r="C84"/>
       <c r="D84">
-        <v>186.76399999999992</v>
+        <v>0.83837903802392966</v>
       </c>
       <c r="E84">
-        <v>263.33542857142845</v>
+        <v>2.0363113568135924</v>
       </c>
       <c r="F84">
-        <v>275.33542857142851</v>
+        <v>1.8723590121442788</v>
       </c>
       <c r="G84"/>
-      <c r="H84">
-        <v>19</v>
-      </c>
+      <c r="H84"/>
       <c r="I84">
-        <v>16</v>
+        <v>0.40651263849052127</v>
       </c>
       <c r="J84">
-        <v>16</v>
+        <v>0.46003320474546977</v>
       </c>
     </row>
     <row r="85">
-      <c r="A85">
-        <v>9</v>
-      </c>
-      <c r="B85">
-        <v>189</v>
-      </c>
-      <c r="C85" t="s">
-        <v>85</v>
-      </c>
-      <c r="D85">
-        <v>229.35005714285705</v>
-      </c>
-      <c r="E85">
-        <v>215.63577142857133</v>
-      </c>
-      <c r="F85">
-        <v>295.06434285714278</v>
-      </c>
+      <c r="A85"/>
+      <c r="B85"/>
+      <c r="C85"/>
+      <c r="D85"/>
+      <c r="E85"/>
+      <c r="F85"/>
       <c r="G85"/>
-      <c r="H85">
-        <v>16</v>
-      </c>
-      <c r="I85">
-        <v>15</v>
-      </c>
-      <c r="J85">
-        <v>14</v>
-      </c>
+      <c r="H85"/>
+      <c r="I85"/>
+      <c r="J85"/>
     </row>
     <row r="86">
-      <c r="A86">
-        <v>10</v>
-      </c>
-      <c r="B86">
-        <v>192</v>
-      </c>
-      <c r="C86" t="s">
-        <v>85</v>
-      </c>
-      <c r="D86">
-        <v>91.50994285714286</v>
-      </c>
-      <c r="E86">
-        <v>133.22422857142857</v>
-      </c>
-      <c r="F86">
-        <v>164.0813714285714</v>
-      </c>
+      <c r="A86" t="s">
+        <v>69</v>
+      </c>
+      <c r="B86"/>
+      <c r="C86"/>
+      <c r="D86"/>
+      <c r="E86"/>
+      <c r="F86"/>
       <c r="G86"/>
-      <c r="H86">
-        <v>19</v>
-      </c>
-      <c r="I86">
-        <v>17</v>
-      </c>
-      <c r="J86">
-        <v>16</v>
-      </c>
+      <c r="H86"/>
+      <c r="I86"/>
+      <c r="J86"/>
     </row>
     <row r="87">
-      <c r="A87">
-        <v>11</v>
-      </c>
-      <c r="B87">
-        <v>195</v>
+      <c r="A87" t="s">
+        <v>65</v>
+      </c>
+      <c r="B87" t="s">
+        <v>74</v>
       </c>
       <c r="C87" t="s">
-        <v>85</v>
-      </c>
-      <c r="D87">
-        <v>133.32354285714285</v>
-      </c>
-      <c r="E87">
-        <v>199.6092571428571</v>
-      </c>
-      <c r="F87">
-        <v>184.75211428571427</v>
+        <v>75</v>
+      </c>
+      <c r="D87" t="s">
+        <v>95</v>
+      </c>
+      <c r="E87" t="s">
+        <v>96</v>
+      </c>
+      <c r="F87" t="s">
+        <v>97</v>
       </c>
       <c r="G87"/>
-      <c r="H87">
-        <v>17</v>
-      </c>
-      <c r="I87">
-        <v>17</v>
-      </c>
-      <c r="J87">
-        <v>14</v>
+      <c r="H87" t="s">
+        <v>98</v>
+      </c>
+      <c r="I87" t="s">
+        <v>99</v>
+      </c>
+      <c r="J87" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="88">
       <c r="A88">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="B88">
-        <v>198</v>
+        <v>105</v>
       </c>
       <c r="C88" t="s">
         <v>85</v>
       </c>
       <c r="D88">
-        <v>86.736571428571423</v>
+        <v>26.666666666666664</v>
       </c>
       <c r="E88">
-        <v>42.165142857142847</v>
+        <v>55.999999999999993</v>
       </c>
       <c r="F88">
-        <v>29.593714285714285</v>
+        <v>54.666666666666657</v>
       </c>
       <c r="G88"/>
       <c r="H88">
         <v>20</v>
       </c>
       <c r="I88">
-        <v>20</v>
+        <v>18.000000000000004</v>
       </c>
       <c r="J88">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="89">
       <c r="A89">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="B89">
-        <v>199</v>
+        <v>147</v>
       </c>
       <c r="C89" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="D89">
-        <v>83.864114285714265</v>
+        <v>142.66666666666666</v>
       </c>
       <c r="E89">
-        <v>69.006971428571418</v>
+        <v>125.33333333333331</v>
       </c>
       <c r="F89">
-        <v>73.006971428571418</v>
+        <v>117.33333333333333</v>
       </c>
       <c r="G89"/>
       <c r="H89">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="I89">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J89">
-        <v>16</v>
+        <v>13.000000000000002</v>
       </c>
     </row>
     <row r="90">
       <c r="A90">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="B90">
-        <v>200</v>
+        <v>153</v>
       </c>
       <c r="C90" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="D90">
-        <v>65.547085714285714</v>
+        <v>9.3333333333333339</v>
       </c>
       <c r="E90">
-        <v>43.261371428571429</v>
+        <v>13.333333333333332</v>
       </c>
       <c r="F90">
-        <v>56.404228571428568</v>
+        <v>11.999999999999998</v>
       </c>
       <c r="G90"/>
       <c r="H90">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="I90">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="J90">
-        <v>17</v>
+        <v>18.000000000000004</v>
       </c>
     </row>
     <row r="91">
       <c r="A91">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="B91">
-        <v>207</v>
+        <v>155</v>
       </c>
       <c r="C91" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="D91">
-        <v>94.097028571428538</v>
+        <v>74.666666666666671</v>
       </c>
       <c r="E91">
-        <v>331.23988571428561</v>
+        <v>102.66666666666666</v>
       </c>
       <c r="F91">
-        <v>371.23988571428555</v>
+        <v>105.33333333333333</v>
       </c>
       <c r="G91"/>
       <c r="H91">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="I91">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="J91">
-        <v>18.000000000000004</v>
+        <v>15</v>
       </c>
     </row>
     <row r="92">
       <c r="A92">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="B92">
-        <v>222</v>
+        <v>157</v>
       </c>
       <c r="C92" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="D92">
-        <v>147.64365714285711</v>
+        <v>34.666666666666664</v>
       </c>
       <c r="E92">
-        <v>304.21508571428564</v>
+        <v>47.999999999999993</v>
       </c>
       <c r="F92">
-        <v>371.07222857142847</v>
+        <v>69.333333333333329</v>
       </c>
       <c r="G92"/>
       <c r="H92">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="I92">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="J92">
-        <v>15</v>
+        <v>18.000000000000004</v>
       </c>
     </row>
     <row r="93">
       <c r="A93">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="B93">
-        <v>226</v>
+        <v>161</v>
       </c>
       <c r="C93" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="D93">
-        <v>72.046400000000006</v>
+        <v>29.333333333333332</v>
       </c>
       <c r="E93">
-        <v>52.617828571428561</v>
+        <v>18.666666666666668</v>
       </c>
       <c r="F93">
-        <v>70.903542857142853</v>
+        <v>10.666666666666666</v>
       </c>
       <c r="G93"/>
       <c r="H93">
-        <v>21</v>
+        <v>18.000000000000004</v>
       </c>
       <c r="I93">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="J93">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="94">
       <c r="A94">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="B94">
-        <v>227</v>
+        <v>176</v>
       </c>
       <c r="C94" t="s">
         <v>86</v>
       </c>
       <c r="D94">
-        <v>359.77382857142845</v>
+        <v>3.9999999999999996</v>
       </c>
       <c r="E94">
-        <v>608.91668571428545</v>
+        <v>47.999999999999993</v>
       </c>
       <c r="F94">
-        <v>594.05954285714279</v>
+        <v>58.666666666666664</v>
       </c>
       <c r="G94"/>
       <c r="H94">
-        <v>13.000000000000002</v>
+        <v>18.000000000000004</v>
       </c>
       <c r="I94">
         <v>14</v>
       </c>
       <c r="J94">
-        <v>13.000000000000002</v>
+        <v>14</v>
       </c>
     </row>
     <row r="95">
       <c r="A95">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="B95">
-        <v>241</v>
+        <v>184</v>
       </c>
       <c r="C95" t="s">
         <v>86</v>
       </c>
       <c r="D95">
-        <v>55.70457142857142</v>
+        <v>13.333333333333332</v>
       </c>
       <c r="E95">
-        <v>90.561714285714288</v>
+        <v>15.999999999999998</v>
       </c>
       <c r="F95">
-        <v>77.990285714285704</v>
+        <v>15.999999999999998</v>
       </c>
       <c r="G95"/>
       <c r="H95">
+        <v>15</v>
+      </c>
+      <c r="I95">
         <v>14</v>
       </c>
-      <c r="I95">
-        <v>24</v>
-      </c>
       <c r="J95">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="96">
       <c r="A96">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="B96">
-        <v>245</v>
+        <v>185</v>
       </c>
       <c r="C96" t="s">
         <v>86</v>
       </c>
       <c r="D96">
-        <v>47.000228571428579</v>
+        <v>73.333333333333329</v>
       </c>
       <c r="E96">
-        <v>189.85737142857138</v>
+        <v>93.333333333333314</v>
       </c>
       <c r="F96">
-        <v>160.71451428571424</v>
+        <v>115.99999999999999</v>
       </c>
       <c r="G96"/>
       <c r="H96">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="I96">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="J96">
-        <v>18.000000000000004</v>
+        <v>16</v>
       </c>
     </row>
     <row r="97">
       <c r="A97">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="B97">
-        <v>249</v>
+        <v>189</v>
       </c>
       <c r="C97" t="s">
         <v>86</v>
       </c>
       <c r="D97">
-        <v>126.11325714285711</v>
+        <v>68</v>
       </c>
       <c r="E97">
-        <v>216.97039999999993</v>
+        <v>86.666666666666657</v>
       </c>
       <c r="F97">
-        <v>192.39897142857137</v>
+        <v>90.666666666666671</v>
       </c>
       <c r="G97"/>
       <c r="H97">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I97">
         <v>15</v>
@@ -4734,59 +4697,59 @@
     </row>
     <row r="98">
       <c r="A98">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="B98">
-        <v>360</v>
+        <v>192</v>
       </c>
       <c r="C98" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="D98">
-        <v>69.212342857142829</v>
+        <v>25.333333333333332</v>
       </c>
       <c r="E98">
-        <v>178.35519999999997</v>
+        <v>49.333333333333329</v>
       </c>
       <c r="F98">
-        <v>128.06948571428569</v>
+        <v>61.333333333333329</v>
       </c>
       <c r="G98"/>
       <c r="H98">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="I98">
         <v>17</v>
       </c>
       <c r="J98">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="99">
       <c r="A99">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="B99">
-        <v>363</v>
+        <v>195</v>
       </c>
       <c r="C99" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="D99">
-        <v>233.3083428571428</v>
+        <v>46.666666666666657</v>
       </c>
       <c r="E99">
-        <v>204.73691428571425</v>
+        <v>57.333333333333329</v>
       </c>
       <c r="F99">
-        <v>241.3083428571428</v>
+        <v>72</v>
       </c>
       <c r="G99"/>
       <c r="H99">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I99">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="J99">
         <v>14</v>
@@ -4794,299 +4757,299 @@
     </row>
     <row r="100">
       <c r="A100">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="B100">
-        <v>370</v>
+        <v>198</v>
       </c>
       <c r="C100" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="D100">
-        <v>42.630742857142849</v>
+        <v>21.333333333333332</v>
       </c>
       <c r="E100">
-        <v>95.202171428571404</v>
+        <v>7.9999999999999991</v>
       </c>
       <c r="F100">
-        <v>94.059314285714265</v>
+        <v>5.333333333333333</v>
       </c>
       <c r="G100"/>
       <c r="H100">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="I100">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="J100">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="101">
       <c r="A101">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="B101">
-        <v>371</v>
+        <v>199</v>
       </c>
       <c r="C101" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="D101">
-        <v>443.52308571428563</v>
+        <v>18.666666666666668</v>
       </c>
       <c r="E101">
-        <v>436.09451428571418</v>
+        <v>13.333333333333332</v>
       </c>
       <c r="F101">
-        <v>232.0945142857143</v>
+        <v>14.666666666666666</v>
       </c>
       <c r="G101"/>
       <c r="H101">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="I101">
-        <v>13.000000000000002</v>
+        <v>17</v>
       </c>
       <c r="J101">
-        <v>13.000000000000002</v>
+        <v>16</v>
       </c>
     </row>
     <row r="102">
       <c r="A102">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="B102">
-        <v>377</v>
+        <v>200</v>
       </c>
       <c r="C102" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="D102">
-        <v>54.797142857142845</v>
+        <v>13.333333333333332</v>
       </c>
       <c r="E102">
-        <v>304.51142857142844</v>
+        <v>14.666666666666666</v>
       </c>
       <c r="F102">
-        <v>179.93999999999997</v>
+        <v>22.666666666666668</v>
       </c>
       <c r="G102"/>
       <c r="H102">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I102">
         <v>15</v>
       </c>
       <c r="J102">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="103">
       <c r="A103">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="B103">
-        <v>437</v>
+        <v>207</v>
       </c>
       <c r="C103" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="D103">
-        <v>107.98925714285713</v>
+        <v>33.333333333333329</v>
       </c>
       <c r="E103">
-        <v>188.56068571428568</v>
+        <v>68</v>
       </c>
       <c r="F103">
-        <v>111.98925714285716</v>
+        <v>66.666666666666657</v>
       </c>
       <c r="G103"/>
       <c r="H103">
+        <v>21</v>
+      </c>
+      <c r="I103">
         <v>19</v>
       </c>
-      <c r="I103">
-        <v>17</v>
-      </c>
       <c r="J103">
-        <v>17</v>
+        <v>18.000000000000004</v>
       </c>
     </row>
     <row r="104">
       <c r="A104">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="B104">
-        <v>478</v>
+        <v>222</v>
       </c>
       <c r="C104" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D104">
-        <v>66.929257142857125</v>
+        <v>41.333333333333329</v>
       </c>
       <c r="E104">
-        <v>69.786399999999972</v>
+        <v>72</v>
       </c>
       <c r="F104">
-        <v>74.929257142857111</v>
+        <v>77.333333333333329</v>
       </c>
       <c r="G104"/>
       <c r="H104">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I104">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="J104">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="105">
       <c r="A105">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="B105">
-        <v>494</v>
+        <v>226</v>
       </c>
       <c r="C105" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D105">
-        <v>865.58651428571409</v>
+        <v>31.999999999999996</v>
       </c>
       <c r="E105">
-        <v>305.5865142857142</v>
+        <v>15.999999999999998</v>
       </c>
       <c r="F105">
-        <v>388.44365714285698</v>
+        <v>18.666666666666668</v>
       </c>
       <c r="G105"/>
       <c r="H105">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="I105">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="J105">
-        <v>18.000000000000004</v>
+        <v>19</v>
       </c>
     </row>
     <row r="106">
       <c r="A106">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="B106">
-        <v>499</v>
+        <v>227</v>
       </c>
       <c r="C106" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D106">
-        <v>142.53222857142853</v>
+        <v>148</v>
       </c>
       <c r="E106">
-        <v>433.96079999999995</v>
+        <v>251.99999999999997</v>
       </c>
       <c r="F106">
-        <v>507.67508571428567</v>
+        <v>250.66666666666663</v>
       </c>
       <c r="G106"/>
       <c r="H106">
-        <v>18.000000000000004</v>
+        <v>13.000000000000002</v>
       </c>
       <c r="I106">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J106">
-        <v>15</v>
+        <v>13.000000000000002</v>
       </c>
     </row>
     <row r="107">
       <c r="A107">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="B107">
-        <v>508</v>
+        <v>241</v>
       </c>
       <c r="C107" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D107">
-        <v>152.13942857142854</v>
+        <v>10.666666666666666</v>
       </c>
       <c r="E107">
-        <v>1010.4251428571428</v>
+        <v>46.666666666666657</v>
       </c>
       <c r="F107">
-        <v>1054.4251428571424</v>
+        <v>29.333333333333332</v>
       </c>
       <c r="G107"/>
       <c r="H107">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I107">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="J107">
-        <v>14</v>
+        <v>24</v>
       </c>
     </row>
     <row r="108">
       <c r="A108">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="B108">
-        <v>534</v>
+        <v>245</v>
       </c>
       <c r="C108" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D108">
-        <v>395.7525714285714</v>
+        <v>10.666666666666666</v>
       </c>
       <c r="E108">
-        <v>564.32399999999984</v>
+        <v>38.666666666666664</v>
       </c>
       <c r="F108">
-        <v>487.18114285714273</v>
+        <v>33.333333333333329</v>
       </c>
       <c r="G108"/>
       <c r="H108">
-        <v>13.000000000000002</v>
+        <v>24</v>
       </c>
       <c r="I108">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="J108">
-        <v>14</v>
+        <v>18.000000000000004</v>
       </c>
     </row>
     <row r="109">
       <c r="A109">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="B109">
-        <v>537</v>
+        <v>249</v>
       </c>
       <c r="C109" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D109">
-        <v>441.54685714285711</v>
+        <v>47.999999999999993</v>
       </c>
       <c r="E109">
-        <v>473.54685714285705</v>
+        <v>82.666666666666657</v>
       </c>
       <c r="F109">
-        <v>401.54685714285705</v>
+        <v>94.666666666666657</v>
       </c>
       <c r="G109"/>
       <c r="H109">
+        <v>17</v>
+      </c>
+      <c r="I109">
         <v>15</v>
-      </c>
-      <c r="I109">
-        <v>14</v>
       </c>
       <c r="J109">
         <v>14</v>
@@ -5094,375 +5057,487 @@
     </row>
     <row r="110">
       <c r="A110">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="B110">
-        <v>597</v>
+        <v>360</v>
       </c>
       <c r="C110" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="D110">
-        <v>48.13325714285714</v>
+        <v>20.833333333333332</v>
       </c>
       <c r="E110">
-        <v>392.70468571428563</v>
+        <v>26.666666666666664</v>
       </c>
       <c r="F110">
-        <v>452.13325714285708</v>
+        <v>30</v>
       </c>
       <c r="G110"/>
       <c r="H110">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="I110">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="J110">
         <v>15</v>
       </c>
     </row>
     <row r="111">
-      <c r="A111"/>
-      <c r="B111"/>
-      <c r="C111"/>
-      <c r="D111"/>
-      <c r="E111"/>
-      <c r="F111"/>
+      <c r="A111">
+        <v>24</v>
+      </c>
+      <c r="B111">
+        <v>363</v>
+      </c>
+      <c r="C111" t="s">
+        <v>79</v>
+      </c>
+      <c r="D111">
+        <v>66.666666666666657</v>
+      </c>
+      <c r="E111">
+        <v>81.666666666666671</v>
+      </c>
+      <c r="F111">
+        <v>87.5</v>
+      </c>
       <c r="G111"/>
-      <c r="H111"/>
-      <c r="I111"/>
-      <c r="J111"/>
+      <c r="H111">
+        <v>16</v>
+      </c>
+      <c r="I111">
+        <v>15</v>
+      </c>
+      <c r="J111">
+        <v>14</v>
+      </c>
     </row>
     <row r="112">
-      <c r="A112" t="s">
-        <v>66</v>
-      </c>
-      <c r="B112"/>
-      <c r="C112"/>
+      <c r="A112">
+        <v>25</v>
+      </c>
+      <c r="B112">
+        <v>370</v>
+      </c>
+      <c r="C112" t="s">
+        <v>79</v>
+      </c>
       <c r="D112">
-        <v>166.33674957983186</v>
+        <v>12.499999999999998</v>
       </c>
       <c r="E112">
-        <v>253.93338823529405</v>
+        <v>25.833333333333332</v>
       </c>
       <c r="F112">
-        <v>249.78212773109237</v>
+        <v>28.333333333333329</v>
       </c>
       <c r="G112"/>
       <c r="H112">
-        <v>17.117647058823529</v>
+        <v>15</v>
       </c>
       <c r="I112">
-        <v>16.617647058823529</v>
+        <v>14</v>
       </c>
       <c r="J112">
-        <v>16.147058823529413</v>
+        <v>16</v>
       </c>
     </row>
     <row r="113">
-      <c r="A113" t="s">
-        <v>67</v>
-      </c>
-      <c r="B113"/>
-      <c r="C113"/>
+      <c r="A113">
+        <v>26</v>
+      </c>
+      <c r="B113">
+        <v>371</v>
+      </c>
+      <c r="C113" t="s">
+        <v>79</v>
+      </c>
       <c r="D113">
-        <v>29.26994758535788</v>
+        <v>121.66666666666666</v>
       </c>
       <c r="E113">
-        <v>35.478067368921806</v>
+        <v>75.833333333333329</v>
       </c>
       <c r="F113">
-        <v>36.298839150030155</v>
+        <v>32.5</v>
       </c>
       <c r="G113"/>
       <c r="H113">
-        <v>0.52861893496158086</v>
+        <v>11</v>
       </c>
       <c r="I113">
-        <v>0.43675742865313127</v>
+        <v>13.000000000000002</v>
       </c>
       <c r="J113">
-        <v>0.42247963581206366</v>
+        <v>13.000000000000002</v>
       </c>
     </row>
     <row r="114">
-      <c r="A114"/>
-      <c r="B114"/>
-      <c r="C114"/>
-      <c r="D114"/>
-      <c r="E114"/>
-      <c r="F114"/>
+      <c r="A114">
+        <v>27</v>
+      </c>
+      <c r="B114">
+        <v>377</v>
+      </c>
+      <c r="C114" t="s">
+        <v>80</v>
+      </c>
+      <c r="D114">
+        <v>11.666666666666664</v>
+      </c>
+      <c r="E114">
+        <v>56.666666666666657</v>
+      </c>
+      <c r="F114">
+        <v>49.166666666666664</v>
+      </c>
       <c r="G114"/>
-      <c r="H114"/>
-      <c r="I114"/>
-      <c r="J114"/>
+      <c r="H114">
+        <v>15</v>
+      </c>
+      <c r="I114">
+        <v>15</v>
+      </c>
+      <c r="J114">
+        <v>14</v>
+      </c>
     </row>
     <row r="115">
-      <c r="A115"/>
-      <c r="B115"/>
-      <c r="C115"/>
-      <c r="D115"/>
-      <c r="E115"/>
-      <c r="F115"/>
+      <c r="A115">
+        <v>28</v>
+      </c>
+      <c r="B115">
+        <v>437</v>
+      </c>
+      <c r="C115" t="s">
+        <v>87</v>
+      </c>
+      <c r="D115">
+        <v>7.9166666666666661</v>
+      </c>
+      <c r="E115">
+        <v>12.499999999999998</v>
+      </c>
+      <c r="F115">
+        <v>7.0833333333333321</v>
+      </c>
       <c r="G115"/>
-      <c r="H115"/>
-      <c r="I115"/>
-      <c r="J115"/>
+      <c r="H115">
+        <v>19</v>
+      </c>
+      <c r="I115">
+        <v>17</v>
+      </c>
+      <c r="J115">
+        <v>17</v>
+      </c>
     </row>
     <row r="116">
-      <c r="A116" t="s">
-        <v>70</v>
-      </c>
-      <c r="B116"/>
-      <c r="C116"/>
-      <c r="D116"/>
-      <c r="E116"/>
-      <c r="F116"/>
+      <c r="A116">
+        <v>29</v>
+      </c>
+      <c r="B116">
+        <v>461</v>
+      </c>
+      <c r="C116" t="s">
+        <v>81</v>
+      </c>
+      <c r="D116">
+        <v>11.25</v>
+      </c>
+      <c r="E116">
+        <v>4.583333333333333</v>
+      </c>
+      <c r="F116">
+        <v>14.583333333333332</v>
+      </c>
       <c r="G116"/>
-      <c r="H116"/>
-      <c r="I116"/>
-      <c r="J116"/>
+      <c r="H116">
+        <v>16</v>
+      </c>
+      <c r="I116">
+        <v>17</v>
+      </c>
+      <c r="J116">
+        <v>15</v>
+      </c>
     </row>
     <row r="117">
-      <c r="A117"/>
-      <c r="B117"/>
-      <c r="C117"/>
-      <c r="D117"/>
-      <c r="E117"/>
-      <c r="F117"/>
+      <c r="A117">
+        <v>30</v>
+      </c>
+      <c r="B117">
+        <v>478</v>
+      </c>
+      <c r="C117" t="s">
+        <v>81</v>
+      </c>
+      <c r="D117">
+        <v>8.75</v>
+      </c>
+      <c r="E117">
+        <v>9.9999999999999982</v>
+      </c>
+      <c r="F117">
+        <v>15.833333333333332</v>
+      </c>
       <c r="G117"/>
-      <c r="H117"/>
-      <c r="I117"/>
-      <c r="J117"/>
+      <c r="H117">
+        <v>16</v>
+      </c>
+      <c r="I117">
+        <v>22</v>
+      </c>
+      <c r="J117">
+        <v>20</v>
+      </c>
     </row>
     <row r="118">
-      <c r="A118" t="s">
-        <v>71</v>
-      </c>
-      <c r="B118"/>
-      <c r="C118"/>
-      <c r="D118"/>
-      <c r="E118"/>
-      <c r="F118"/>
+      <c r="A118">
+        <v>31</v>
+      </c>
+      <c r="B118">
+        <v>494</v>
+      </c>
+      <c r="C118" t="s">
+        <v>81</v>
+      </c>
+      <c r="D118">
+        <v>84.999999999999986</v>
+      </c>
+      <c r="E118">
+        <v>55.833333333333329</v>
+      </c>
+      <c r="F118">
+        <v>61.666666666666664</v>
+      </c>
       <c r="G118"/>
-      <c r="H118"/>
-      <c r="I118"/>
-      <c r="J118"/>
+      <c r="H118">
+        <v>14</v>
+      </c>
+      <c r="I118">
+        <v>16</v>
+      </c>
+      <c r="J118">
+        <v>18.000000000000004</v>
+      </c>
     </row>
     <row r="119">
-      <c r="A119" t="s">
-        <v>65</v>
-      </c>
-      <c r="B119" t="s">
-        <v>74</v>
+      <c r="A119">
+        <v>32</v>
+      </c>
+      <c r="B119">
+        <v>499</v>
       </c>
       <c r="C119" t="s">
-        <v>75</v>
-      </c>
-      <c r="D119" t="s">
-        <v>95</v>
-      </c>
-      <c r="E119" t="s">
-        <v>96</v>
-      </c>
-      <c r="F119" t="s">
-        <v>97</v>
+        <v>81</v>
+      </c>
+      <c r="D119">
+        <v>16.25</v>
+      </c>
+      <c r="E119">
+        <v>39.166666666666664</v>
+      </c>
+      <c r="F119">
+        <v>48.749999999999993</v>
       </c>
       <c r="G119"/>
-      <c r="H119" t="s">
-        <v>98</v>
-      </c>
-      <c r="I119" t="s">
-        <v>99</v>
-      </c>
-      <c r="J119" t="s">
-        <v>100</v>
+      <c r="H119">
+        <v>18.000000000000004</v>
+      </c>
+      <c r="I119">
+        <v>17</v>
+      </c>
+      <c r="J119">
+        <v>15</v>
       </c>
     </row>
     <row r="120">
       <c r="A120">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="B120">
-        <v>283</v>
+        <v>508</v>
       </c>
       <c r="C120" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="D120">
-        <v>74.37439999999998</v>
+        <v>34.166666666666664</v>
       </c>
       <c r="E120">
-        <v>17.802971428571421</v>
+        <v>60.416666666666664</v>
       </c>
       <c r="F120">
-        <v>8.0886857142857114</v>
+        <v>62.083333333333329</v>
       </c>
       <c r="G120"/>
       <c r="H120">
         <v>12</v>
       </c>
-      <c r="I120"/>
-      <c r="J120"/>
+      <c r="I120">
+        <v>15</v>
+      </c>
+      <c r="J120">
+        <v>14</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121">
-        <v>2</v>
+        <v>34</v>
       </c>
       <c r="B121">
-        <v>288</v>
+        <v>534</v>
       </c>
       <c r="C121" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="D121">
-        <v>136.69439999999997</v>
+        <v>70.416666666666657</v>
       </c>
       <c r="E121">
-        <v>16.122971428571415</v>
+        <v>52.916666666666657</v>
       </c>
       <c r="F121">
-        <v>4.1229714285714136</v>
+        <v>46.666666666666657</v>
       </c>
       <c r="G121"/>
       <c r="H121">
-        <v>12</v>
-      </c>
-      <c r="I121"/>
-      <c r="J121"/>
+        <v>13.000000000000002</v>
+      </c>
+      <c r="I121">
+        <v>14</v>
+      </c>
+      <c r="J121">
+        <v>14</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122">
-        <v>3</v>
+        <v>35</v>
       </c>
       <c r="B122">
-        <v>528</v>
+        <v>537</v>
       </c>
       <c r="C122" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D122">
-        <v>44.449714285714279</v>
+        <v>56.249999999999993</v>
       </c>
       <c r="E122">
-        <v>22.735428571428567</v>
+        <v>59.166666666666657</v>
       </c>
       <c r="F122">
-        <v>70.163999999999987</v>
+        <v>58.333333333333329</v>
       </c>
       <c r="G122"/>
       <c r="H122">
-        <v>16</v>
-      </c>
-      <c r="I122"/>
+        <v>15</v>
+      </c>
+      <c r="I122">
+        <v>14</v>
+      </c>
       <c r="J122">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="123">
       <c r="A123">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="B123">
-        <v>565</v>
+        <v>597</v>
       </c>
       <c r="C123" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="D123">
-        <v>190.62971428571427</v>
+        <v>12.499999999999998</v>
       </c>
       <c r="E123">
-        <v>86.058285714285688</v>
+        <v>63.333333333333329</v>
       </c>
       <c r="F123">
-        <v>78.058285714285716</v>
+        <v>61.666666666666664</v>
       </c>
       <c r="G123"/>
       <c r="H123">
-        <v>13.000000000000002</v>
-      </c>
-      <c r="I123"/>
-      <c r="J123"/>
+        <v>19</v>
+      </c>
+      <c r="I123">
+        <v>15</v>
+      </c>
+      <c r="J123">
+        <v>15</v>
+      </c>
     </row>
     <row r="124">
-      <c r="A124">
-        <v>5</v>
-      </c>
-      <c r="B124">
-        <v>813</v>
-      </c>
-      <c r="C124" t="s">
-        <v>90</v>
-      </c>
-      <c r="D124">
-        <v>134.88102857142857</v>
-      </c>
-      <c r="E124">
-        <v>42.881028571428558</v>
-      </c>
-      <c r="F124">
-        <v>30.881028571428562</v>
-      </c>
+      <c r="A124"/>
+      <c r="B124"/>
+      <c r="C124"/>
+      <c r="D124"/>
+      <c r="E124"/>
+      <c r="F124"/>
       <c r="G124"/>
-      <c r="H124">
-        <v>13.000000000000002</v>
-      </c>
+      <c r="H124"/>
       <c r="I124"/>
       <c r="J124"/>
     </row>
     <row r="125">
-      <c r="A125">
-        <v>6</v>
-      </c>
-      <c r="B125">
-        <v>820</v>
-      </c>
-      <c r="C125" t="s">
-        <v>90</v>
-      </c>
+      <c r="A125" t="s">
+        <v>66</v>
+      </c>
+      <c r="B125"/>
+      <c r="C125"/>
       <c r="D125">
-        <v>106.75142857142856</v>
+        <v>40.587962962962969</v>
       </c>
       <c r="E125">
-        <v>76.465714285714256</v>
+        <v>54.201388888888893</v>
       </c>
       <c r="F125">
-        <v>13.037142857142848</v>
+        <v>55.597222222222214</v>
       </c>
       <c r="G125"/>
       <c r="H125">
-        <v>16</v>
-      </c>
-      <c r="I125"/>
-      <c r="J125"/>
+        <v>17.083333333333332</v>
+      </c>
+      <c r="I125">
+        <v>16.555555555555557</v>
+      </c>
+      <c r="J125">
+        <v>16.055555555555557</v>
+      </c>
     </row>
     <row r="126">
-      <c r="A126">
-        <v>7</v>
-      </c>
-      <c r="B126">
-        <v>821</v>
-      </c>
-      <c r="C126" t="s">
-        <v>90</v>
-      </c>
+      <c r="A126" t="s">
+        <v>67</v>
+      </c>
+      <c r="B126"/>
+      <c r="C126"/>
       <c r="D126">
-        <v>97.438171428571394</v>
+        <v>6.2318793260422121</v>
       </c>
       <c r="E126">
-        <v>1.43817142857141</v>
+        <v>7.527190845009561</v>
       </c>
       <c r="F126">
-        <v>1.43817142857141</v>
+        <v>7.6645280402230282</v>
       </c>
       <c r="G126"/>
       <c r="H126">
-        <v>17</v>
-      </c>
-      <c r="I126"/>
-      <c r="J126"/>
+        <v>0.50924001887655768</v>
+      </c>
+      <c r="I126">
+        <v>0.41869874847592814</v>
+      </c>
+      <c r="J126">
+        <v>0.40423245796267621</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127"/>
@@ -5477,52 +5552,30 @@
       <c r="J127"/>
     </row>
     <row r="128">
-      <c r="A128" t="s">
-        <v>66</v>
-      </c>
+      <c r="A128"/>
       <c r="B128"/>
       <c r="C128"/>
-      <c r="D128">
-        <v>112.17412244897959</v>
-      </c>
-      <c r="E128">
-        <v>37.643510204081622</v>
-      </c>
-      <c r="F128">
-        <v>29.398612244897951</v>
-      </c>
+      <c r="D128"/>
+      <c r="E128"/>
+      <c r="F128"/>
       <c r="G128"/>
-      <c r="H128">
-        <v>14.142857142857142</v>
-      </c>
+      <c r="H128"/>
       <c r="I128"/>
-      <c r="J128">
-        <v>16</v>
-      </c>
+      <c r="J128"/>
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B129"/>
       <c r="C129"/>
-      <c r="D129">
-        <v>17.951055033946798</v>
-      </c>
-      <c r="E129">
-        <v>12.216736800305824</v>
-      </c>
-      <c r="F129">
-        <v>12.124584566002582</v>
-      </c>
+      <c r="D129"/>
+      <c r="E129"/>
+      <c r="F129"/>
       <c r="G129"/>
-      <c r="H129">
-        <v>0.79965979160698386</v>
-      </c>
+      <c r="H129"/>
       <c r="I129"/>
-      <c r="J129">
-        <v>0</v>
-      </c>
+      <c r="J129"/>
     </row>
     <row r="130">
       <c r="A130"/>
@@ -5538,7 +5591,7 @@
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B131"/>
       <c r="C131"/>
@@ -5585,85 +5638,79 @@
         <v>1</v>
       </c>
       <c r="B133">
-        <v>254</v>
+        <v>283</v>
       </c>
       <c r="C133" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D133">
-        <v>63.309714285714257</v>
+        <v>27.999999999999996</v>
       </c>
       <c r="E133">
-        <v>150.16685714285708</v>
+        <v>6.6666666666666661</v>
       </c>
       <c r="F133">
-        <v>78.738285714285681</v>
+        <v>3.9999999999999996</v>
       </c>
       <c r="G133"/>
-      <c r="H133"/>
-      <c r="I133">
-        <v>15</v>
-      </c>
-      <c r="J133">
-        <v>14</v>
-      </c>
+      <c r="H133">
+        <v>12</v>
+      </c>
+      <c r="I133"/>
+      <c r="J133"/>
     </row>
     <row r="134">
       <c r="A134">
         <v>2</v>
       </c>
       <c r="B134">
-        <v>262</v>
+        <v>288</v>
       </c>
       <c r="C134" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D134">
-        <v>10.099885714285705</v>
+        <v>47.999999999999993</v>
       </c>
       <c r="E134">
-        <v>98.099885714285691</v>
+        <v>5.333333333333333</v>
       </c>
       <c r="F134">
-        <v>99.242742857142829</v>
+        <v>2.6666666666666665</v>
       </c>
       <c r="G134"/>
-      <c r="H134"/>
-      <c r="I134">
-        <v>21</v>
-      </c>
-      <c r="J134">
-        <v>20</v>
-      </c>
+      <c r="H134">
+        <v>10</v>
+      </c>
+      <c r="I134"/>
+      <c r="J134"/>
     </row>
     <row r="135">
       <c r="A135">
         <v>3</v>
       </c>
       <c r="B135">
-        <v>278</v>
+        <v>414</v>
       </c>
       <c r="C135" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D135">
-        <v>9.7022857142857113</v>
+        <v>4.1666666666666661</v>
       </c>
       <c r="E135">
-        <v>333.13085714285705</v>
+        <v>1.6666666666666665</v>
       </c>
       <c r="F135">
-        <v>206.27371428571425</v>
+        <v>9.9999999999999982</v>
       </c>
       <c r="G135"/>
       <c r="H135">
-        <v>16</v>
-      </c>
-      <c r="I135">
-        <v>14</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="I135"/>
       <c r="J135">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="136">
@@ -5671,27 +5718,27 @@
         <v>4</v>
       </c>
       <c r="B136">
-        <v>338</v>
+        <v>520</v>
       </c>
       <c r="C136" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="D136">
-        <v>8.3382857142857105</v>
+        <v>6.6666666666666661</v>
       </c>
       <c r="E136">
-        <v>71.76685714285712</v>
+        <v>0.83333333333333326</v>
       </c>
       <c r="F136">
-        <v>108.33828571428569</v>
+        <v>1.6666666666666665</v>
       </c>
       <c r="G136"/>
-      <c r="H136"/>
-      <c r="I136">
-        <v>16</v>
-      </c>
+      <c r="H136">
+        <v>22</v>
+      </c>
+      <c r="I136"/>
       <c r="J136">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="137">
@@ -5699,27 +5746,27 @@
         <v>5</v>
       </c>
       <c r="B137">
-        <v>344</v>
+        <v>528</v>
       </c>
       <c r="C137" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="D137">
-        <v>59.990171428571408</v>
+        <v>9.1666666666666661</v>
       </c>
       <c r="E137">
-        <v>153.70445714285711</v>
+        <v>3.75</v>
       </c>
       <c r="F137">
-        <v>132.56159999999997</v>
+        <v>12.083333333333332</v>
       </c>
       <c r="G137"/>
-      <c r="H137"/>
-      <c r="I137">
-        <v>17</v>
-      </c>
+      <c r="H137">
+        <v>16</v>
+      </c>
+      <c r="I137"/>
       <c r="J137">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="138">
@@ -5727,628 +5774,608 @@
         <v>6</v>
       </c>
       <c r="B138">
-        <v>407</v>
+        <v>565</v>
       </c>
       <c r="C138" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="D138">
-        <v>45.779085714285699</v>
+        <v>20.416666666666668</v>
       </c>
       <c r="E138">
-        <v>217.77908571428563</v>
+        <v>18.75</v>
       </c>
       <c r="F138">
-        <v>191.49337142857138</v>
+        <v>17.916666666666664</v>
       </c>
       <c r="G138"/>
-      <c r="H138"/>
-      <c r="I138">
-        <v>15</v>
-      </c>
-      <c r="J138">
-        <v>14</v>
-      </c>
+      <c r="H138">
+        <v>13.000000000000002</v>
+      </c>
+      <c r="I138"/>
+      <c r="J138"/>
     </row>
     <row r="139">
       <c r="A139">
         <v>7</v>
       </c>
       <c r="B139">
-        <v>408</v>
+        <v>813</v>
       </c>
       <c r="C139" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D139">
-        <v>19.72342857142857</v>
+        <v>52.499999999999993</v>
       </c>
       <c r="E139">
-        <v>31.723428571428567</v>
+        <v>11.666666666666664</v>
       </c>
       <c r="F139">
-        <v>60.866285714285702</v>
+        <v>8.3333333333333321</v>
       </c>
       <c r="G139"/>
-      <c r="H139"/>
-      <c r="I139">
-        <v>22</v>
-      </c>
-      <c r="J139">
-        <v>19</v>
-      </c>
+      <c r="H139">
+        <v>13.000000000000002</v>
+      </c>
+      <c r="I139"/>
+      <c r="J139"/>
     </row>
     <row r="140">
       <c r="A140">
         <v>8</v>
       </c>
       <c r="B140">
-        <v>422</v>
+        <v>820</v>
       </c>
       <c r="C140" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D140">
-        <v>36.98685714285714</v>
+        <v>23.333333333333329</v>
       </c>
       <c r="E140">
-        <v>148.9868571428571</v>
+        <v>15.833333333333332</v>
       </c>
       <c r="F140">
-        <v>184.41542857142852</v>
+        <v>4.1666666666666661</v>
       </c>
       <c r="G140"/>
       <c r="H140">
-        <v>15</v>
-      </c>
-      <c r="I140">
-        <v>17</v>
-      </c>
-      <c r="J140">
-        <v>18.000000000000004</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="I140"/>
+      <c r="J140"/>
     </row>
     <row r="141">
       <c r="A141">
         <v>9</v>
       </c>
       <c r="B141">
-        <v>523</v>
+        <v>821</v>
       </c>
       <c r="C141" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="D141">
-        <v>93.2525714285714</v>
+        <v>15.833333333333332</v>
       </c>
       <c r="E141">
-        <v>352.68114285714273</v>
+        <v>0.83333333333333326</v>
       </c>
       <c r="F141">
-        <v>258.39542857142851</v>
+        <v>0.83333333333333326</v>
       </c>
       <c r="G141"/>
-      <c r="H141"/>
-      <c r="I141">
-        <v>13.000000000000002</v>
-      </c>
-      <c r="J141">
-        <v>13.000000000000002</v>
-      </c>
+      <c r="H141">
+        <v>17</v>
+      </c>
+      <c r="I141"/>
+      <c r="J141"/>
     </row>
     <row r="142">
-      <c r="A142">
-        <v>10</v>
-      </c>
-      <c r="B142">
-        <v>530</v>
-      </c>
-      <c r="C142" t="s">
-        <v>81</v>
-      </c>
-      <c r="D142">
-        <v>28.979542857142853</v>
-      </c>
-      <c r="E142">
-        <v>366.12239999999986</v>
-      </c>
-      <c r="F142">
-        <v>222.12239999999997</v>
-      </c>
+      <c r="A142"/>
+      <c r="B142"/>
+      <c r="C142"/>
+      <c r="D142"/>
+      <c r="E142"/>
+      <c r="F142"/>
       <c r="G142"/>
       <c r="H142"/>
-      <c r="I142">
-        <v>18.000000000000004</v>
-      </c>
-      <c r="J142">
-        <v>18.000000000000004</v>
-      </c>
+      <c r="I142"/>
+      <c r="J142"/>
     </row>
     <row r="143">
-      <c r="A143">
-        <v>11</v>
-      </c>
-      <c r="B143">
-        <v>549</v>
-      </c>
-      <c r="C143" t="s">
-        <v>81</v>
-      </c>
+      <c r="A143" t="s">
+        <v>66</v>
+      </c>
+      <c r="B143"/>
+      <c r="C143"/>
       <c r="D143">
-        <v>37.065485714285721</v>
+        <v>23.12037037037037</v>
       </c>
       <c r="E143">
-        <v>131.35119999999995</v>
+        <v>7.2592592592592586</v>
       </c>
       <c r="F143">
-        <v>66.208342857142853</v>
+        <v>6.8518518518518512</v>
       </c>
       <c r="G143"/>
-      <c r="H143"/>
-      <c r="I143">
-        <v>13.000000000000002</v>
-      </c>
-      <c r="J143"/>
+      <c r="H143">
+        <v>14.666666666666666</v>
+      </c>
+      <c r="I143"/>
+      <c r="J143">
+        <v>18.333333333333332</v>
+      </c>
     </row>
     <row r="144">
-      <c r="A144">
-        <v>12</v>
-      </c>
-      <c r="B144">
-        <v>580</v>
-      </c>
-      <c r="C144" t="s">
-        <v>81</v>
-      </c>
+      <c r="A144" t="s">
+        <v>67</v>
+      </c>
+      <c r="B144"/>
+      <c r="C144"/>
       <c r="D144">
-        <v>0.57371428571427963</v>
+        <v>5.7627862250343638</v>
       </c>
       <c r="E144">
-        <v>124.57371428571423</v>
+        <v>2.2211561872043362</v>
       </c>
       <c r="F144">
-        <v>158.28799999999995</v>
+        <v>1.8924994994137265</v>
       </c>
       <c r="G144"/>
-      <c r="H144"/>
-      <c r="I144">
-        <v>19</v>
-      </c>
+      <c r="H144">
+        <v>1.3743685418725535</v>
+      </c>
+      <c r="I144"/>
       <c r="J144">
-        <v>19</v>
+        <v>1.2018504251546633</v>
       </c>
     </row>
     <row r="145">
-      <c r="A145">
-        <v>13</v>
-      </c>
-      <c r="B145">
-        <v>590</v>
-      </c>
-      <c r="C145" t="s">
-        <v>81</v>
-      </c>
-      <c r="D145">
-        <v>15.015428571428568</v>
-      </c>
-      <c r="E145">
-        <v>33.301142857142857</v>
-      </c>
-      <c r="F145">
-        <v>27.015428571428576</v>
-      </c>
+      <c r="A145"/>
+      <c r="B145"/>
+      <c r="C145"/>
+      <c r="D145"/>
+      <c r="E145"/>
+      <c r="F145"/>
       <c r="G145"/>
       <c r="H145"/>
-      <c r="I145">
-        <v>18.000000000000004</v>
-      </c>
-      <c r="J145">
-        <v>24</v>
-      </c>
+      <c r="I145"/>
+      <c r="J145"/>
     </row>
     <row r="146">
-      <c r="A146">
-        <v>14</v>
-      </c>
-      <c r="B146">
-        <v>717</v>
-      </c>
-      <c r="C146" t="s">
-        <v>94</v>
-      </c>
-      <c r="D146">
-        <v>48.197828571428545</v>
-      </c>
-      <c r="E146">
-        <v>279.05497142857138</v>
-      </c>
-      <c r="F146">
-        <v>316.19782857142849</v>
-      </c>
+      <c r="A146" t="s">
+        <v>72</v>
+      </c>
+      <c r="B146"/>
+      <c r="C146"/>
+      <c r="D146"/>
+      <c r="E146"/>
+      <c r="F146"/>
       <c r="G146"/>
       <c r="H146"/>
-      <c r="I146">
-        <v>17</v>
-      </c>
-      <c r="J146">
-        <v>16</v>
-      </c>
+      <c r="I146"/>
+      <c r="J146"/>
     </row>
     <row r="147">
-      <c r="A147">
-        <v>15</v>
-      </c>
-      <c r="B147">
-        <v>728</v>
+      <c r="A147" t="s">
+        <v>65</v>
+      </c>
+      <c r="B147" t="s">
+        <v>74</v>
       </c>
       <c r="C147" t="s">
-        <v>94</v>
-      </c>
-      <c r="D147">
-        <v>20.382400000000001</v>
-      </c>
-      <c r="E147">
-        <v>102.0966857142857</v>
-      </c>
-      <c r="F147">
-        <v>126.09668571428567</v>
+        <v>75</v>
+      </c>
+      <c r="D147" t="s">
+        <v>95</v>
+      </c>
+      <c r="E147" t="s">
+        <v>96</v>
+      </c>
+      <c r="F147" t="s">
+        <v>97</v>
       </c>
       <c r="G147"/>
-      <c r="H147">
-        <v>12</v>
-      </c>
-      <c r="I147">
-        <v>14</v>
-      </c>
-      <c r="J147">
-        <v>13.000000000000002</v>
+      <c r="H147" t="s">
+        <v>98</v>
+      </c>
+      <c r="I147" t="s">
+        <v>99</v>
+      </c>
+      <c r="J147" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="148">
       <c r="A148">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="B148">
-        <v>735</v>
+        <v>254</v>
       </c>
       <c r="C148" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D148">
-        <v>22.585142857142849</v>
+        <v>33.333333333333329</v>
       </c>
       <c r="E148">
-        <v>56.870857142857126</v>
+        <v>46.666666666666657</v>
       </c>
       <c r="F148">
-        <v>116.87085714285712</v>
+        <v>33.333333333333329</v>
       </c>
       <c r="G148"/>
       <c r="H148"/>
       <c r="I148">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="J148">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="149">
       <c r="A149">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="B149">
-        <v>737</v>
+        <v>262</v>
       </c>
       <c r="C149" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D149">
-        <v>63.072571428571401</v>
+        <v>9.3333333333333339</v>
       </c>
       <c r="E149">
-        <v>241.92971428571417</v>
+        <v>41.333333333333329</v>
       </c>
       <c r="F149">
-        <v>195.07257142857134</v>
+        <v>30.666666666666664</v>
       </c>
       <c r="G149"/>
       <c r="H149"/>
       <c r="I149">
+        <v>21</v>
+      </c>
+      <c r="J149">
         <v>20</v>
-      </c>
-      <c r="J149">
-        <v>19</v>
       </c>
     </row>
     <row r="150">
       <c r="A150">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="B150">
-        <v>823</v>
+        <v>278</v>
       </c>
       <c r="C150" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D150">
-        <v>43.686399999999978</v>
+        <v>1.3333333333333333</v>
       </c>
       <c r="E150">
-        <v>56.257828571428547</v>
+        <v>153.33333333333331</v>
       </c>
       <c r="F150">
-        <v>4.2578285714285613</v>
+        <v>106.66666666666666</v>
       </c>
       <c r="G150"/>
-      <c r="H150"/>
+      <c r="H150">
+        <v>16</v>
+      </c>
       <c r="I150">
-        <v>16</v>
-      </c>
-      <c r="J150"/>
+        <v>14</v>
+      </c>
+      <c r="J150">
+        <v>14</v>
+      </c>
     </row>
     <row r="151">
-      <c r="A151"/>
-      <c r="B151"/>
-      <c r="C151"/>
-      <c r="D151"/>
-      <c r="E151"/>
-      <c r="F151"/>
+      <c r="A151">
+        <v>4</v>
+      </c>
+      <c r="B151">
+        <v>338</v>
+      </c>
+      <c r="C151" t="s">
+        <v>93</v>
+      </c>
+      <c r="D151">
+        <v>0.83333333333333326</v>
+      </c>
+      <c r="E151">
+        <v>18.333333333333332</v>
+      </c>
+      <c r="F151">
+        <v>15.833333333333332</v>
+      </c>
       <c r="G151"/>
       <c r="H151"/>
-      <c r="I151"/>
-      <c r="J151"/>
+      <c r="I151">
+        <v>16</v>
+      </c>
+      <c r="J151">
+        <v>15</v>
+      </c>
     </row>
     <row r="152">
-      <c r="A152" t="s">
-        <v>66</v>
-      </c>
-      <c r="B152"/>
-      <c r="C152"/>
+      <c r="A152">
+        <v>5</v>
+      </c>
+      <c r="B152">
+        <v>344</v>
+      </c>
+      <c r="C152" t="s">
+        <v>93</v>
+      </c>
       <c r="D152">
-        <v>34.81893333333332</v>
+        <v>15</v>
       </c>
       <c r="E152">
-        <v>163.86655238095233</v>
+        <v>40.833333333333336</v>
       </c>
       <c r="F152">
-        <v>141.80306031746031</v>
+        <v>44.166666666666664</v>
       </c>
       <c r="G152"/>
-      <c r="H152">
-        <v>14.333333333333334</v>
-      </c>
+      <c r="H152"/>
       <c r="I152">
-        <v>16.888888888888889</v>
+        <v>17</v>
       </c>
       <c r="J152">
-        <v>16.6875</v>
+        <v>14</v>
       </c>
     </row>
     <row r="153">
-      <c r="A153" t="s">
-        <v>67</v>
-      </c>
-      <c r="B153"/>
-      <c r="C153"/>
+      <c r="A153">
+        <v>6</v>
+      </c>
+      <c r="B153">
+        <v>345</v>
+      </c>
+      <c r="C153" t="s">
+        <v>93</v>
+      </c>
       <c r="D153">
-        <v>5.7660376757672447</v>
+        <v>0</v>
       </c>
       <c r="E153">
-        <v>25.867376396022223</v>
+        <v>4.9999999999999991</v>
       </c>
       <c r="F153">
-        <v>19.321131473203423</v>
+        <v>3.333333333333333</v>
       </c>
       <c r="G153"/>
-      <c r="H153">
-        <v>1.2018504251546633</v>
-      </c>
+      <c r="H153"/>
       <c r="I153">
-        <v>0.62564418508654507</v>
+        <v>16</v>
       </c>
       <c r="J153">
-        <v>0.7730823048033113</v>
+        <v>16</v>
       </c>
     </row>
     <row r="154">
-      <c r="A154"/>
-      <c r="B154"/>
-      <c r="C154"/>
-      <c r="D154"/>
-      <c r="E154"/>
-      <c r="F154"/>
+      <c r="A154">
+        <v>7</v>
+      </c>
+      <c r="B154">
+        <v>407</v>
+      </c>
+      <c r="C154" t="s">
+        <v>90</v>
+      </c>
+      <c r="D154">
+        <v>8.3333333333333321</v>
+      </c>
+      <c r="E154">
+        <v>28.333333333333329</v>
+      </c>
+      <c r="F154">
+        <v>28.333333333333329</v>
+      </c>
       <c r="G154"/>
       <c r="H154"/>
-      <c r="I154"/>
-      <c r="J154"/>
+      <c r="I154">
+        <v>15</v>
+      </c>
+      <c r="J154">
+        <v>14</v>
+      </c>
     </row>
     <row r="155">
-      <c r="A155" t="s">
-        <v>73</v>
-      </c>
-      <c r="B155"/>
-      <c r="C155"/>
-      <c r="D155"/>
-      <c r="E155"/>
-      <c r="F155"/>
+      <c r="A155">
+        <v>8</v>
+      </c>
+      <c r="B155">
+        <v>408</v>
+      </c>
+      <c r="C155" t="s">
+        <v>90</v>
+      </c>
+      <c r="D155">
+        <v>5.8333333333333321</v>
+      </c>
+      <c r="E155">
+        <v>6.6666666666666661</v>
+      </c>
+      <c r="F155">
+        <v>13.333333333333332</v>
+      </c>
       <c r="G155"/>
       <c r="H155"/>
-      <c r="I155"/>
-      <c r="J155"/>
+      <c r="I155">
+        <v>22</v>
+      </c>
+      <c r="J155">
+        <v>19</v>
+      </c>
     </row>
     <row r="156">
-      <c r="A156" t="s">
+      <c r="A156">
+        <v>9</v>
+      </c>
+      <c r="B156">
+        <v>523</v>
+      </c>
+      <c r="C156" t="s">
+        <v>82</v>
+      </c>
+      <c r="D156">
+        <v>17.916666666666664</v>
+      </c>
+      <c r="E156">
         <v>65</v>
       </c>
-      <c r="B156" t="s">
-        <v>74</v>
-      </c>
-      <c r="C156" t="s">
-        <v>75</v>
-      </c>
-      <c r="D156" t="s">
-        <v>95</v>
-      </c>
-      <c r="E156" t="s">
-        <v>96</v>
-      </c>
-      <c r="F156" t="s">
-        <v>97</v>
+      <c r="F156">
+        <v>65.416666666666657</v>
       </c>
       <c r="G156"/>
-      <c r="H156" t="s">
-        <v>98</v>
-      </c>
-      <c r="I156" t="s">
-        <v>99</v>
-      </c>
-      <c r="J156" t="s">
-        <v>100</v>
+      <c r="H156"/>
+      <c r="I156">
+        <v>13.000000000000002</v>
+      </c>
+      <c r="J156">
+        <v>13.000000000000002</v>
       </c>
     </row>
     <row r="157">
       <c r="A157">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="B157">
-        <v>251</v>
+        <v>530</v>
       </c>
       <c r="C157" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="D157">
-        <v>89.192342857142847</v>
+        <v>2.083333333333333</v>
       </c>
       <c r="E157">
-        <v>158.33519999999999</v>
+        <v>22.083333333333332</v>
       </c>
       <c r="F157">
-        <v>157.7637714285714</v>
+        <v>19.166666666666664</v>
       </c>
       <c r="G157"/>
-      <c r="H157">
-        <v>14</v>
-      </c>
+      <c r="H157"/>
       <c r="I157">
-        <v>14</v>
+        <v>18.000000000000004</v>
       </c>
       <c r="J157">
-        <v>14</v>
+        <v>18.000000000000004</v>
       </c>
     </row>
     <row r="158">
       <c r="A158">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="B158">
-        <v>252</v>
+        <v>549</v>
       </c>
       <c r="C158" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="D158">
-        <v>252.76937142857139</v>
+        <v>4.9999999999999991</v>
       </c>
       <c r="E158">
-        <v>108.19794285714282</v>
+        <v>10.416666666666666</v>
       </c>
       <c r="F158">
-        <v>92.197942857142849</v>
+        <v>8.75</v>
       </c>
       <c r="G158"/>
-      <c r="H158">
-        <v>12</v>
-      </c>
+      <c r="H158"/>
       <c r="I158">
         <v>13.000000000000002</v>
       </c>
-      <c r="J158">
-        <v>13.000000000000002</v>
-      </c>
+      <c r="J158"/>
     </row>
     <row r="159">
       <c r="A159">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="B159">
-        <v>253</v>
+        <v>580</v>
       </c>
       <c r="C159" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="D159">
-        <v>167.99199999999999</v>
+        <v>1.2499999999999998</v>
       </c>
       <c r="E159">
-        <v>135.42057142857141</v>
+        <v>15</v>
       </c>
       <c r="F159">
-        <v>33.706285714285713</v>
+        <v>13.749999999999998</v>
       </c>
       <c r="G159"/>
-      <c r="H159">
-        <v>12</v>
-      </c>
+      <c r="H159"/>
       <c r="I159">
-        <v>14</v>
-      </c>
-      <c r="J159"/>
+        <v>19</v>
+      </c>
+      <c r="J159">
+        <v>19</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="B160">
-        <v>274</v>
+        <v>590</v>
       </c>
       <c r="C160" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="D160">
-        <v>152.54285714285709</v>
+        <v>1.2499999999999998</v>
       </c>
       <c r="E160">
-        <v>122.25714285714285</v>
+        <v>7.9166666666666661</v>
       </c>
       <c r="F160">
-        <v>214.25714285714281</v>
+        <v>7.5</v>
       </c>
       <c r="G160"/>
-      <c r="H160">
-        <v>15</v>
-      </c>
+      <c r="H160"/>
       <c r="I160">
-        <v>14</v>
+        <v>18.000000000000004</v>
       </c>
       <c r="J160">
-        <v>13.000000000000002</v>
+        <v>24</v>
       </c>
     </row>
     <row r="161">
       <c r="A161">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B161">
-        <v>280</v>
+        <v>717</v>
       </c>
       <c r="C161" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="D161">
-        <v>356.99062857142854</v>
+        <v>10.833333333333332</v>
       </c>
       <c r="E161">
-        <v>299.27634285714282</v>
+        <v>40.833333333333336</v>
       </c>
       <c r="F161">
-        <v>154.13348571428565</v>
+        <v>40.833333333333336</v>
       </c>
       <c r="G161"/>
-      <c r="H161">
-        <v>12</v>
-      </c>
+      <c r="H161"/>
       <c r="I161">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="J161">
         <v>16</v>
@@ -6356,600 +6383,1068 @@
     </row>
     <row r="162">
       <c r="A162">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="B162">
-        <v>281</v>
+        <v>735</v>
       </c>
       <c r="C162" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="D162">
-        <v>70.083885714285728</v>
+        <v>5.8333333333333321</v>
       </c>
       <c r="E162">
-        <v>42.083885714285721</v>
+        <v>9.1666666666666661</v>
       </c>
       <c r="F162">
-        <v>10.655314285714299</v>
+        <v>15</v>
       </c>
       <c r="G162"/>
-      <c r="H162">
-        <v>16</v>
-      </c>
+      <c r="H162"/>
       <c r="I162">
-        <v>18.000000000000004</v>
-      </c>
-      <c r="J162"/>
+        <v>19</v>
+      </c>
+      <c r="J162">
+        <v>17</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="B163">
-        <v>282</v>
+        <v>737</v>
       </c>
       <c r="C163" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="D163">
-        <v>133.46719999999996</v>
+        <v>19.999999999999996</v>
       </c>
       <c r="E163">
-        <v>51.181485714285692</v>
+        <v>57.5</v>
       </c>
       <c r="F163">
-        <v>44.895771428571415</v>
+        <v>38.333333333333329</v>
       </c>
       <c r="G163"/>
-      <c r="H163">
-        <v>12</v>
-      </c>
+      <c r="H163"/>
       <c r="I163">
-        <v>24</v>
-      </c>
-      <c r="J163"/>
+        <v>20</v>
+      </c>
+      <c r="J163">
+        <v>19</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="B164">
-        <v>285</v>
+        <v>823</v>
       </c>
       <c r="C164" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D164">
-        <v>171.62297142857139</v>
+        <v>10.833333333333332</v>
       </c>
       <c r="E164">
-        <v>34.480114285714286</v>
+        <v>9.9999999999999982</v>
       </c>
       <c r="F164">
-        <v>87.622971428571418</v>
+        <v>0.83333333333333326</v>
       </c>
       <c r="G164"/>
-      <c r="H164">
-        <v>12</v>
-      </c>
+      <c r="H164"/>
       <c r="I164">
-        <v>21</v>
-      </c>
-      <c r="J164">
-        <v>18.000000000000004</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="J164"/>
     </row>
     <row r="165">
-      <c r="A165">
-        <v>9</v>
-      </c>
-      <c r="B165">
-        <v>335</v>
-      </c>
-      <c r="C165" t="s">
-        <v>92</v>
-      </c>
-      <c r="D165">
-        <v>844.31828571428559</v>
-      </c>
-      <c r="E165">
-        <v>881.4611428571427</v>
-      </c>
-      <c r="F165">
-        <v>978.6039999999997</v>
-      </c>
+      <c r="A165"/>
+      <c r="B165"/>
+      <c r="C165"/>
+      <c r="D165"/>
+      <c r="E165"/>
+      <c r="F165"/>
       <c r="G165"/>
-      <c r="H165">
-        <v>14</v>
-      </c>
-      <c r="I165">
-        <v>14</v>
-      </c>
-      <c r="J165">
-        <v>13.000000000000002</v>
-      </c>
+      <c r="H165"/>
+      <c r="I165"/>
+      <c r="J165"/>
     </row>
     <row r="166">
-      <c r="A166">
-        <v>10</v>
-      </c>
-      <c r="B166">
-        <v>340</v>
-      </c>
-      <c r="C166" t="s">
-        <v>92</v>
-      </c>
+      <c r="A166" t="s">
+        <v>66</v>
+      </c>
+      <c r="B166"/>
+      <c r="C166"/>
       <c r="D166">
-        <v>249.96182857142858</v>
+        <v>8.7647058823529402</v>
       </c>
       <c r="E166">
-        <v>409.96182857142838</v>
+        <v>34.024509803921568</v>
       </c>
       <c r="F166">
-        <v>367.67611428571416</v>
+        <v>28.544117647058815</v>
       </c>
       <c r="G166"/>
       <c r="H166">
         <v>16</v>
       </c>
       <c r="I166">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="J166">
-        <v>14</v>
+        <v>16.800000000000001</v>
       </c>
     </row>
     <row r="167">
-      <c r="A167">
-        <v>11</v>
-      </c>
-      <c r="B167">
-        <v>418</v>
-      </c>
-      <c r="C167" t="s">
-        <v>93</v>
-      </c>
+      <c r="A167" t="s">
+        <v>67</v>
+      </c>
+      <c r="B167"/>
+      <c r="C167"/>
       <c r="D167">
-        <v>90.680457142857151</v>
+        <v>2.1398251993774653</v>
       </c>
       <c r="E167">
-        <v>50.680457142857136</v>
+        <v>8.7571771589125547</v>
       </c>
       <c r="F167">
-        <v>70.680457142857136</v>
+        <v>6.3888782585622739</v>
       </c>
       <c r="G167"/>
       <c r="H167">
-        <v>18.000000000000004</v>
+        <v>0</v>
       </c>
       <c r="I167">
-        <v>19</v>
+        <v>0.64168894791974795</v>
       </c>
       <c r="J167">
-        <v>16</v>
+        <v>0.78193898190880062</v>
       </c>
     </row>
     <row r="168">
-      <c r="A168">
-        <v>12</v>
-      </c>
-      <c r="B168">
-        <v>419</v>
-      </c>
-      <c r="C168" t="s">
-        <v>93</v>
-      </c>
-      <c r="D168">
-        <v>231.45954285714282</v>
-      </c>
-      <c r="E168">
-        <v>303.45954285714276</v>
-      </c>
-      <c r="F168">
-        <v>258.88811428571421</v>
-      </c>
+      <c r="A168"/>
+      <c r="B168"/>
+      <c r="C168"/>
+      <c r="D168"/>
+      <c r="E168"/>
+      <c r="F168"/>
       <c r="G168"/>
-      <c r="H168">
-        <v>14</v>
-      </c>
-      <c r="I168">
-        <v>16</v>
-      </c>
-      <c r="J168">
-        <v>15</v>
-      </c>
+      <c r="H168"/>
+      <c r="I168"/>
+      <c r="J168"/>
     </row>
     <row r="169">
-      <c r="A169">
-        <v>13</v>
-      </c>
-      <c r="B169">
-        <v>420</v>
-      </c>
-      <c r="C169" t="s">
-        <v>93</v>
-      </c>
-      <c r="D169">
-        <v>51.509600000000006</v>
-      </c>
-      <c r="E169">
-        <v>68.081028571428561</v>
-      </c>
-      <c r="F169">
-        <v>52.652457142857138</v>
-      </c>
+      <c r="A169" t="s">
+        <v>73</v>
+      </c>
+      <c r="B169"/>
+      <c r="C169"/>
+      <c r="D169"/>
+      <c r="E169"/>
+      <c r="F169"/>
       <c r="G169"/>
-      <c r="H169">
-        <v>12</v>
-      </c>
-      <c r="I169">
-        <v>17</v>
-      </c>
-      <c r="J169">
-        <v>19</v>
-      </c>
+      <c r="H169"/>
+      <c r="I169"/>
+      <c r="J169"/>
     </row>
     <row r="170">
-      <c r="A170">
-        <v>14</v>
-      </c>
-      <c r="B170">
-        <v>521</v>
+      <c r="A170" t="s">
+        <v>65</v>
+      </c>
+      <c r="B170" t="s">
+        <v>74</v>
       </c>
       <c r="C170" t="s">
-        <v>81</v>
-      </c>
-      <c r="D170">
-        <v>226.91645714285704</v>
-      </c>
-      <c r="E170">
-        <v>282.34502857142849</v>
-      </c>
-      <c r="F170">
-        <v>328.05931428571421</v>
+        <v>75</v>
+      </c>
+      <c r="D170" t="s">
+        <v>95</v>
+      </c>
+      <c r="E170" t="s">
+        <v>96</v>
+      </c>
+      <c r="F170" t="s">
+        <v>97</v>
       </c>
       <c r="G170"/>
-      <c r="H170">
-        <v>13.000000000000002</v>
-      </c>
-      <c r="I170">
-        <v>17</v>
-      </c>
-      <c r="J170">
-        <v>17</v>
+      <c r="H170" t="s">
+        <v>98</v>
+      </c>
+      <c r="I170" t="s">
+        <v>99</v>
+      </c>
+      <c r="J170" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="171">
       <c r="A171">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="B171">
-        <v>605</v>
+        <v>251</v>
       </c>
       <c r="C171" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="D171">
-        <v>146.44194285714281</v>
+        <v>58.666666666666664</v>
       </c>
       <c r="E171">
-        <v>101.2990857142857</v>
+        <v>90.666666666666671</v>
       </c>
       <c r="F171">
-        <v>115.58479999999997</v>
+        <v>78.666666666666657</v>
       </c>
       <c r="G171"/>
       <c r="H171">
-        <v>13.000000000000002</v>
+        <v>14</v>
       </c>
       <c r="I171">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J171">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="172">
       <c r="A172">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="B172">
-        <v>612</v>
+        <v>252</v>
       </c>
       <c r="C172" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="D172">
-        <v>100.16879999999998</v>
+        <v>14.666666666666666</v>
       </c>
       <c r="E172">
-        <v>128.16879999999998</v>
+        <v>52</v>
       </c>
       <c r="F172">
-        <v>73.311657142857129</v>
+        <v>63.999999999999993</v>
       </c>
       <c r="G172"/>
       <c r="H172">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I172">
-        <v>17</v>
+        <v>13.000000000000002</v>
       </c>
       <c r="J172">
-        <v>18.000000000000004</v>
+        <v>13.000000000000002</v>
       </c>
     </row>
     <row r="173">
       <c r="A173">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="B173">
-        <v>724</v>
+        <v>253</v>
       </c>
       <c r="C173" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D173">
-        <v>58.415199999999977</v>
+        <v>63.999999999999993</v>
       </c>
       <c r="E173">
-        <v>197.2723428571428</v>
+        <v>45.333333333333336</v>
       </c>
       <c r="F173">
-        <v>380.12948571428558</v>
+        <v>14.666666666666666</v>
       </c>
       <c r="G173"/>
       <c r="H173">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="I173">
-        <v>18.000000000000004</v>
-      </c>
-      <c r="J173">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="J173"/>
     </row>
     <row r="174">
       <c r="A174">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="B174">
-        <v>744</v>
+        <v>274</v>
       </c>
       <c r="C174" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D174">
-        <v>73.138171428571411</v>
+        <v>29.333333333333332</v>
       </c>
       <c r="E174">
-        <v>150.28102857142855</v>
+        <v>38.666666666666664</v>
       </c>
       <c r="F174">
-        <v>63.995314285714258</v>
+        <v>47.999999999999993</v>
       </c>
       <c r="G174"/>
       <c r="H174">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I174">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J174">
-        <v>24</v>
+        <v>13.000000000000002</v>
       </c>
     </row>
     <row r="175">
       <c r="A175">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="B175">
-        <v>781</v>
+        <v>280</v>
       </c>
       <c r="C175" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D175">
-        <v>416.9862857142856</v>
+        <v>178.66666666666666</v>
       </c>
       <c r="E175">
-        <v>73.557714285714283</v>
+        <v>65.333333333333329</v>
       </c>
       <c r="F175">
-        <v>6.1291428571428561</v>
+        <v>65.333333333333329</v>
       </c>
       <c r="G175"/>
       <c r="H175">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I175">
-        <v>15</v>
-      </c>
-      <c r="J175"/>
+        <v>14</v>
+      </c>
+      <c r="J175">
+        <v>16</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="B176">
-        <v>815</v>
+        <v>281</v>
       </c>
       <c r="C176" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D176">
-        <v>137.55771428571427</v>
+        <v>17.333333333333332</v>
       </c>
       <c r="E176">
-        <v>108.9862857142857</v>
+        <v>10.666666666666666</v>
       </c>
       <c r="F176">
-        <v>162.12914285714282</v>
+        <v>3.9999999999999996</v>
       </c>
       <c r="G176"/>
       <c r="H176">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I176">
-        <v>20</v>
-      </c>
-      <c r="J176">
-        <v>16</v>
-      </c>
+        <v>18.000000000000004</v>
+      </c>
+      <c r="J176"/>
     </row>
     <row r="177">
       <c r="A177">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="B177">
-        <v>832</v>
+        <v>282</v>
       </c>
       <c r="C177" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D177">
-        <v>97.110857142857128</v>
+        <v>50.666666666666664</v>
       </c>
       <c r="E177">
-        <v>245.11085714285704</v>
+        <v>30.666666666666664</v>
       </c>
       <c r="F177">
-        <v>190.82514285714282</v>
+        <v>26.666666666666664</v>
       </c>
       <c r="G177"/>
       <c r="H177">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="I177">
-        <v>15</v>
-      </c>
-      <c r="J177">
-        <v>15</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="J177"/>
     </row>
     <row r="178">
       <c r="A178">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="B178">
-        <v>836</v>
+        <v>285</v>
       </c>
       <c r="C178" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D178">
-        <v>223.09542857142853</v>
+        <v>74.666666666666671</v>
       </c>
       <c r="E178">
-        <v>71.095428571428556</v>
+        <v>18.666666666666668</v>
       </c>
       <c r="F178">
-        <v>31.666857142857136</v>
+        <v>25.333333333333332</v>
       </c>
       <c r="G178"/>
       <c r="H178">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="I178">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="J178">
-        <v>17</v>
+        <v>18.000000000000004</v>
       </c>
     </row>
     <row r="179">
       <c r="A179">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="B179">
-        <v>839</v>
+        <v>335</v>
       </c>
       <c r="C179" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="D179">
-        <v>127.6741714285714</v>
+        <v>335.83333333333326</v>
       </c>
       <c r="E179">
-        <v>87.674171428571398</v>
+        <v>339.16666666666669</v>
       </c>
       <c r="F179">
-        <v>79.102742857142829</v>
+        <v>350</v>
       </c>
       <c r="G179"/>
       <c r="H179">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="I179">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="J179">
-        <v>20</v>
+        <v>13.000000000000002</v>
       </c>
     </row>
     <row r="180">
-      <c r="A180"/>
-      <c r="B180"/>
-      <c r="C180"/>
-      <c r="D180"/>
-      <c r="E180"/>
-      <c r="F180"/>
+      <c r="A180">
+        <v>10</v>
+      </c>
+      <c r="B180">
+        <v>340</v>
+      </c>
+      <c r="C180" t="s">
+        <v>93</v>
+      </c>
+      <c r="D180">
+        <v>39.999999999999993</v>
+      </c>
+      <c r="E180">
+        <v>55.833333333333329</v>
+      </c>
+      <c r="F180">
+        <v>51.666666666666664</v>
+      </c>
       <c r="G180"/>
-      <c r="H180"/>
-      <c r="I180"/>
-      <c r="J180"/>
+      <c r="H180">
+        <v>16</v>
+      </c>
+      <c r="I180">
+        <v>15</v>
+      </c>
+      <c r="J180">
+        <v>14</v>
+      </c>
     </row>
     <row r="181">
-      <c r="A181" t="s">
-        <v>66</v>
-      </c>
-      <c r="B181"/>
-      <c r="C181"/>
+      <c r="A181">
+        <v>11</v>
+      </c>
+      <c r="B181">
+        <v>418</v>
+      </c>
+      <c r="C181" t="s">
+        <v>90</v>
+      </c>
       <c r="D181">
-        <v>194.35199999999995</v>
+        <v>14.166666666666664</v>
       </c>
       <c r="E181">
-        <v>178.72467080745338</v>
+        <v>9.1666666666666661</v>
       </c>
       <c r="F181">
-        <v>171.94206211180125</v>
+        <v>22.5</v>
       </c>
       <c r="G181"/>
       <c r="H181">
-        <v>14.347826086956522</v>
+        <v>18.000000000000004</v>
       </c>
       <c r="I181">
-        <v>16.652173913043477</v>
+        <v>19</v>
       </c>
       <c r="J181">
-        <v>16.263157894736842</v>
+        <v>16</v>
       </c>
     </row>
     <row r="182">
-      <c r="A182" t="s">
-        <v>67</v>
-      </c>
-      <c r="B182"/>
-      <c r="C182"/>
+      <c r="A182">
+        <v>12</v>
+      </c>
+      <c r="B182">
+        <v>419</v>
+      </c>
+      <c r="C182" t="s">
+        <v>90</v>
+      </c>
       <c r="D182">
-        <v>35.397970604399298</v>
+        <v>77.5</v>
       </c>
       <c r="E182">
-        <v>38.057627308987954</v>
+        <v>103.33333333333333</v>
       </c>
       <c r="F182">
-        <v>43.252498205739677</v>
+        <v>103.33333333333333</v>
       </c>
       <c r="G182"/>
       <c r="H182">
-        <v>0.55385353456995134</v>
+        <v>14</v>
       </c>
       <c r="I182">
-        <v>0.58508705359567847</v>
+        <v>16</v>
       </c>
       <c r="J182">
-        <v>0.62987098494793814</v>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183">
+        <v>13</v>
+      </c>
+      <c r="B183">
+        <v>420</v>
+      </c>
+      <c r="C183" t="s">
+        <v>90</v>
+      </c>
+      <c r="D183">
+        <v>15</v>
+      </c>
+      <c r="E183">
+        <v>8.3333333333333321</v>
+      </c>
+      <c r="F183">
+        <v>9.9999999999999982</v>
+      </c>
+      <c r="G183"/>
+      <c r="H183">
+        <v>12</v>
+      </c>
+      <c r="I183">
+        <v>17</v>
+      </c>
+      <c r="J183">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184">
+        <v>14</v>
+      </c>
+      <c r="B184">
+        <v>422</v>
+      </c>
+      <c r="C184" t="s">
+        <v>90</v>
+      </c>
+      <c r="D184">
+        <v>5.8333333333333321</v>
+      </c>
+      <c r="E184">
+        <v>30.833333333333332</v>
+      </c>
+      <c r="F184">
+        <v>21.666666666666664</v>
+      </c>
+      <c r="G184"/>
+      <c r="H184">
+        <v>15</v>
+      </c>
+      <c r="I184">
+        <v>17</v>
+      </c>
+      <c r="J184">
+        <v>18.000000000000004</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185">
+        <v>15</v>
+      </c>
+      <c r="B185">
+        <v>521</v>
+      </c>
+      <c r="C185" t="s">
+        <v>82</v>
+      </c>
+      <c r="D185">
+        <v>19.583333333333332</v>
+      </c>
+      <c r="E185">
+        <v>32.083333333333329</v>
+      </c>
+      <c r="F185">
+        <v>35.416666666666664</v>
+      </c>
+      <c r="G185"/>
+      <c r="H185">
+        <v>13.000000000000002</v>
+      </c>
+      <c r="I185">
+        <v>17</v>
+      </c>
+      <c r="J185">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186">
+        <v>16</v>
+      </c>
+      <c r="B186">
+        <v>561</v>
+      </c>
+      <c r="C186" t="s">
+        <v>82</v>
+      </c>
+      <c r="D186">
+        <v>4.1666666666666661</v>
+      </c>
+      <c r="E186">
+        <v>6.2499999999999991</v>
+      </c>
+      <c r="F186">
+        <v>2.9166666666666661</v>
+      </c>
+      <c r="G186"/>
+      <c r="H186">
+        <v>24</v>
+      </c>
+      <c r="I186">
+        <v>16</v>
+      </c>
+      <c r="J186">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187">
+        <v>17</v>
+      </c>
+      <c r="B187">
+        <v>605</v>
+      </c>
+      <c r="C187" t="s">
+        <v>88</v>
+      </c>
+      <c r="D187">
+        <v>62.499999999999993</v>
+      </c>
+      <c r="E187">
+        <v>30.833333333333332</v>
+      </c>
+      <c r="F187">
+        <v>21.666666666666664</v>
+      </c>
+      <c r="G187"/>
+      <c r="H187">
+        <v>13.000000000000002</v>
+      </c>
+      <c r="I187">
+        <v>15</v>
+      </c>
+      <c r="J187">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188">
+        <v>18</v>
+      </c>
+      <c r="B188">
+        <v>612</v>
+      </c>
+      <c r="C188" t="s">
+        <v>88</v>
+      </c>
+      <c r="D188">
+        <v>24.166666666666664</v>
+      </c>
+      <c r="E188">
+        <v>26.666666666666664</v>
+      </c>
+      <c r="F188">
+        <v>16.666666666666664</v>
+      </c>
+      <c r="G188"/>
+      <c r="H188">
+        <v>11</v>
+      </c>
+      <c r="I188">
+        <v>17</v>
+      </c>
+      <c r="J188">
+        <v>18.000000000000004</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189">
+        <v>19</v>
+      </c>
+      <c r="B189">
+        <v>615</v>
+      </c>
+      <c r="C189" t="s">
+        <v>88</v>
+      </c>
+      <c r="D189">
+        <v>2.4999999999999996</v>
+      </c>
+      <c r="E189">
+        <v>4.9999999999999991</v>
+      </c>
+      <c r="F189">
+        <v>4.1666666666666661</v>
+      </c>
+      <c r="G189"/>
+      <c r="H189">
+        <v>17</v>
+      </c>
+      <c r="I189">
+        <v>14</v>
+      </c>
+      <c r="J189"/>
+    </row>
+    <row r="190">
+      <c r="A190">
+        <v>20</v>
+      </c>
+      <c r="B190">
+        <v>724</v>
+      </c>
+      <c r="C190" t="s">
+        <v>94</v>
+      </c>
+      <c r="D190">
+        <v>10.833333333333332</v>
+      </c>
+      <c r="E190">
+        <v>24.166666666666664</v>
+      </c>
+      <c r="F190">
+        <v>40.833333333333336</v>
+      </c>
+      <c r="G190"/>
+      <c r="H190">
+        <v>19</v>
+      </c>
+      <c r="I190">
+        <v>18.000000000000004</v>
+      </c>
+      <c r="J190">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191">
+        <v>21</v>
+      </c>
+      <c r="B191">
+        <v>728</v>
+      </c>
+      <c r="C191" t="s">
+        <v>94</v>
+      </c>
+      <c r="D191">
+        <v>4.1666666666666661</v>
+      </c>
+      <c r="E191">
+        <v>26.666666666666664</v>
+      </c>
+      <c r="F191">
+        <v>35.833333333333329</v>
+      </c>
+      <c r="G191"/>
+      <c r="H191">
+        <v>12</v>
+      </c>
+      <c r="I191">
+        <v>14</v>
+      </c>
+      <c r="J191">
+        <v>13.000000000000002</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192">
+        <v>22</v>
+      </c>
+      <c r="B192">
+        <v>744</v>
+      </c>
+      <c r="C192" t="s">
+        <v>94</v>
+      </c>
+      <c r="D192">
+        <v>30</v>
+      </c>
+      <c r="E192">
+        <v>48.333333333333329</v>
+      </c>
+      <c r="F192">
+        <v>28.333333333333329</v>
+      </c>
+      <c r="G192"/>
+      <c r="H192">
+        <v>17</v>
+      </c>
+      <c r="I192">
+        <v>16</v>
+      </c>
+      <c r="J192">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193">
+        <v>23</v>
+      </c>
+      <c r="B193">
+        <v>781</v>
+      </c>
+      <c r="C193" t="s">
+        <v>91</v>
+      </c>
+      <c r="D193">
+        <v>50.833333333333329</v>
+      </c>
+      <c r="E193">
+        <v>9.1666666666666661</v>
+      </c>
+      <c r="F193">
+        <v>0.83333333333333326</v>
+      </c>
+      <c r="G193"/>
+      <c r="H193">
+        <v>11</v>
+      </c>
+      <c r="I193">
+        <v>15</v>
+      </c>
+      <c r="J193"/>
+    </row>
+    <row r="194">
+      <c r="A194">
+        <v>24</v>
+      </c>
+      <c r="B194">
+        <v>815</v>
+      </c>
+      <c r="C194" t="s">
+        <v>91</v>
+      </c>
+      <c r="D194">
+        <v>25.833333333333332</v>
+      </c>
+      <c r="E194">
+        <v>15</v>
+      </c>
+      <c r="F194">
+        <v>34.166666666666664</v>
+      </c>
+      <c r="G194"/>
+      <c r="H194">
+        <v>14</v>
+      </c>
+      <c r="I194">
+        <v>20</v>
+      </c>
+      <c r="J194">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195">
+        <v>25</v>
+      </c>
+      <c r="B195">
+        <v>832</v>
+      </c>
+      <c r="C195" t="s">
+        <v>91</v>
+      </c>
+      <c r="D195">
+        <v>25.833333333333332</v>
+      </c>
+      <c r="E195">
+        <v>75</v>
+      </c>
+      <c r="F195">
+        <v>49.166666666666664</v>
+      </c>
+      <c r="G195"/>
+      <c r="H195">
+        <v>15</v>
+      </c>
+      <c r="I195">
+        <v>15</v>
+      </c>
+      <c r="J195">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196">
+        <v>26</v>
+      </c>
+      <c r="B196">
+        <v>836</v>
+      </c>
+      <c r="C196" t="s">
+        <v>91</v>
+      </c>
+      <c r="D196">
+        <v>67.499999999999986</v>
+      </c>
+      <c r="E196">
+        <v>15</v>
+      </c>
+      <c r="F196">
+        <v>5.8333333333333321</v>
+      </c>
+      <c r="G196"/>
+      <c r="H196">
+        <v>14</v>
+      </c>
+      <c r="I196">
+        <v>16</v>
+      </c>
+      <c r="J196">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197">
+        <v>27</v>
+      </c>
+      <c r="B197">
+        <v>839</v>
+      </c>
+      <c r="C197" t="s">
+        <v>91</v>
+      </c>
+      <c r="D197">
+        <v>32.5</v>
+      </c>
+      <c r="E197">
+        <v>22.5</v>
+      </c>
+      <c r="F197">
+        <v>18.333333333333332</v>
+      </c>
+      <c r="G197"/>
+      <c r="H197">
+        <v>22</v>
+      </c>
+      <c r="I197">
+        <v>21</v>
+      </c>
+      <c r="J197">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198"/>
+      <c r="B198"/>
+      <c r="C198"/>
+      <c r="D198"/>
+      <c r="E198"/>
+      <c r="F198"/>
+      <c r="G198"/>
+      <c r="H198"/>
+      <c r="I198"/>
+      <c r="J198"/>
+    </row>
+    <row r="199">
+      <c r="A199" t="s">
+        <v>66</v>
+      </c>
+      <c r="B199"/>
+      <c r="C199"/>
+      <c r="D199">
+        <v>49.509259259259252</v>
+      </c>
+      <c r="E199">
+        <v>45.753086419753089</v>
+      </c>
+      <c r="F199">
+        <v>43.703703703703688</v>
+      </c>
+      <c r="G199"/>
+      <c r="H199">
+        <v>14.333333333333334</v>
+      </c>
+      <c r="I199">
+        <v>16.444444444444443</v>
+      </c>
+      <c r="J199">
+        <v>16.181818181818183</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="s">
+        <v>67</v>
+      </c>
+      <c r="B200"/>
+      <c r="C200"/>
+      <c r="D200">
+        <v>13.025815017264232</v>
+      </c>
+      <c r="E200">
+        <v>12.32342721049141</v>
+      </c>
+      <c r="F200">
+        <v>12.717094175861286</v>
+      </c>
+      <c r="G200"/>
+      <c r="H200">
+        <v>0.6877023141843227</v>
+      </c>
+      <c r="I200">
+        <v>0.51566164543584103</v>
+      </c>
+      <c r="J200">
+        <v>0.56841986355418594</v>
       </c>
     </row>
   </sheetData>

--- a/BAfc_claude_code/figures/figure_4/figure_4_data.xlsx
+++ b/BAfc_claude_code/figures/figure_4/figure_4_data.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="438" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="435" uniqueCount="100">
   <si>
     <t>PANELS B &amp; D: ΔFR Bar Charts (Monosynaptic 12-25ms window)</t>
   </si>
@@ -161,9 +161,6 @@
   </si>
   <si>
     <t>=== CS trials ===</t>
-  </si>
-  <si>
-    <t>Statistical Test:</t>
   </si>
   <si>
     <t>Wilcoxon rank-sum (LA vs AStria):</t>
@@ -1469,7 +1466,7 @@
         <v>37</v>
       </c>
       <c r="B9">
-        <v>0.15679999999999999</v>
+        <v>0.15989999999999999</v>
       </c>
       <c r="C9" t="s">
         <v>26</v>
@@ -1500,14 +1497,14 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="52.42578125" customWidth="true"/>
-    <col min="2" max="2" width="13.7109375" customWidth="true"/>
+    <col min="2" max="2" width="12.7109375" customWidth="true"/>
     <col min="3" max="3" width="11.7109375" customWidth="true"/>
     <col min="4" max="4" width="11.85546875" customWidth="true"/>
     <col min="5" max="5" width="10" customWidth="true"/>
@@ -1552,7 +1549,7 @@
         <v>29</v>
       </c>
       <c r="E4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5">
@@ -1560,16 +1557,16 @@
         <v>33</v>
       </c>
       <c r="B5">
-        <v>21.029935275080902</v>
+        <v>33.494252873563212</v>
       </c>
       <c r="C5">
-        <v>2.8635474668622862</v>
+        <v>4.4043814642350361</v>
       </c>
       <c r="D5">
-        <v>11.25</v>
+        <v>20.833333333333332</v>
       </c>
       <c r="E5">
-        <v>103</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6">
@@ -1577,16 +1574,16 @@
         <v>34</v>
       </c>
       <c r="B6">
-        <v>31.95911949685534</v>
+        <v>42.912037037037031</v>
       </c>
       <c r="C6">
-        <v>7.1504456841025616</v>
+        <v>10.007983444868653</v>
       </c>
       <c r="D6">
-        <v>17.333333333333332</v>
+        <v>25.833333333333332</v>
       </c>
       <c r="E6">
-        <v>53</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7">
@@ -1600,26 +1597,26 @@
       <c r="A8" t="s">
         <v>48</v>
       </c>
-      <c r="B8"/>
-      <c r="C8"/>
+      <c r="B8">
+        <v>0.4936287988466464</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
       <c r="D8"/>
       <c r="E8"/>
     </row>
     <row r="9">
-      <c r="A9" t="s">
-        <v>49</v>
-      </c>
-      <c r="B9">
-        <v>0.042318073793242116</v>
-      </c>
-      <c r="C9" t="s">
-        <v>28</v>
-      </c>
+      <c r="A9"/>
+      <c r="B9"/>
+      <c r="C9"/>
       <c r="D9"/>
       <c r="E9"/>
     </row>
     <row r="10">
-      <c r="A10"/>
+      <c r="A10" t="s">
+        <v>49</v>
+      </c>
       <c r="B10"/>
       <c r="C10"/>
       <c r="D10"/>
@@ -1627,75 +1624,77 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>50</v>
-      </c>
-      <c r="B11"/>
-      <c r="C11"/>
-      <c r="D11"/>
-      <c r="E11"/>
+        <v>32</v>
+      </c>
+      <c r="B11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>32</v>
-      </c>
-      <c r="B12" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" t="s">
-        <v>29</v>
-      </c>
-      <c r="E12" t="s">
-        <v>52</v>
+        <v>33</v>
+      </c>
+      <c r="B12">
+        <v>34.378600823045261</v>
+      </c>
+      <c r="C12">
+        <v>4.0265848194439231</v>
+      </c>
+      <c r="D12">
+        <v>21.333333333333332</v>
+      </c>
+      <c r="E12">
+        <v>81</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B13">
-        <v>27.911003236245957</v>
+        <v>41.221590909090907</v>
       </c>
       <c r="C13">
-        <v>3.4022406944531887</v>
+        <v>8.2541778627781142</v>
       </c>
       <c r="D13">
-        <v>15.833333333333332</v>
+        <v>27.499999999999996</v>
       </c>
       <c r="E13">
-        <v>103</v>
+        <v>44</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="s">
-        <v>34</v>
-      </c>
-      <c r="B14">
-        <v>35.454402515723267</v>
-      </c>
-      <c r="C14">
-        <v>7.0730707572379012</v>
-      </c>
-      <c r="D14">
-        <v>22.083333333333332</v>
-      </c>
-      <c r="E14">
-        <v>53</v>
-      </c>
+      <c r="A14"/>
+      <c r="B14"/>
+      <c r="C14"/>
+      <c r="D14"/>
+      <c r="E14"/>
     </row>
     <row r="15">
-      <c r="A15"/>
-      <c r="B15"/>
-      <c r="C15"/>
+      <c r="A15" t="s">
+        <v>48</v>
+      </c>
+      <c r="B15">
+        <v>0.52315405849157337</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
       <c r="D15"/>
       <c r="E15"/>
     </row>
     <row r="16">
-      <c r="A16" t="s">
-        <v>48</v>
-      </c>
+      <c r="A16"/>
       <c r="B16"/>
       <c r="C16"/>
       <c r="D16"/>
@@ -1703,112 +1702,83 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>49</v>
-      </c>
-      <c r="B17">
-        <v>0.20125115226584361</v>
-      </c>
-      <c r="C17" t="s">
-        <v>26</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="B17"/>
+      <c r="C17"/>
       <c r="D17"/>
       <c r="E17"/>
     </row>
     <row r="18">
-      <c r="A18"/>
-      <c r="B18"/>
-      <c r="C18"/>
-      <c r="D18"/>
-      <c r="E18"/>
+      <c r="A18" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" t="s">
+        <v>29</v>
+      </c>
+      <c r="E18" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>51</v>
-      </c>
-      <c r="B19"/>
-      <c r="C19"/>
-      <c r="D19"/>
-      <c r="E19"/>
+        <v>33</v>
+      </c>
+      <c r="B19">
+        <v>27.484627831715208</v>
+      </c>
+      <c r="C19">
+        <v>3.4860657622098437</v>
+      </c>
+      <c r="D19">
+        <v>14.583333333333332</v>
+      </c>
+      <c r="E19">
+        <v>103</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>32</v>
-      </c>
-      <c r="B20" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" t="s">
-        <v>24</v>
-      </c>
-      <c r="D20" t="s">
-        <v>29</v>
-      </c>
-      <c r="E20" t="s">
-        <v>52</v>
+        <v>34</v>
+      </c>
+      <c r="B20">
+        <v>32.583333333333329</v>
+      </c>
+      <c r="C20">
+        <v>6.9850068802801966</v>
+      </c>
+      <c r="D20">
+        <v>19.166666666666664</v>
+      </c>
+      <c r="E20">
+        <v>53</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="s">
-        <v>33</v>
-      </c>
-      <c r="B21">
-        <v>27.484627831715208</v>
-      </c>
-      <c r="C21">
-        <v>3.4860657622098437</v>
-      </c>
-      <c r="D21">
-        <v>14.583333333333332</v>
-      </c>
-      <c r="E21">
-        <v>103</v>
-      </c>
+      <c r="A21"/>
+      <c r="B21"/>
+      <c r="C21"/>
+      <c r="D21"/>
+      <c r="E21"/>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="B22">
-        <v>32.583333333333329</v>
-      </c>
-      <c r="C22">
-        <v>6.9850068802801966</v>
-      </c>
-      <c r="D22">
-        <v>19.166666666666664</v>
-      </c>
-      <c r="E22">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23"/>
-      <c r="B23"/>
-      <c r="C23"/>
-      <c r="D23"/>
-      <c r="E23"/>
-    </row>
-    <row r="24">
-      <c r="A24" t="s">
-        <v>48</v>
-      </c>
-      <c r="B24"/>
-      <c r="C24"/>
-      <c r="D24"/>
-      <c r="E24"/>
-    </row>
-    <row r="25">
-      <c r="A25" t="s">
-        <v>49</v>
-      </c>
-      <c r="B25">
         <v>0.32225900471354102</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C22" t="s">
         <v>26</v>
       </c>
-      <c r="D25"/>
-      <c r="E25"/>
+      <c r="D22"/>
+      <c r="E22"/>
     </row>
   </sheetData>
 </worksheet>
@@ -1833,7 +1803,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B1"/>
       <c r="C1"/>
@@ -1867,22 +1837,22 @@
         <v>32</v>
       </c>
       <c r="B4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4" t="s">
         <v>54</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>55</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>56</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>57</v>
       </c>
-      <c r="F4" t="s">
-        <v>58</v>
-      </c>
       <c r="G4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5">
@@ -1902,7 +1872,7 @@
         <v>2.9897991523791108</v>
       </c>
       <c r="F5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G5">
         <v>58</v>
@@ -1925,7 +1895,7 @@
         <v>3.659625273556999</v>
       </c>
       <c r="F6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G6">
         <v>36</v>
@@ -1942,7 +1912,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B8">
         <v>0.00055523271986468795</v>
@@ -1966,7 +1936,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B10"/>
       <c r="C10"/>
@@ -1980,22 +1950,22 @@
         <v>32</v>
       </c>
       <c r="B11" t="s">
+        <v>53</v>
+      </c>
+      <c r="C11" t="s">
         <v>54</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>55</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>56</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
         <v>57</v>
       </c>
-      <c r="F11" t="s">
-        <v>58</v>
-      </c>
       <c r="G11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12">
@@ -2015,7 +1985,7 @@
         <v>2.7435671112307713</v>
       </c>
       <c r="F12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G12">
         <v>81</v>
@@ -2038,7 +2008,7 @@
         <v>2.6496439586899996</v>
       </c>
       <c r="F13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G13">
         <v>44</v>
@@ -2055,7 +2025,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B15">
         <v>0.10312328267366366</v>
@@ -2079,7 +2049,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B17"/>
       <c r="C17"/>
@@ -2093,22 +2063,22 @@
         <v>32</v>
       </c>
       <c r="B18" t="s">
+        <v>53</v>
+      </c>
+      <c r="C18" t="s">
         <v>54</v>
       </c>
-      <c r="C18" t="s">
+      <c r="D18" t="s">
         <v>55</v>
       </c>
-      <c r="D18" t="s">
+      <c r="E18" t="s">
         <v>56</v>
       </c>
-      <c r="E18" t="s">
+      <c r="F18" t="s">
         <v>57</v>
       </c>
-      <c r="F18" t="s">
-        <v>58</v>
-      </c>
       <c r="G18" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="19">
@@ -2128,7 +2098,7 @@
         <v>2.7720408594239352</v>
       </c>
       <c r="F19" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G19">
         <v>77</v>
@@ -2151,7 +2121,7 @@
         <v>2.7724607231732721</v>
       </c>
       <c r="F20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G20">
         <v>40</v>
@@ -2168,7 +2138,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B22">
         <v>0.42085588428101045</v>
@@ -2207,7 +2177,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B1"/>
       <c r="C1"/>
@@ -2235,7 +2205,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B3"/>
       <c r="C3"/>
@@ -2261,7 +2231,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B5"/>
       <c r="C5"/>
@@ -2287,7 +2257,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B7"/>
       <c r="C7"/>
@@ -2301,32 +2271,32 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C8" t="s">
         <v>74</v>
       </c>
-      <c r="C8" t="s">
-        <v>75</v>
-      </c>
       <c r="D8" t="s">
+        <v>94</v>
+      </c>
+      <c r="E8" t="s">
         <v>95</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>96</v>
-      </c>
-      <c r="F8" t="s">
-        <v>97</v>
       </c>
       <c r="G8"/>
       <c r="H8" t="s">
+        <v>97</v>
+      </c>
+      <c r="I8" t="s">
         <v>98</v>
       </c>
-      <c r="I8" t="s">
+      <c r="J8" t="s">
         <v>99</v>
-      </c>
-      <c r="J8" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="9">
@@ -2337,7 +2307,7 @@
         <v>160</v>
       </c>
       <c r="C9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D9">
         <v>27.999999999999996</v>
@@ -2367,7 +2337,7 @@
         <v>210</v>
       </c>
       <c r="C10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D10">
         <v>5.333333333333333</v>
@@ -2395,7 +2365,7 @@
         <v>293</v>
       </c>
       <c r="C11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D11">
         <v>23.999999999999996</v>
@@ -2421,7 +2391,7 @@
         <v>373</v>
       </c>
       <c r="C12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D12">
         <v>35</v>
@@ -2447,7 +2417,7 @@
         <v>388</v>
       </c>
       <c r="C13" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D13">
         <v>56.666666666666657</v>
@@ -2473,7 +2443,7 @@
         <v>395</v>
       </c>
       <c r="C14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D14">
         <v>8.3333333333333321</v>
@@ -2499,7 +2469,7 @@
         <v>396</v>
       </c>
       <c r="C15" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D15">
         <v>11.666666666666664</v>
@@ -2525,7 +2495,7 @@
         <v>399</v>
       </c>
       <c r="C16" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D16">
         <v>20.833333333333332</v>
@@ -2551,7 +2521,7 @@
         <v>400</v>
       </c>
       <c r="C17" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D17">
         <v>12.499999999999998</v>
@@ -2577,7 +2547,7 @@
         <v>404</v>
       </c>
       <c r="C18" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D18">
         <v>14.166666666666664</v>
@@ -2603,7 +2573,7 @@
         <v>455</v>
       </c>
       <c r="C19" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D19">
         <v>4.1666666666666661</v>
@@ -2633,7 +2603,7 @@
         <v>483</v>
       </c>
       <c r="C20" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D20">
         <v>8.75</v>
@@ -2659,7 +2629,7 @@
         <v>487</v>
       </c>
       <c r="C21" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D21">
         <v>26.249999999999996</v>
@@ -2685,7 +2655,7 @@
         <v>495</v>
       </c>
       <c r="C22" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D22">
         <v>9.1666666666666661</v>
@@ -2711,7 +2681,7 @@
         <v>559</v>
       </c>
       <c r="C23" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D23">
         <v>15.833333333333332</v>
@@ -2737,7 +2707,7 @@
         <v>568</v>
       </c>
       <c r="C24" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D24">
         <v>45</v>
@@ -2763,7 +2733,7 @@
         <v>577</v>
       </c>
       <c r="C25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D25">
         <v>100.83333333333333</v>
@@ -2789,7 +2759,7 @@
         <v>688</v>
       </c>
       <c r="C26" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D26">
         <v>15.833333333333332</v>
@@ -2815,7 +2785,7 @@
         <v>918</v>
       </c>
       <c r="C27" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D27">
         <v>3.333333333333333</v>
@@ -2845,7 +2815,7 @@
         <v>924</v>
       </c>
       <c r="C28" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D28">
         <v>19.999999999999996</v>
@@ -2871,7 +2841,7 @@
         <v>925</v>
       </c>
       <c r="C29" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D29">
         <v>3.333333333333333</v>
@@ -2897,7 +2867,7 @@
         <v>927</v>
       </c>
       <c r="C30" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D30">
         <v>12.499999999999998</v>
@@ -2929,7 +2899,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B32"/>
       <c r="C32"/>
@@ -2955,7 +2925,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B33"/>
       <c r="C33"/>
@@ -2993,7 +2963,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B35"/>
       <c r="C35"/>
@@ -3007,32 +2977,32 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B36" t="s">
+        <v>73</v>
+      </c>
+      <c r="C36" t="s">
         <v>74</v>
       </c>
-      <c r="C36" t="s">
-        <v>75</v>
-      </c>
       <c r="D36" t="s">
+        <v>94</v>
+      </c>
+      <c r="E36" t="s">
         <v>95</v>
       </c>
-      <c r="E36" t="s">
+      <c r="F36" t="s">
         <v>96</v>
-      </c>
-      <c r="F36" t="s">
-        <v>97</v>
       </c>
       <c r="G36"/>
       <c r="H36" t="s">
+        <v>97</v>
+      </c>
+      <c r="I36" t="s">
         <v>98</v>
       </c>
-      <c r="I36" t="s">
+      <c r="J36" t="s">
         <v>99</v>
-      </c>
-      <c r="J36" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="37">
@@ -3043,7 +3013,7 @@
         <v>103</v>
       </c>
       <c r="C37" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D37">
         <v>0</v>
@@ -3071,7 +3041,7 @@
         <v>104</v>
       </c>
       <c r="C38" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D38">
         <v>3.9999999999999996</v>
@@ -3099,7 +3069,7 @@
         <v>108</v>
       </c>
       <c r="C39" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D39">
         <v>2.6666666666666665</v>
@@ -3127,7 +3097,7 @@
         <v>129</v>
       </c>
       <c r="C40" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D40">
         <v>1.3333333333333333</v>
@@ -3155,7 +3125,7 @@
         <v>130</v>
       </c>
       <c r="C41" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D41">
         <v>5.333333333333333</v>
@@ -3183,7 +3153,7 @@
         <v>137</v>
       </c>
       <c r="C42" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D42">
         <v>2.6666666666666665</v>
@@ -3211,7 +3181,7 @@
         <v>140</v>
       </c>
       <c r="C43" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D43">
         <v>7.9999999999999991</v>
@@ -3239,7 +3209,7 @@
         <v>141</v>
       </c>
       <c r="C44" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D44">
         <v>21.333333333333332</v>
@@ -3267,7 +3237,7 @@
         <v>145</v>
       </c>
       <c r="C45" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D45">
         <v>11.999999999999998</v>
@@ -3295,7 +3265,7 @@
         <v>163</v>
       </c>
       <c r="C46" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D46">
         <v>10.666666666666666</v>
@@ -3323,7 +3293,7 @@
         <v>170</v>
       </c>
       <c r="C47" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D47">
         <v>14.666666666666666</v>
@@ -3351,7 +3321,7 @@
         <v>171</v>
       </c>
       <c r="C48" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D48">
         <v>2.6666666666666665</v>
@@ -3377,7 +3347,7 @@
         <v>173</v>
       </c>
       <c r="C49" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D49">
         <v>0</v>
@@ -3405,7 +3375,7 @@
         <v>178</v>
       </c>
       <c r="C50" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D50">
         <v>2.6666666666666665</v>
@@ -3433,7 +3403,7 @@
         <v>186</v>
       </c>
       <c r="C51" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D51">
         <v>0</v>
@@ -3461,7 +3431,7 @@
         <v>187</v>
       </c>
       <c r="C52" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D52">
         <v>2.6666666666666665</v>
@@ -3489,7 +3459,7 @@
         <v>190</v>
       </c>
       <c r="C53" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D53">
         <v>0</v>
@@ -3517,7 +3487,7 @@
         <v>211</v>
       </c>
       <c r="C54" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D54">
         <v>0</v>
@@ -3543,7 +3513,7 @@
         <v>223</v>
       </c>
       <c r="C55" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D55">
         <v>9.3333333333333339</v>
@@ -3571,7 +3541,7 @@
         <v>232</v>
       </c>
       <c r="C56" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D56">
         <v>3.9999999999999996</v>
@@ -3599,7 +3569,7 @@
         <v>233</v>
       </c>
       <c r="C57" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D57">
         <v>1.3333333333333333</v>
@@ -3627,7 +3597,7 @@
         <v>235</v>
       </c>
       <c r="C58" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D58">
         <v>15.999999999999998</v>
@@ -3655,7 +3625,7 @@
         <v>239</v>
       </c>
       <c r="C59" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D59">
         <v>2.6666666666666665</v>
@@ -3683,7 +3653,7 @@
         <v>248</v>
       </c>
       <c r="C60" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D60">
         <v>5.333333333333333</v>
@@ -3711,7 +3681,7 @@
         <v>250</v>
       </c>
       <c r="C61" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D61">
         <v>5.333333333333333</v>
@@ -3737,7 +3707,7 @@
         <v>352</v>
       </c>
       <c r="C62" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D62">
         <v>0</v>
@@ -3765,7 +3735,7 @@
         <v>359</v>
       </c>
       <c r="C63" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D63">
         <v>2.4999999999999996</v>
@@ -3793,7 +3763,7 @@
         <v>365</v>
       </c>
       <c r="C64" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D64">
         <v>1.6666666666666665</v>
@@ -3819,7 +3789,7 @@
         <v>376</v>
       </c>
       <c r="C65" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D65">
         <v>1.6666666666666665</v>
@@ -3845,7 +3815,7 @@
         <v>393</v>
       </c>
       <c r="C66" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D66">
         <v>0</v>
@@ -3873,7 +3843,7 @@
         <v>403</v>
       </c>
       <c r="C67" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D67">
         <v>0.83333333333333326</v>
@@ -3901,7 +3871,7 @@
         <v>460</v>
       </c>
       <c r="C68" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D68">
         <v>1.6666666666666665</v>
@@ -3929,7 +3899,7 @@
         <v>474</v>
       </c>
       <c r="C69" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D69">
         <v>3.333333333333333</v>
@@ -3957,7 +3927,7 @@
         <v>485</v>
       </c>
       <c r="C70" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D70">
         <v>0.41666666666666663</v>
@@ -3985,7 +3955,7 @@
         <v>489</v>
       </c>
       <c r="C71" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D71">
         <v>12.916666666666666</v>
@@ -4013,7 +3983,7 @@
         <v>509</v>
       </c>
       <c r="C72" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D72">
         <v>0</v>
@@ -4041,7 +4011,7 @@
         <v>511</v>
       </c>
       <c r="C73" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D73">
         <v>0.83333333333333326</v>
@@ -4069,7 +4039,7 @@
         <v>519</v>
       </c>
       <c r="C74" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D74">
         <v>0.41666666666666663</v>
@@ -4097,7 +4067,7 @@
         <v>543</v>
       </c>
       <c r="C75" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D75">
         <v>8.3333333333333321</v>
@@ -4125,7 +4095,7 @@
         <v>551</v>
       </c>
       <c r="C76" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D76">
         <v>8.3333333333333321</v>
@@ -4151,7 +4121,7 @@
         <v>552</v>
       </c>
       <c r="C77" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D77">
         <v>3.75</v>
@@ -4177,7 +4147,7 @@
         <v>558</v>
       </c>
       <c r="C78" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D78">
         <v>6.6666666666666661</v>
@@ -4203,7 +4173,7 @@
         <v>566</v>
       </c>
       <c r="C79" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D79">
         <v>21.249999999999996</v>
@@ -4231,7 +4201,7 @@
         <v>575</v>
       </c>
       <c r="C80" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D80">
         <v>1.6666666666666665</v>
@@ -4259,7 +4229,7 @@
         <v>913</v>
       </c>
       <c r="C81" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D81">
         <v>12.499999999999998</v>
@@ -4293,7 +4263,7 @@
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B83"/>
       <c r="C83"/>
@@ -4317,7 +4287,7 @@
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B84"/>
       <c r="C84"/>
@@ -4353,7 +4323,7 @@
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B86"/>
       <c r="C86"/>
@@ -4367,32 +4337,32 @@
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B87" t="s">
+        <v>73</v>
+      </c>
+      <c r="C87" t="s">
         <v>74</v>
       </c>
-      <c r="C87" t="s">
-        <v>75</v>
-      </c>
       <c r="D87" t="s">
+        <v>94</v>
+      </c>
+      <c r="E87" t="s">
         <v>95</v>
       </c>
-      <c r="E87" t="s">
+      <c r="F87" t="s">
         <v>96</v>
-      </c>
-      <c r="F87" t="s">
-        <v>97</v>
       </c>
       <c r="G87"/>
       <c r="H87" t="s">
+        <v>97</v>
+      </c>
+      <c r="I87" t="s">
         <v>98</v>
       </c>
-      <c r="I87" t="s">
+      <c r="J87" t="s">
         <v>99</v>
-      </c>
-      <c r="J87" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="88">
@@ -4403,7 +4373,7 @@
         <v>105</v>
       </c>
       <c r="C88" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D88">
         <v>26.666666666666664</v>
@@ -4433,7 +4403,7 @@
         <v>147</v>
       </c>
       <c r="C89" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D89">
         <v>142.66666666666666</v>
@@ -4463,7 +4433,7 @@
         <v>153</v>
       </c>
       <c r="C90" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D90">
         <v>9.3333333333333339</v>
@@ -4493,7 +4463,7 @@
         <v>155</v>
       </c>
       <c r="C91" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D91">
         <v>74.666666666666671</v>
@@ -4523,7 +4493,7 @@
         <v>157</v>
       </c>
       <c r="C92" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D92">
         <v>34.666666666666664</v>
@@ -4553,7 +4523,7 @@
         <v>161</v>
       </c>
       <c r="C93" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D93">
         <v>29.333333333333332</v>
@@ -4583,7 +4553,7 @@
         <v>176</v>
       </c>
       <c r="C94" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D94">
         <v>3.9999999999999996</v>
@@ -4613,7 +4583,7 @@
         <v>184</v>
       </c>
       <c r="C95" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D95">
         <v>13.333333333333332</v>
@@ -4643,7 +4613,7 @@
         <v>185</v>
       </c>
       <c r="C96" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D96">
         <v>73.333333333333329</v>
@@ -4673,7 +4643,7 @@
         <v>189</v>
       </c>
       <c r="C97" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D97">
         <v>68</v>
@@ -4703,7 +4673,7 @@
         <v>192</v>
       </c>
       <c r="C98" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D98">
         <v>25.333333333333332</v>
@@ -4733,7 +4703,7 @@
         <v>195</v>
       </c>
       <c r="C99" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D99">
         <v>46.666666666666657</v>
@@ -4763,7 +4733,7 @@
         <v>198</v>
       </c>
       <c r="C100" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D100">
         <v>21.333333333333332</v>
@@ -4793,7 +4763,7 @@
         <v>199</v>
       </c>
       <c r="C101" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D101">
         <v>18.666666666666668</v>
@@ -4823,7 +4793,7 @@
         <v>200</v>
       </c>
       <c r="C102" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D102">
         <v>13.333333333333332</v>
@@ -4853,7 +4823,7 @@
         <v>207</v>
       </c>
       <c r="C103" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D103">
         <v>33.333333333333329</v>
@@ -4883,7 +4853,7 @@
         <v>222</v>
       </c>
       <c r="C104" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D104">
         <v>41.333333333333329</v>
@@ -4913,7 +4883,7 @@
         <v>226</v>
       </c>
       <c r="C105" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D105">
         <v>31.999999999999996</v>
@@ -4943,7 +4913,7 @@
         <v>227</v>
       </c>
       <c r="C106" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D106">
         <v>148</v>
@@ -4973,7 +4943,7 @@
         <v>241</v>
       </c>
       <c r="C107" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D107">
         <v>10.666666666666666</v>
@@ -5003,7 +4973,7 @@
         <v>245</v>
       </c>
       <c r="C108" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D108">
         <v>10.666666666666666</v>
@@ -5033,7 +5003,7 @@
         <v>249</v>
       </c>
       <c r="C109" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D109">
         <v>47.999999999999993</v>
@@ -5063,7 +5033,7 @@
         <v>360</v>
       </c>
       <c r="C110" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D110">
         <v>20.833333333333332</v>
@@ -5093,7 +5063,7 @@
         <v>363</v>
       </c>
       <c r="C111" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D111">
         <v>66.666666666666657</v>
@@ -5123,7 +5093,7 @@
         <v>370</v>
       </c>
       <c r="C112" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D112">
         <v>12.499999999999998</v>
@@ -5153,7 +5123,7 @@
         <v>371</v>
       </c>
       <c r="C113" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D113">
         <v>121.66666666666666</v>
@@ -5183,7 +5153,7 @@
         <v>377</v>
       </c>
       <c r="C114" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D114">
         <v>11.666666666666664</v>
@@ -5213,7 +5183,7 @@
         <v>437</v>
       </c>
       <c r="C115" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D115">
         <v>7.9166666666666661</v>
@@ -5243,7 +5213,7 @@
         <v>461</v>
       </c>
       <c r="C116" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D116">
         <v>11.25</v>
@@ -5273,7 +5243,7 @@
         <v>478</v>
       </c>
       <c r="C117" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D117">
         <v>8.75</v>
@@ -5303,7 +5273,7 @@
         <v>494</v>
       </c>
       <c r="C118" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D118">
         <v>84.999999999999986</v>
@@ -5333,7 +5303,7 @@
         <v>499</v>
       </c>
       <c r="C119" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D119">
         <v>16.25</v>
@@ -5363,7 +5333,7 @@
         <v>508</v>
       </c>
       <c r="C120" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D120">
         <v>34.166666666666664</v>
@@ -5393,7 +5363,7 @@
         <v>534</v>
       </c>
       <c r="C121" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D121">
         <v>70.416666666666657</v>
@@ -5423,7 +5393,7 @@
         <v>537</v>
       </c>
       <c r="C122" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D122">
         <v>56.249999999999993</v>
@@ -5453,7 +5423,7 @@
         <v>597</v>
       </c>
       <c r="C123" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D123">
         <v>12.499999999999998</v>
@@ -5489,7 +5459,7 @@
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B125"/>
       <c r="C125"/>
@@ -5515,7 +5485,7 @@
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B126"/>
       <c r="C126"/>
@@ -5565,7 +5535,7 @@
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B129"/>
       <c r="C129"/>
@@ -5591,7 +5561,7 @@
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B131"/>
       <c r="C131"/>
@@ -5605,32 +5575,32 @@
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B132" t="s">
+        <v>73</v>
+      </c>
+      <c r="C132" t="s">
         <v>74</v>
       </c>
-      <c r="C132" t="s">
-        <v>75</v>
-      </c>
       <c r="D132" t="s">
+        <v>94</v>
+      </c>
+      <c r="E132" t="s">
         <v>95</v>
       </c>
-      <c r="E132" t="s">
+      <c r="F132" t="s">
         <v>96</v>
-      </c>
-      <c r="F132" t="s">
-        <v>97</v>
       </c>
       <c r="G132"/>
       <c r="H132" t="s">
+        <v>97</v>
+      </c>
+      <c r="I132" t="s">
         <v>98</v>
       </c>
-      <c r="I132" t="s">
+      <c r="J132" t="s">
         <v>99</v>
-      </c>
-      <c r="J132" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="133">
@@ -5641,7 +5611,7 @@
         <v>283</v>
       </c>
       <c r="C133" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D133">
         <v>27.999999999999996</v>
@@ -5667,7 +5637,7 @@
         <v>288</v>
       </c>
       <c r="C134" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D134">
         <v>47.999999999999993</v>
@@ -5693,7 +5663,7 @@
         <v>414</v>
       </c>
       <c r="C135" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D135">
         <v>4.1666666666666661</v>
@@ -5721,7 +5691,7 @@
         <v>520</v>
       </c>
       <c r="C136" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D136">
         <v>6.6666666666666661</v>
@@ -5749,7 +5719,7 @@
         <v>528</v>
       </c>
       <c r="C137" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D137">
         <v>9.1666666666666661</v>
@@ -5777,7 +5747,7 @@
         <v>565</v>
       </c>
       <c r="C138" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D138">
         <v>20.416666666666668</v>
@@ -5803,7 +5773,7 @@
         <v>813</v>
       </c>
       <c r="C139" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D139">
         <v>52.499999999999993</v>
@@ -5829,7 +5799,7 @@
         <v>820</v>
       </c>
       <c r="C140" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D140">
         <v>23.333333333333329</v>
@@ -5855,7 +5825,7 @@
         <v>821</v>
       </c>
       <c r="C141" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D141">
         <v>15.833333333333332</v>
@@ -5887,7 +5857,7 @@
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B143"/>
       <c r="C143"/>
@@ -5911,7 +5881,7 @@
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B144"/>
       <c r="C144"/>
@@ -5947,7 +5917,7 @@
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B146"/>
       <c r="C146"/>
@@ -5961,32 +5931,32 @@
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B147" t="s">
+        <v>73</v>
+      </c>
+      <c r="C147" t="s">
         <v>74</v>
       </c>
-      <c r="C147" t="s">
-        <v>75</v>
-      </c>
       <c r="D147" t="s">
+        <v>94</v>
+      </c>
+      <c r="E147" t="s">
         <v>95</v>
       </c>
-      <c r="E147" t="s">
+      <c r="F147" t="s">
         <v>96</v>
-      </c>
-      <c r="F147" t="s">
-        <v>97</v>
       </c>
       <c r="G147"/>
       <c r="H147" t="s">
+        <v>97</v>
+      </c>
+      <c r="I147" t="s">
         <v>98</v>
       </c>
-      <c r="I147" t="s">
+      <c r="J147" t="s">
         <v>99</v>
-      </c>
-      <c r="J147" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="148">
@@ -5997,7 +5967,7 @@
         <v>254</v>
       </c>
       <c r="C148" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D148">
         <v>33.333333333333329</v>
@@ -6025,7 +5995,7 @@
         <v>262</v>
       </c>
       <c r="C149" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D149">
         <v>9.3333333333333339</v>
@@ -6053,7 +6023,7 @@
         <v>278</v>
       </c>
       <c r="C150" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D150">
         <v>1.3333333333333333</v>
@@ -6083,7 +6053,7 @@
         <v>338</v>
       </c>
       <c r="C151" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D151">
         <v>0.83333333333333326</v>
@@ -6111,7 +6081,7 @@
         <v>344</v>
       </c>
       <c r="C152" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D152">
         <v>15</v>
@@ -6139,7 +6109,7 @@
         <v>345</v>
       </c>
       <c r="C153" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D153">
         <v>0</v>
@@ -6167,7 +6137,7 @@
         <v>407</v>
       </c>
       <c r="C154" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D154">
         <v>8.3333333333333321</v>
@@ -6195,7 +6165,7 @@
         <v>408</v>
       </c>
       <c r="C155" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D155">
         <v>5.8333333333333321</v>
@@ -6223,7 +6193,7 @@
         <v>523</v>
       </c>
       <c r="C156" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D156">
         <v>17.916666666666664</v>
@@ -6251,7 +6221,7 @@
         <v>530</v>
       </c>
       <c r="C157" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D157">
         <v>2.083333333333333</v>
@@ -6279,7 +6249,7 @@
         <v>549</v>
       </c>
       <c r="C158" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D158">
         <v>4.9999999999999991</v>
@@ -6305,7 +6275,7 @@
         <v>580</v>
       </c>
       <c r="C159" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D159">
         <v>1.2499999999999998</v>
@@ -6333,7 +6303,7 @@
         <v>590</v>
       </c>
       <c r="C160" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D160">
         <v>1.2499999999999998</v>
@@ -6361,7 +6331,7 @@
         <v>717</v>
       </c>
       <c r="C161" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D161">
         <v>10.833333333333332</v>
@@ -6389,7 +6359,7 @@
         <v>735</v>
       </c>
       <c r="C162" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D162">
         <v>5.8333333333333321</v>
@@ -6417,7 +6387,7 @@
         <v>737</v>
       </c>
       <c r="C163" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D163">
         <v>19.999999999999996</v>
@@ -6445,7 +6415,7 @@
         <v>823</v>
       </c>
       <c r="C164" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D164">
         <v>10.833333333333332</v>
@@ -6477,7 +6447,7 @@
     </row>
     <row r="166">
       <c r="A166" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B166"/>
       <c r="C166"/>
@@ -6503,7 +6473,7 @@
     </row>
     <row r="167">
       <c r="A167" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B167"/>
       <c r="C167"/>
@@ -6541,7 +6511,7 @@
     </row>
     <row r="169">
       <c r="A169" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B169"/>
       <c r="C169"/>
@@ -6555,32 +6525,32 @@
     </row>
     <row r="170">
       <c r="A170" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B170" t="s">
+        <v>73</v>
+      </c>
+      <c r="C170" t="s">
         <v>74</v>
       </c>
-      <c r="C170" t="s">
-        <v>75</v>
-      </c>
       <c r="D170" t="s">
+        <v>94</v>
+      </c>
+      <c r="E170" t="s">
         <v>95</v>
       </c>
-      <c r="E170" t="s">
+      <c r="F170" t="s">
         <v>96</v>
-      </c>
-      <c r="F170" t="s">
-        <v>97</v>
       </c>
       <c r="G170"/>
       <c r="H170" t="s">
+        <v>97</v>
+      </c>
+      <c r="I170" t="s">
         <v>98</v>
       </c>
-      <c r="I170" t="s">
+      <c r="J170" t="s">
         <v>99</v>
-      </c>
-      <c r="J170" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="171">
@@ -6591,7 +6561,7 @@
         <v>251</v>
       </c>
       <c r="C171" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D171">
         <v>58.666666666666664</v>
@@ -6621,7 +6591,7 @@
         <v>252</v>
       </c>
       <c r="C172" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D172">
         <v>14.666666666666666</v>
@@ -6651,7 +6621,7 @@
         <v>253</v>
       </c>
       <c r="C173" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D173">
         <v>63.999999999999993</v>
@@ -6679,7 +6649,7 @@
         <v>274</v>
       </c>
       <c r="C174" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D174">
         <v>29.333333333333332</v>
@@ -6709,7 +6679,7 @@
         <v>280</v>
       </c>
       <c r="C175" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D175">
         <v>178.66666666666666</v>
@@ -6739,7 +6709,7 @@
         <v>281</v>
       </c>
       <c r="C176" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D176">
         <v>17.333333333333332</v>
@@ -6767,7 +6737,7 @@
         <v>282</v>
       </c>
       <c r="C177" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D177">
         <v>50.666666666666664</v>
@@ -6795,7 +6765,7 @@
         <v>285</v>
       </c>
       <c r="C178" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D178">
         <v>74.666666666666671</v>
@@ -6825,7 +6795,7 @@
         <v>335</v>
       </c>
       <c r="C179" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D179">
         <v>335.83333333333326</v>
@@ -6855,7 +6825,7 @@
         <v>340</v>
       </c>
       <c r="C180" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D180">
         <v>39.999999999999993</v>
@@ -6885,7 +6855,7 @@
         <v>418</v>
       </c>
       <c r="C181" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D181">
         <v>14.166666666666664</v>
@@ -6915,7 +6885,7 @@
         <v>419</v>
       </c>
       <c r="C182" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D182">
         <v>77.5</v>
@@ -6945,7 +6915,7 @@
         <v>420</v>
       </c>
       <c r="C183" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D183">
         <v>15</v>
@@ -6975,7 +6945,7 @@
         <v>422</v>
       </c>
       <c r="C184" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D184">
         <v>5.8333333333333321</v>
@@ -7005,7 +6975,7 @@
         <v>521</v>
       </c>
       <c r="C185" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D185">
         <v>19.583333333333332</v>
@@ -7035,7 +7005,7 @@
         <v>561</v>
       </c>
       <c r="C186" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D186">
         <v>4.1666666666666661</v>
@@ -7065,7 +7035,7 @@
         <v>605</v>
       </c>
       <c r="C187" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D187">
         <v>62.499999999999993</v>
@@ -7095,7 +7065,7 @@
         <v>612</v>
       </c>
       <c r="C188" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D188">
         <v>24.166666666666664</v>
@@ -7125,7 +7095,7 @@
         <v>615</v>
       </c>
       <c r="C189" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D189">
         <v>2.4999999999999996</v>
@@ -7153,7 +7123,7 @@
         <v>724</v>
       </c>
       <c r="C190" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D190">
         <v>10.833333333333332</v>
@@ -7183,7 +7153,7 @@
         <v>728</v>
       </c>
       <c r="C191" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D191">
         <v>4.1666666666666661</v>
@@ -7213,7 +7183,7 @@
         <v>744</v>
       </c>
       <c r="C192" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D192">
         <v>30</v>
@@ -7243,7 +7213,7 @@
         <v>781</v>
       </c>
       <c r="C193" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D193">
         <v>50.833333333333329</v>
@@ -7271,7 +7241,7 @@
         <v>815</v>
       </c>
       <c r="C194" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D194">
         <v>25.833333333333332</v>
@@ -7301,7 +7271,7 @@
         <v>832</v>
       </c>
       <c r="C195" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D195">
         <v>25.833333333333332</v>
@@ -7331,7 +7301,7 @@
         <v>836</v>
       </c>
       <c r="C196" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D196">
         <v>67.499999999999986</v>
@@ -7361,7 +7331,7 @@
         <v>839</v>
       </c>
       <c r="C197" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D197">
         <v>32.5</v>
@@ -7397,7 +7367,7 @@
     </row>
     <row r="199">
       <c r="A199" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B199"/>
       <c r="C199"/>
@@ -7423,7 +7393,7 @@
     </row>
     <row r="200">
       <c r="A200" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B200"/>
       <c r="C200"/>

--- a/BAfc_claude_code/figures/figure_4/figure_4_data.xlsx
+++ b/BAfc_claude_code/figures/figure_4/figure_4_data.xlsx
@@ -1466,7 +1466,7 @@
         <v>37</v>
       </c>
       <c r="B9">
-        <v>0.15989999999999999</v>
+        <v>0.16109999999999999</v>
       </c>
       <c r="C9" t="s">
         <v>26</v>

--- a/BAfc_claude_code/figures/figure_4/figure_4_data.xlsx
+++ b/BAfc_claude_code/figures/figure_4/figure_4_data.xlsx
@@ -368,11 +368,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="56.140625" customWidth="true"/>
-    <col min="2" max="2" width="15.7109375" customWidth="true"/>
-    <col min="3" max="3" width="11.7109375" customWidth="true"/>
-    <col min="4" max="4" width="11.85546875" customWidth="true"/>
-    <col min="5" max="5" width="11.7109375" customWidth="true"/>
+    <col min="1" max="1" width="52.6640625" customWidth="true"/>
+    <col min="2" max="2" width="15.5546875" customWidth="true"/>
+    <col min="3" max="3" width="11.5546875" customWidth="true"/>
+    <col min="4" max="4" width="11.5546875" customWidth="true"/>
+    <col min="5" max="5" width="11.5546875" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1315,14 +1315,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="51.140625" customWidth="true"/>
-    <col min="2" max="2" width="11.7109375" customWidth="true"/>
-    <col min="3" max="3" width="11.7109375" customWidth="true"/>
-    <col min="4" max="4" width="9.7109375" customWidth="true"/>
-    <col min="5" max="5" width="11.7109375" customWidth="true"/>
-    <col min="6" max="6" width="8.85546875" customWidth="true"/>
-    <col min="7" max="7" width="11.7109375" customWidth="true"/>
-    <col min="8" max="8" width="5.5703125" customWidth="true"/>
+    <col min="1" max="1" width="47.21875" customWidth="true"/>
+    <col min="2" max="2" width="11.5546875" customWidth="true"/>
+    <col min="3" max="3" width="11.5546875" customWidth="true"/>
+    <col min="4" max="4" width="8.6640625" customWidth="true"/>
+    <col min="5" max="5" width="11.5546875" customWidth="true"/>
+    <col min="6" max="6" width="7.77734375" customWidth="true"/>
+    <col min="7" max="7" width="11.5546875" customWidth="true"/>
+    <col min="8" max="8" width="5.21875" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1466,7 +1466,7 @@
         <v>37</v>
       </c>
       <c r="B9">
-        <v>0.16109999999999999</v>
+        <v>0.15959999999999999</v>
       </c>
       <c r="C9" t="s">
         <v>26</v>
@@ -1503,11 +1503,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="52.42578125" customWidth="true"/>
-    <col min="2" max="2" width="12.7109375" customWidth="true"/>
-    <col min="3" max="3" width="11.7109375" customWidth="true"/>
-    <col min="4" max="4" width="11.85546875" customWidth="true"/>
-    <col min="5" max="5" width="10" customWidth="true"/>
+    <col min="1" max="1" width="48.77734375" customWidth="true"/>
+    <col min="2" max="2" width="12.5546875" customWidth="true"/>
+    <col min="3" max="3" width="11.5546875" customWidth="true"/>
+    <col min="4" max="4" width="11.5546875" customWidth="true"/>
+    <col min="5" max="5" width="9" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1792,13 +1792,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="58.85546875" customWidth="true"/>
-    <col min="2" max="2" width="15.7109375" customWidth="true"/>
-    <col min="3" max="3" width="12.7109375" customWidth="true"/>
-    <col min="4" max="4" width="12.28515625" customWidth="true"/>
-    <col min="5" max="5" width="11.7109375" customWidth="true"/>
-    <col min="6" max="6" width="12.7109375" customWidth="true"/>
-    <col min="7" max="7" width="10" customWidth="true"/>
+    <col min="1" max="1" width="54.88671875" customWidth="true"/>
+    <col min="2" max="2" width="15.5546875" customWidth="true"/>
+    <col min="3" max="3" width="12.5546875" customWidth="true"/>
+    <col min="4" max="4" width="11" customWidth="true"/>
+    <col min="5" max="5" width="11.5546875" customWidth="true"/>
+    <col min="6" max="6" width="12.33203125" customWidth="true"/>
+    <col min="7" max="7" width="9" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2163,16 +2163,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="78.85546875" customWidth="true"/>
-    <col min="2" max="2" width="12.28515625" customWidth="true"/>
-    <col min="3" max="3" width="11.140625" customWidth="true"/>
-    <col min="4" max="4" width="12.7109375" customWidth="true"/>
-    <col min="5" max="5" width="12.7109375" customWidth="true"/>
-    <col min="6" max="6" width="14.28515625" customWidth="true"/>
+    <col min="1" max="1" width="72.5546875" customWidth="true"/>
+    <col min="2" max="2" width="11.109375" customWidth="true"/>
+    <col min="3" max="3" width="10.88671875" customWidth="true"/>
+    <col min="4" max="4" width="12.5546875" customWidth="true"/>
+    <col min="5" max="5" width="12.5546875" customWidth="true"/>
+    <col min="6" max="6" width="13.33203125" customWidth="true"/>
     <col min="7" max="7" width="9.140625"/>
-    <col min="8" max="8" width="16.42578125" customWidth="true"/>
-    <col min="9" max="9" width="16.5703125" customWidth="true"/>
-    <col min="10" max="10" width="19.7109375" customWidth="true"/>
+    <col min="8" max="8" width="15.109375" customWidth="true"/>
+    <col min="9" max="9" width="15.33203125" customWidth="true"/>
+    <col min="10" max="10" width="18.33203125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
